--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resource\ExcelResultsFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B3BB9-D272-4B72-8E58-FB4B0E95CD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A8BB3E-1994-4766-AB21-3D50B694B649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmailData" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,9 @@
     <sheet name="Productname_Result" sheetId="19" r:id="rId18"/>
     <sheet name="StateCode_Result" sheetId="20" r:id="rId19"/>
     <sheet name="StreetAddress_Result" sheetId="21" r:id="rId20"/>
-    <sheet name="EmailId_Result" r:id="rId24" sheetId="22"/>
-    <sheet name="Zipcode_Result" r:id="rId25" sheetId="23"/>
+    <sheet name="EmailId_Result" sheetId="22" r:id="rId21"/>
+    <sheet name="Zipcode_Result" sheetId="23" r:id="rId22"/>
+    <sheet name="EndToEnd_Result" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="450">
   <si>
     <t>Email</t>
   </si>
@@ -990,6 +991,420 @@
   </si>
   <si>
     <t>2025-12-10 11:39:08</t>
+  </si>
+  <si>
+    <t>69392efb9f9ed2ab69cb961d</t>
+  </si>
+  <si>
+    <t>2025-12-10 13:58:19</t>
+  </si>
+  <si>
+    <t>69392f419f9ed2ab69cb98ba</t>
+  </si>
+  <si>
+    <t>2025-12-10 13:59:23</t>
+  </si>
+  <si>
+    <t>69392f809f9ed2ab69cb9b42</t>
+  </si>
+  <si>
+    <t>2025-12-10 14:00:26</t>
+  </si>
+  <si>
+    <t>69392fc09f9ed2ab69cb9dc8</t>
+  </si>
+  <si>
+    <t>2025-12-10 14:01:31</t>
+  </si>
+  <si>
+    <t>693930019f9ed2ab69cba04e</t>
+  </si>
+  <si>
+    <t>2025-12-10 14:02:35</t>
+  </si>
+  <si>
+    <t>6939303f9f9ed2ab69cba2d4</t>
+  </si>
+  <si>
+    <t>2025-12-10 14:03:38</t>
+  </si>
+  <si>
+    <t>2025-12-10 14:04:10</t>
+  </si>
+  <si>
+    <t>2025-12-10 14:04:22</t>
+  </si>
+  <si>
+    <t>69393214d17e4efd87fcc10b</t>
+  </si>
+  <si>
+    <t>2025-12-10 14:11:28</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>69393320d17e4efd87fcc3cc</t>
+  </si>
+  <si>
+    <t>2025-12-10 14:15:57</t>
+  </si>
+  <si>
+    <t>5555555555554445</t>
+  </si>
+  <si>
+    <t>Master45</t>
+  </si>
+  <si>
+    <t>Payse</t>
+  </si>
+  <si>
+    <t>69395cf2846c2b397078bb8d</t>
+  </si>
+  <si>
+    <t>2025-12-10 17:14:28</t>
+  </si>
+  <si>
+    <t>69395d4a846c2b397078c190</t>
+  </si>
+  <si>
+    <t>2025-12-10 17:15:51</t>
+  </si>
+  <si>
+    <t>693a575d842069fc554468dc</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:02:50</t>
+  </si>
+  <si>
+    <t>693a578e842069fc55446bf2</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:03:36</t>
+  </si>
+  <si>
+    <t>693a57d0842069fc55446e97</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:04:43</t>
+  </si>
+  <si>
+    <t>PASS → productname rejected correctly   null</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:05:12</t>
+  </si>
+  <si>
+    <t>693a5cdf842069fc55447623</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:26:19</t>
+  </si>
+  <si>
+    <t>693a5d1f842069fc554478cc</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:27:21</t>
+  </si>
+  <si>
+    <t>693a5d60842069fc55447b72</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:28:26</t>
+  </si>
+  <si>
+    <t>693a5d9f842069fc55447e1d</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:29:30</t>
+  </si>
+  <si>
+    <t>693a5dde842069fc554480c4</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:30:32</t>
+  </si>
+  <si>
+    <t>EUR Master</t>
+  </si>
+  <si>
+    <t>693a60f8842069fc55448770</t>
+  </si>
+  <si>
+    <t>2025-12-11 11:43:26</t>
+  </si>
+  <si>
+    <t>693a6d2c7099b28cbd2eccc8</t>
+  </si>
+  <si>
+    <t>2025-12-11 12:35:57</t>
+  </si>
+  <si>
+    <t>693a6d787099b28cbd2ecfed</t>
+  </si>
+  <si>
+    <t>2025-12-11 12:37:08</t>
+  </si>
+  <si>
+    <t>693a6dc17099b28cbd2ed27e</t>
+  </si>
+  <si>
+    <t>2025-12-11 12:38:21</t>
+  </si>
+  <si>
+    <t>693a6e077099b28cbd2ed503</t>
+  </si>
+  <si>
+    <t>2025-12-11 12:39:30</t>
+  </si>
+  <si>
+    <t>693a6eb87099b28cbd2eda22</t>
+  </si>
+  <si>
+    <t>2025-12-11 12:42:32</t>
+  </si>
+  <si>
+    <t>693a6ef07099b28cbd2eda4f</t>
+  </si>
+  <si>
+    <t>2025-12-11 12:43:25</t>
+  </si>
+  <si>
+    <t>693a6f237099b28cbd2eda75</t>
+  </si>
+  <si>
+    <t>2025-12-11 12:44:15</t>
+  </si>
+  <si>
+    <t>693a6f587099b28cbd2eda9d</t>
+  </si>
+  <si>
+    <t>2025-12-11 12:45:08</t>
+  </si>
+  <si>
+    <t>693a6f8d7099b28cbd2edac5</t>
+  </si>
+  <si>
+    <t>2025-12-11 12:46:02</t>
+  </si>
+  <si>
+    <t>EUR MASTER</t>
+  </si>
+  <si>
+    <t>693a84e67099b28cbd2ef7c6</t>
+  </si>
+  <si>
+    <t>2025-12-11 14:16:48</t>
+  </si>
+  <si>
+    <t>693baa99dbae2d67e48d8331</t>
+  </si>
+  <si>
+    <t>2025-12-12 11:09:54</t>
+  </si>
+  <si>
+    <t>EUR null</t>
+  </si>
+  <si>
+    <t>693bb0aedbae2d67e48d878f</t>
+  </si>
+  <si>
+    <t>2025-12-12 11:35:55</t>
+  </si>
+  <si>
+    <t>693bb0e8dbae2d67e48d8d37</t>
+  </si>
+  <si>
+    <t>2025-12-12 11:36:51</t>
+  </si>
+  <si>
+    <t>693bb344dbae2d67e48d911f</t>
+  </si>
+  <si>
+    <t>2025-12-12 11:46:56</t>
+  </si>
+  <si>
+    <t>693bb7f8dbae2d67e48d96d3</t>
+  </si>
+  <si>
+    <t>2025-12-12 12:07:03</t>
+  </si>
+  <si>
+    <t>693bb982dbae2d67e48d9994</t>
+  </si>
+  <si>
+    <t>2025-12-12 12:13:35</t>
+  </si>
+  <si>
+    <t>693bbcbcdbae2d67e48d9ce5</t>
+  </si>
+  <si>
+    <t>2025-12-12 12:27:36</t>
+  </si>
+  <si>
+    <t>693bbda8dbae2d67e48d9fa1</t>
+  </si>
+  <si>
+    <t>2025-12-12 12:31:23</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:02:31</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:05:43</t>
+  </si>
+  <si>
+    <t>PASS → Country rejected correctly   US</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:06:06</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:06:53</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:08:26</t>
+  </si>
+  <si>
+    <t>693be37fdbae2d67e48dc5f0</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:13:02</t>
+  </si>
+  <si>
+    <t>693be562dbae2d67e48dc8d2</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:21:06</t>
+  </si>
+  <si>
+    <t>693be9297773652fbd058698</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:37:13</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:53:48</t>
+  </si>
+  <si>
+    <t>693bed457773652fbd058bfb</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:54:44</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:56:59</t>
+  </si>
+  <si>
+    <t>693bee067773652fbd058eb7</t>
+  </si>
+  <si>
+    <t>2025-12-12 15:57:55</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:01:07</t>
+  </si>
+  <si>
+    <t>693beefb7773652fbd059185</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:02:01</t>
+  </si>
+  <si>
+    <t>693bf0b97773652fbd059454</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:10:59</t>
+  </si>
+  <si>
+    <t>693bf14b7773652fbd0596fc</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:13:23</t>
+  </si>
+  <si>
+    <t>693bf25f7773652fbd0599bf</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:16:30</t>
+  </si>
+  <si>
+    <t>693bf2977773652fbd059c4d</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:17:24</t>
+  </si>
+  <si>
+    <t>693bf2cc7773652fbd059ed8</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:18:20</t>
+  </si>
+  <si>
+    <t>693bf3737773652fbd05a1bd</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:21:06</t>
+  </si>
+  <si>
+    <t>693bf3bd7773652fbd05a45f</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:22:21</t>
+  </si>
+  <si>
+    <t>693bf4087773652fbd05a700</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:23:36</t>
+  </si>
+  <si>
+    <t>693bf4e17773652fbd05a998</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:27:12</t>
+  </si>
+  <si>
+    <t>693bf52e7773652fbd05ac28</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:28:27</t>
+  </si>
+  <si>
+    <t>693bf57a7773652fbd05aebc</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:29:43</t>
+  </si>
+  <si>
+    <t>693bfae37773652fbd05b22a</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:52:56</t>
+  </si>
+  <si>
+    <t>693bfb3f7773652fbd05b4bc</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:54:24</t>
+  </si>
+  <si>
+    <t>693bfb8f7773652fbd05b753</t>
+  </si>
+  <si>
+    <t>2025-12-12 16:55:43</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2673,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>60</v>
       </c>
@@ -2290,7 +2705,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -3207,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C7EBC6-1F7B-4D49-A634-9FC007EF1086}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3367,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3381,23 +3796,9 @@
     <col min="4" max="4" customWidth="true" width="31.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>151</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>149</v>
@@ -3406,12 +3807,12 @@
         <v>150</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>149</v>
@@ -3420,12 +3821,12 @@
         <v>150</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>149</v>
@@ -3434,54 +3835,54 @@
         <v>150</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>149</v>
@@ -3490,12 +3891,12 @@
         <v>150</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>149</v>
@@ -3504,246 +3905,236 @@
         <v>150</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0"/>
       <c r="B16" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D16" s="0"/>
-      <c r="E16" t="s" s="0">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0"/>
+      <c r="D16" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D17" s="0"/>
       <c r="E17" t="s" s="0">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D18" s="0"/>
       <c r="E18" t="s" s="0">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D19" s="0"/>
       <c r="E19" t="s" s="0">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D20" s="0"/>
       <c r="E20" t="s" s="0">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D21" s="0"/>
       <c r="E21" t="s" s="0">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D22" s="0"/>
       <c r="E22" t="s" s="0">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D23" s="0"/>
       <c r="E23" t="s" s="0">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D24" s="0"/>
       <c r="E24" t="s" s="0">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D25" s="0"/>
       <c r="E25" t="s" s="0">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D26" s="0"/>
       <c r="E26" t="s" s="0">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D27" s="0"/>
       <c r="E27" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="E28" t="s" s="0">
         <v>288</v>
       </c>
     </row>
@@ -3754,164 +4145,165 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="44.7265625"/>
+    <col min="1" max="1" customWidth="true" width="46.6328125"/>
     <col min="3" max="3" customWidth="true" width="72.08984375"/>
     <col min="4" max="4" customWidth="true" width="30.81640625"/>
+    <col min="5" max="5" customWidth="true" width="30.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s" s="0">
+      <c r="B2" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
         <v>63</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B5" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B6" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="B7" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="B8" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="B9" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="B10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B11" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>187</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>259</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
         <v>63</v>
       </c>
@@ -3922,13 +4314,13 @@
         <v>175</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
         <v>63</v>
       </c>
@@ -3939,10 +4331,61 @@
         <v>175</v>
       </c>
       <c r="D14" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>291</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E15" t="s" s="0">
         <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3952,171 +4395,317 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="40.54296875"/>
+    <col min="3" max="3" customWidth="true" width="51.26953125"/>
+    <col min="4" max="4" customWidth="true" width="30.90625"/>
+    <col min="5" max="5" customWidth="true" width="24.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s" s="0">
+      <c r="B2" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B3" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B5" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B6" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
       <c r="B7" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="D7" s="0"/>
-      <c r="E7" t="s" s="0">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="D8" s="0"/>
       <c r="E8" t="s" s="0">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="D9" s="0"/>
       <c r="E9" t="s" s="0">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="D10" s="0"/>
       <c r="E10" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>290</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="B12" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D12" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>294</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B13" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="D12" s="0"/>
-      <c r="E12" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4126,10 +4715,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4139,141 +4728,351 @@
     <col min="5" max="5" customWidth="true" width="39.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>193</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B5" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>199</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0"/>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" t="s" s="0">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="D6" s="0"/>
       <c r="E6" t="s" s="0">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="D7" s="0"/>
       <c r="E7" t="s" s="0">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="D8" s="0"/>
       <c r="E8" t="s" s="0">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="D9" s="0"/>
       <c r="E9" t="s" s="0">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="D10" s="0"/>
       <c r="E10" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>271</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" t="s" s="0">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" t="s" s="0">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="D14" s="0"/>
+      <c r="E14" t="s" s="0">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="D15" s="0"/>
+      <c r="E15" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="D16" s="0"/>
+      <c r="E16" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" t="s" s="0">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" t="s" s="0">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4283,10 +5082,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4297,225 +5096,208 @@
     <col min="6" max="6" customWidth="true" width="27.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>201</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>213</v>
+        <v>177</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>210</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>157</v>
@@ -4524,74 +5306,81 @@
         <v>177</v>
       </c>
       <c r="D16" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E17" t="s" s="0">
         <v>232</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="D17" s="0"/>
-      <c r="E17" t="s" s="0">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="D18" s="0"/>
       <c r="E18" t="s" s="0">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="D19" s="0"/>
       <c r="E19" t="s" s="0">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="D20" s="0"/>
       <c r="E20" t="s" s="0">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s" s="0">
         <v>149</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="D21" s="0"/>
       <c r="E21" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>276</v>
       </c>
     </row>
@@ -4602,57 +5391,41 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="21.0"/>
     <col min="2" max="2" customWidth="true" width="26.1796875"/>
-    <col min="3" max="3" customWidth="true" width="33.26953125"/>
+    <col min="3" max="3" customWidth="true" width="39.26953125"/>
     <col min="4" max="4" customWidth="true" width="34.453125"/>
+    <col min="5" max="5" customWidth="true" width="21.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>234</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>149</v>
@@ -4661,10 +5434,92 @@
         <v>175</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4674,10 +5529,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4686,26 +5541,9 @@
     <col min="4" max="4" customWidth="true" width="40.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>240</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>149</v>
@@ -4714,49 +5552,49 @@
         <v>175</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>149</v>
@@ -4765,10 +5603,112 @@
         <v>175</v>
       </c>
       <c r="D5" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4780,7 +5720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2E299D-1153-47D3-ACB1-8EE951B99FA7}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4945,10 +5885,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4957,28 +5897,12 @@
     <col min="2" max="2" customWidth="true" width="18.453125"/>
     <col min="3" max="3" customWidth="true" width="24.0"/>
     <col min="4" max="4" customWidth="true" width="25.26953125"/>
+    <col min="5" max="5" customWidth="true" width="21.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>250</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>149</v>
@@ -4987,10 +5911,322 @@
         <v>175</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>251</v>
       </c>
+      <c r="E3" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="28.08984375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>253</v>
+      </c>
       <c r="E2" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4999,89 +6235,352 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.54296875"/>
+    <col min="2" max="2" customWidth="true" width="16.26953125"/>
+    <col min="3" max="3" customWidth="true" width="33.7265625"/>
+    <col min="4" max="4" customWidth="true" width="30.08984375"/>
+    <col min="5" max="5" customWidth="true" width="19.26953125"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>253</v>
-      </c>
-      <c r="D1" s="0"/>
-      <c r="E1" t="s" s="0">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" t="s" s="0">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>257</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" t="s" s="0">
-        <v>258</v>
+      <c r="B8" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.453125"/>
+    <col min="2" max="2" customWidth="true" width="16.6328125"/>
+    <col min="3" max="3" customWidth="true" width="21.453125"/>
+    <col min="4" max="4" customWidth="true" width="35.453125"/>
+    <col min="5" max="5" customWidth="true" width="33.1796875"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>149</v>
@@ -5090,15 +6589,15 @@
         <v>175</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>298</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>149</v>
@@ -5107,15 +6606,15 @@
         <v>175</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>301</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>38</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>149</v>
@@ -5124,76 +6623,133 @@
         <v>175</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>303</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>39</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>304</v>
+        <v>387</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>305</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>34</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>306</v>
+        <v>389</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>307</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>22</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="D7" s="0"/>
+        <v>177</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>391</v>
+      </c>
       <c r="E7" t="s" s="0">
-        <v>309</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
+      <c r="A8" t="s" s="0">
+        <v>386</v>
+      </c>
       <c r="B8" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="D8" s="0"/>
+        <v>177</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>393</v>
+      </c>
       <c r="E8" t="s" s="0">
-        <v>311</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7262,10 +8818,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F37F32-7980-4B53-B396-8F4B2915558F}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7785,8 +9341,262 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
+      <c r="A23" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="0">
+        <v>112</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="0">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="0">
+        <v>112</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="0">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="0">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="0">
+        <v>112</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="0">
+        <v>112</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="0">
+        <v>112</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="0">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="0">
+        <v>112</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="0">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A8BB3E-1994-4766-AB21-3D50B694B649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2A5A1-F4B8-4600-B7A8-643343FB8B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmailData" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="483">
   <si>
     <t>Email</t>
   </si>
@@ -432,9 +432,6 @@
     <t>IN</t>
   </si>
   <si>
-    <t>StateCode</t>
-  </si>
-  <si>
     <t>QLD</t>
   </si>
   <si>
@@ -444,15 +441,9 @@
     <t>@</t>
   </si>
   <si>
-    <t>04 / 28</t>
-  </si>
-  <si>
     <t>qld</t>
   </si>
   <si>
-    <t>Cardholder Name</t>
-  </si>
-  <si>
     <t>Hitman Sharma</t>
   </si>
   <si>
@@ -468,12 +459,6 @@
     <t>Matrix</t>
   </si>
   <si>
-    <t>4222222222222</t>
-  </si>
-  <si>
-    <t>Visa22</t>
-  </si>
-  <si>
     <t>Neogate</t>
   </si>
   <si>
@@ -1405,14 +1390,127 @@
   </si>
   <si>
     <t>2025-12-12 16:55:43</t>
+  </si>
+  <si>
+    <t>QLDD</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>MUM</t>
+  </si>
+  <si>
+    <t>693fa35d2a49368b7dd8670d</t>
+  </si>
+  <si>
+    <t>2025-12-15 11:29:58</t>
+  </si>
+  <si>
+    <t>2025-12-15 11:30:34</t>
+  </si>
+  <si>
+    <t>2025-12-15 11:30:49</t>
+  </si>
+  <si>
+    <t>2025-12-15 11:31:02</t>
+  </si>
+  <si>
+    <t>2025-12-15 11:31:19</t>
+  </si>
+  <si>
+    <t>2025-12-15 11:31:34</t>
+  </si>
+  <si>
+    <t>693fa8d32a49368b7dd86b0a</t>
+  </si>
+  <si>
+    <t>2025-12-15 11:53:17</t>
+  </si>
+  <si>
+    <t>693fa9752a49368b7dd86dc4</t>
+  </si>
+  <si>
+    <t>2025-12-15 11:55:58</t>
+  </si>
+  <si>
+    <t>693faaef2a49368b7dd87090</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:02:19</t>
+  </si>
+  <si>
+    <t>693fab9d2a49368b7dd87358</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:05:10</t>
+  </si>
+  <si>
+    <t>693fac912a49368b7dd877fe</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:07:48</t>
+  </si>
+  <si>
+    <t>693fadc82a49368b7dd87ab9</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:13:01</t>
+  </si>
+  <si>
+    <t>693fae1a2a49368b7dd87d64</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:14:19</t>
+  </si>
+  <si>
+    <t>693fb24f2a49368b7dd886d3</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:33:45</t>
+  </si>
+  <si>
+    <t>693fb3392a49368b7dd889b2</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:37:39</t>
+  </si>
+  <si>
+    <t>693fb5652a49368b7dd88cc1</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:45:24</t>
+  </si>
+  <si>
+    <t>693fb5ac2a49368b7dd88f7a</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:46:35</t>
+  </si>
+  <si>
+    <t>693fb5f12a49368b7dd89226</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:47:43</t>
+  </si>
+  <si>
+    <t>693fb6382a49368b7dd894d2</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:48:54</t>
+  </si>
+  <si>
+    <t>693fb73e2a49368b7dd8979c</t>
+  </si>
+  <si>
+    <t>2025-12-15 12:53:18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,12 +1580,6 @@
       <color rgb="FF6A3E3E"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1560,7 +1652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1603,18 +1695,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1926,30 +2010,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.08984375"/>
-    <col min="2" max="2" customWidth="true" width="17.453125"/>
-    <col min="3" max="3" customWidth="true" width="32.1796875"/>
-    <col min="4" max="4" customWidth="true" width="20.453125"/>
-    <col min="6" max="6" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1969,15 +2053,15 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1986,18 +2070,18 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2006,18 +2090,18 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2026,18 +2110,18 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2046,18 +2130,18 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>440</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2066,18 +2150,18 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>440</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2086,18 +2170,18 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>440</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2106,18 +2190,18 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>440</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2126,18 +2210,18 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>440</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2146,15 +2230,15 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>440</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2163,18 +2247,18 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>440</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2183,10 +2267,10 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>440</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2194,7 +2278,7 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2211,10 +2295,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2231,10 +2315,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2251,10 +2335,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2271,10 +2355,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -2291,10 +2375,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2311,10 +2395,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -2331,10 +2415,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2351,10 +2435,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2371,10 +2455,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2391,7 +2475,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -2408,10 +2492,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2441,20 +2525,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3F7CA5-7B0D-4E70-863E-C0BA5B9997B2}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.6328125"/>
-    <col min="2" max="2" customWidth="true" width="20.08984375"/>
-    <col min="5" max="5" customWidth="true" width="19.36328125"/>
-    <col min="6" max="6" customWidth="true" width="14.81640625"/>
-    <col min="7" max="7" customWidth="true" width="13.1796875"/>
-    <col min="8" max="8" customWidth="true" width="14.90625"/>
-    <col min="9" max="9" customWidth="true" width="14.36328125"/>
-    <col min="10" max="10" customWidth="true" width="58.54296875"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="58.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -3620,157 +3704,253 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C7EBC6-1F7B-4D49-A634-9FC007EF1086}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="17.26953125"/>
-    <col min="3" max="3" customWidth="true" width="23.81640625"/>
-    <col min="4" max="4" customWidth="true" width="15.453125"/>
-    <col min="5" max="5" customWidth="true" width="12.81640625"/>
-    <col min="6" max="6" customWidth="true" width="15.81640625"/>
+    <col min="1" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4">
+        <v>440</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4">
+        <v>440</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4">
+        <v>440</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="22">
+        <v>123</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4">
+        <v>440</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="25">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4">
         <v>440</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4">
         <v>440</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
-        <v>123</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
         <v>440</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4">
         <v>440</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>139</v>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4">
+        <v>440</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3962,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -3790,352 +3970,439 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.26953125"/>
-    <col min="2" max="2" customWidth="true" width="17.7265625"/>
-    <col min="3" max="3" customWidth="true" width="55.81640625"/>
-    <col min="4" max="4" customWidth="true" width="31.0"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="55.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
         <v>149</v>
       </c>
-      <c r="C2" t="s" s="0">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
         <v>150</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
         <v>157</v>
       </c>
-      <c r="C7" t="s" s="0">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
         <v>158</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E29" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s" s="0">
+      <c r="E30" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="E31" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="E32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="E33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>173</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>288</v>
+      <c r="E34" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4153,239 +4420,239 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="46.6328125"/>
-    <col min="3" max="3" customWidth="true" width="72.08984375"/>
-    <col min="4" max="4" customWidth="true" width="30.81640625"/>
-    <col min="5" max="5" customWidth="true" width="30.36328125"/>
+    <col min="1" max="1" width="46.6328125" customWidth="1"/>
+    <col min="3" max="3" width="72.08984375" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
         <v>328</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="E17" t="s">
         <v>329</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>330</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>331</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>259</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>291</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>326</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4403,309 +4670,309 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="51.26953125"/>
-    <col min="4" max="4" customWidth="true" width="30.90625"/>
-    <col min="5" max="5" customWidth="true" width="24.54296875"/>
+    <col min="3" max="3" width="51.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>188</v>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>189</v>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>190</v>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>191</v>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>189</v>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>190</v>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>263</v>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>264</v>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="E10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="E11" t="s" s="0">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>293</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>295</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>126</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E16" t="s">
         <v>363</v>
       </c>
-      <c r="E14" t="s" s="0">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="E17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>127</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>365</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>128</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>367</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>369</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>371</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>373</v>
-      </c>
-      <c r="E19" t="s" s="0">
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D20" t="s" s="0">
+      <c r="E22" t="s">
         <v>375</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>379</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4723,356 +4990,348 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="45.90625"/>
-    <col min="4" max="4" customWidth="true" width="41.1796875"/>
-    <col min="5" max="5" customWidth="true" width="39.26953125"/>
+    <col min="3" max="3" width="45.90625" customWidth="1"/>
+    <col min="4" max="4" width="41.1796875" customWidth="1"/>
+    <col min="5" max="5" width="39.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
         <v>192</v>
       </c>
-      <c r="E2" t="s" s="0">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>406</v>
+      </c>
+      <c r="E19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" t="s" s="0">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" t="s" s="0">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>403</v>
-      </c>
-      <c r="D14" s="0"/>
-      <c r="E14" t="s" s="0">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>403</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" t="s" s="0">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>403</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" t="s" s="0">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>407</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>409</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>411</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="D20" s="0"/>
-      <c r="E20" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>414</v>
-      </c>
-      <c r="E21" t="s" s="0">
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="D22" s="0"/>
-      <c r="E22" t="s" s="0">
+      <c r="E25" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>417</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="D24" s="0"/>
-      <c r="E24" t="s" s="0">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>420</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -5090,298 +5349,298 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="43.453125"/>
-    <col min="4" max="4" customWidth="true" width="52.26953125"/>
-    <col min="5" max="5" customWidth="true" width="40.81640625"/>
-    <col min="6" max="6" customWidth="true" width="27.90625"/>
+    <col min="3" max="3" width="43.453125" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" customWidth="1"/>
+    <col min="6" max="6" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
         <v>200</v>
       </c>
-      <c r="E2" t="s" s="0">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="E5" t="s">
         <v>202</v>
       </c>
-      <c r="E3" t="s" s="0">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="E6" t="s">
         <v>204</v>
       </c>
-      <c r="E4" t="s" s="0">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="E7" t="s">
         <v>206</v>
       </c>
-      <c r="E5" t="s" s="0">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
         <v>208</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D7" t="s" s="0">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
         <v>210</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
         <v>212</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="E10" t="s">
         <v>213</v>
       </c>
-      <c r="E8" t="s" s="0">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="E11" t="s">
         <v>215</v>
       </c>
-      <c r="E9" t="s" s="0">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="E12" t="s">
         <v>217</v>
       </c>
-      <c r="E10" t="s" s="0">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="E13" t="s">
         <v>219</v>
       </c>
-      <c r="E11" t="s" s="0">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="E14" t="s">
         <v>221</v>
       </c>
-      <c r="E12" t="s" s="0">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="E15" t="s">
         <v>223</v>
       </c>
-      <c r="E13" t="s" s="0">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s" s="0">
+      <c r="E16" t="s">
         <v>225</v>
       </c>
-      <c r="E14" t="s" s="0">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s" s="0">
+      <c r="E17" t="s">
         <v>227</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>229</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>232</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>272</v>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>273</v>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>274</v>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>275</v>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>276</v>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5399,127 +5658,127 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0"/>
-    <col min="2" max="2" customWidth="true" width="26.1796875"/>
-    <col min="3" max="3" customWidth="true" width="39.26953125"/>
-    <col min="4" max="4" customWidth="true" width="34.453125"/>
-    <col min="5" max="5" customWidth="true" width="21.6328125"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" t="s">
         <v>233</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" t="s">
         <v>342</v>
       </c>
-      <c r="E5" t="s" s="0">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="E8" t="s">
         <v>344</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>346</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>348</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5529,7 +5788,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -5537,178 +5796,413 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="35.36328125"/>
-    <col min="4" max="4" customWidth="true" width="40.0"/>
+    <col min="3" max="3" width="35.36328125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>126</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" t="s">
         <v>239</v>
       </c>
-      <c r="E2" t="s" s="0">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="E5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>127</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>241</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>243</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>245</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>247</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>126</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>350</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>352</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>354</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>356</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>358</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>359</v>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>461</v>
+      </c>
+      <c r="E15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>465</v>
+      </c>
+      <c r="E17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>469</v>
+      </c>
+      <c r="E19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>477</v>
+      </c>
+      <c r="E23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>447</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>479</v>
+      </c>
+      <c r="E24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>481</v>
+      </c>
+      <c r="E25" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -5726,25 +6220,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.6328125"/>
-    <col min="2" max="2" customWidth="true" width="15.6328125"/>
-    <col min="3" max="3" customWidth="true" width="17.81640625"/>
-    <col min="4" max="4" customWidth="true" width="20.6328125"/>
-    <col min="5" max="5" customWidth="true" style="6" width="11.90625"/>
-    <col min="6" max="6" style="6" width="8.7265625"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -5778,7 +6272,7 @@
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5795,10 +6289,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -5818,7 +6312,7 @@
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -5838,7 +6332,7 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -5855,10 +6349,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -5893,283 +6387,283 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.36328125"/>
-    <col min="2" max="2" customWidth="true" width="18.453125"/>
-    <col min="3" max="3" customWidth="true" width="24.0"/>
-    <col min="4" max="4" customWidth="true" width="25.26953125"/>
-    <col min="5" max="5" customWidth="true" width="21.81640625"/>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>250</v>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>251</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" t="s">
         <v>422</v>
       </c>
-      <c r="E4" t="s" s="0">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="E7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>424</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>426</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>428</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>430</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>432</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>434</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>436</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>438</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>440</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>442</v>
-      </c>
-      <c r="E14" t="s" s="0">
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="E17" t="s">
         <v>444</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>446</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>448</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -6187,46 +6681,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="28.08984375"/>
+    <col min="3" max="3" width="28.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" t="s">
         <v>253</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>257</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6244,299 +6738,299 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.54296875"/>
-    <col min="2" max="2" customWidth="true" width="16.26953125"/>
-    <col min="3" max="3" customWidth="true" width="33.7265625"/>
-    <col min="4" max="4" customWidth="true" width="30.08984375"/>
-    <col min="5" max="5" customWidth="true" width="19.26953125"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" t="s">
         <v>296</v>
       </c>
-      <c r="E2" t="s" s="0">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="E5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>302</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>304</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="E16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="E17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>312</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>314</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>316</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>318</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>320</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>322</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>338</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>340</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>341</v>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -6548,204 +7042,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.453125"/>
-    <col min="2" max="2" customWidth="true" width="16.6328125"/>
-    <col min="3" max="3" customWidth="true" width="21.453125"/>
-    <col min="4" max="4" customWidth="true" width="35.453125"/>
-    <col min="5" max="5" customWidth="true" width="33.1796875"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
-        <v>328</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>329</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>330</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>331</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>332</v>
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
-        <v>360</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>361</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>362</v>
+      <c r="A2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>381</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
         <v>382</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>381</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
         <v>384</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
         <v>386</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="E7" t="s">
         <v>387</v>
       </c>
-      <c r="E5" t="s" s="0">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>386</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="E8" t="s">
         <v>389</v>
       </c>
-      <c r="E6" t="s" s="0">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>386</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="E9" t="s">
         <v>391</v>
       </c>
-      <c r="E7" t="s" s="0">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>386</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="E10" t="s">
         <v>393</v>
       </c>
-      <c r="E8" t="s" s="0">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>386</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>177</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="E11" t="s">
         <v>395</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>386</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>397</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>386</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -6763,39 +7257,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.453125"/>
-    <col min="2" max="2" customWidth="true" width="17.0"/>
-    <col min="3" max="3" customWidth="true" width="18.90625"/>
-    <col min="4" max="4" customWidth="true" width="17.54296875"/>
-    <col min="5" max="5" customWidth="true" width="14.08984375"/>
-    <col min="7" max="7" customWidth="true" width="13.81640625"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>135</v>
+      <c r="G1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -6813,15 +7307,15 @@
       <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>136</v>
+      <c r="G2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6830,21 +7324,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>136</v>
+      <c r="G3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -6853,21 +7347,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>136</v>
+      <c r="G4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -6876,21 +7370,21 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>136</v>
+      <c r="G5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -6905,15 +7399,15 @@
       <c r="F6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>136</v>
+      <c r="G6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6928,15 +7422,15 @@
       <c r="F7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>136</v>
+      <c r="G7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -6951,15 +7445,15 @@
       <c r="F8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>136</v>
+      <c r="G8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -6974,8 +7468,8 @@
       <c r="F9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>136</v>
+      <c r="G9" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6993,39 +7487,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.453125"/>
-    <col min="2" max="2" customWidth="true" width="28.7265625"/>
-    <col min="3" max="3" customWidth="true" width="29.0"/>
-    <col min="4" max="4" customWidth="true" width="19.1796875"/>
-    <col min="5" max="5" customWidth="true" width="15.453125"/>
-    <col min="7" max="7" customWidth="true" width="12.1796875"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>135</v>
+      <c r="G1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7040,18 +7534,18 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>136</v>
+      <c r="G2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7060,21 +7554,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>136</v>
+      <c r="G3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7083,21 +7577,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>136</v>
+      <c r="G4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7106,25 +7600,25 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>136</v>
+      <c r="G5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>140</v>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>59</v>
@@ -7135,19 +7629,19 @@
       <c r="F6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>136</v>
+      <c r="G6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>140</v>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>59</v>
@@ -7156,21 +7650,21 @@
         <v>123</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="G7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>140</v>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>59</v>
@@ -7179,21 +7673,21 @@
         <v>123</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>140</v>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>59</v>
@@ -7202,21 +7696,21 @@
         <v>123</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>142</v>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>83</v>
@@ -7225,21 +7719,21 @@
         <v>124</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>142</v>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>83</v>
@@ -7248,21 +7742,21 @@
         <v>124</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>142</v>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>83</v>
@@ -7271,21 +7765,21 @@
         <v>124</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>142</v>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>83</v>
@@ -7294,21 +7788,21 @@
         <v>124</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>142</v>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>83</v>
@@ -7317,10 +7811,10 @@
         <v>124</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -7339,33 +7833,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="17.453125"/>
-    <col min="2" max="2" customWidth="true" width="19.1796875"/>
-    <col min="3" max="3" customWidth="true" width="17.453125"/>
-    <col min="4" max="4" customWidth="true" width="14.08984375"/>
+    <col min="1" max="1" width="17.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>135</v>
+      <c r="G1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -7376,7 +7870,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -7384,11 +7878,11 @@
       <c r="E2" s="4">
         <v>123</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>139</v>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -7399,7 +7893,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -7407,11 +7901,11 @@
       <c r="E3" s="4">
         <v>123</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>139</v>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -7422,7 +7916,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -7430,11 +7924,11 @@
       <c r="E4" s="4">
         <v>123</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>139</v>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -7445,7 +7939,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -7453,11 +7947,11 @@
       <c r="E5" s="4">
         <v>123</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>139</v>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -7468,7 +7962,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -7476,11 +7970,11 @@
       <c r="E6" s="4">
         <v>123</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>139</v>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -7491,7 +7985,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -7499,11 +7993,11 @@
       <c r="E7" s="4">
         <v>123</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>139</v>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -7514,7 +8008,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -7522,11 +8016,11 @@
       <c r="E8" s="4">
         <v>123</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>139</v>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -7537,7 +8031,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -7545,11 +8039,11 @@
       <c r="E9" s="4">
         <v>123</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>139</v>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -7571,8 +8065,8 @@
       <c r="F10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>135</v>
+      <c r="G10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -7594,8 +8088,8 @@
       <c r="F11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>136</v>
+      <c r="G11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -7617,8 +8111,8 @@
       <c r="F12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>136</v>
+      <c r="G12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -7640,8 +8134,8 @@
       <c r="F13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s" s="0">
-        <v>136</v>
+      <c r="G13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -7663,8 +8157,8 @@
       <c r="F14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>136</v>
+      <c r="G14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -7686,8 +8180,8 @@
       <c r="F15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s" s="0">
-        <v>136</v>
+      <c r="G15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -7709,8 +8203,8 @@
       <c r="F16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s" s="0">
-        <v>136</v>
+      <c r="G16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -7732,8 +8226,8 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s" s="0">
-        <v>136</v>
+      <c r="G17" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -7755,35 +8249,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="6" width="8.7265625"/>
-    <col min="2" max="2" customWidth="true" width="16.90625"/>
-    <col min="3" max="3" customWidth="true" width="24.1796875"/>
-    <col min="4" max="4" customWidth="true" width="10.453125"/>
-    <col min="5" max="5" customWidth="true" width="14.08984375"/>
-    <col min="6" max="6" customWidth="true" width="17.08984375"/>
+    <col min="1" max="1" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>135</v>
+      <c r="G1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -7805,15 +8299,15 @@
       <c r="F2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>136</v>
+      <c r="G2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7822,21 +8316,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>136</v>
+      <c r="G3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7845,21 +8339,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>136</v>
+      <c r="G4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7868,14 +8362,14 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>136</v>
+      <c r="G5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -7897,15 +8391,15 @@
       <c r="F6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>136</v>
+      <c r="G6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -7914,21 +8408,21 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>440</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>136</v>
+      <c r="G7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -7937,21 +8431,21 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>440</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>136</v>
+      <c r="G8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -7960,14 +8454,14 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>440</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>136</v>
+      <c r="G9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -7989,15 +8483,15 @@
       <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>136</v>
+      <c r="G10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -8006,21 +8500,21 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>440</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>136</v>
+      <c r="G11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>123</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -8029,21 +8523,21 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>440</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>136</v>
+      <c r="G12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -8052,14 +8546,14 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>440</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s" s="0">
-        <v>136</v>
+      <c r="G13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -8081,15 +8575,15 @@
       <c r="F14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>136</v>
+      <c r="G14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -8098,21 +8592,21 @@
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>440</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s" s="0">
-        <v>136</v>
+      <c r="G15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -8121,21 +8615,21 @@
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>440</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G16" t="s" s="0">
-        <v>136</v>
+      <c r="G16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -8144,21 +8638,21 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>440</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s" s="0">
-        <v>136</v>
+      <c r="G17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -8167,21 +8661,21 @@
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>440</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s" s="0">
-        <v>136</v>
+      <c r="G18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -8190,21 +8684,21 @@
       <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>111</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s" s="0">
-        <v>136</v>
+      <c r="G19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -8213,21 +8707,21 @@
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>111</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" t="s" s="0">
-        <v>136</v>
+      <c r="G20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -8236,21 +8730,21 @@
       <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>111</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" t="s" s="0">
-        <v>136</v>
+      <c r="G21" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -8259,21 +8753,21 @@
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>111</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" t="s" s="0">
-        <v>136</v>
+      <c r="G22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -8282,21 +8776,21 @@
       <c r="D23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>111</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>58</v>
       </c>
-      <c r="G23" t="s" s="0">
-        <v>136</v>
+      <c r="G23" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -8305,21 +8799,21 @@
       <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>111</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="F24" t="s">
         <v>58</v>
       </c>
-      <c r="G24" t="s" s="0">
-        <v>136</v>
+      <c r="G24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -8328,21 +8822,21 @@
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>111</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="G25" t="s" s="0">
-        <v>136</v>
+      <c r="G25" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -8351,21 +8845,21 @@
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>111</v>
       </c>
-      <c r="F26" t="s" s="0">
+      <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="G26" t="s" s="0">
-        <v>136</v>
+      <c r="G26" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -8374,21 +8868,21 @@
       <c r="D27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>111</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>58</v>
       </c>
-      <c r="G27" t="s" s="0">
-        <v>136</v>
+      <c r="G27" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -8397,21 +8891,21 @@
       <c r="D28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>111</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>58</v>
       </c>
-      <c r="G28" t="s" s="0">
-        <v>136</v>
+      <c r="G28" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>123</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -8420,21 +8914,21 @@
       <c r="D29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>111</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>58</v>
       </c>
-      <c r="G29" t="s" s="0">
-        <v>136</v>
+      <c r="G29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -8443,21 +8937,21 @@
       <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>111</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="G30" t="s" s="0">
-        <v>136</v>
+      <c r="G30" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -8466,21 +8960,21 @@
       <c r="D31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>111</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>58</v>
       </c>
-      <c r="G31" t="s" s="0">
-        <v>136</v>
+      <c r="G31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -8489,21 +8983,21 @@
       <c r="D32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>111</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>58</v>
       </c>
-      <c r="G32" t="s" s="0">
-        <v>136</v>
+      <c r="G32" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -8512,21 +9006,21 @@
       <c r="D33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>111</v>
       </c>
-      <c r="F33" t="s" s="0">
+      <c r="F33" t="s">
         <v>58</v>
       </c>
-      <c r="G33" t="s" s="0">
-        <v>136</v>
+      <c r="G33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -8535,21 +9029,21 @@
       <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>111</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" t="s" s="0">
-        <v>136</v>
+      <c r="G34" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -8558,14 +9052,14 @@
       <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>111</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="F35" t="s">
         <v>58</v>
       </c>
-      <c r="G35" t="s" s="0">
-        <v>136</v>
+      <c r="G35" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -8590,44 +9084,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F273D65-64CD-4DA6-A7CB-CBDD420D1D4A}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="24.36328125"/>
-    <col min="3" max="3" customWidth="true" width="21.453125"/>
-    <col min="4" max="4" customWidth="true" width="19.90625"/>
-    <col min="5" max="5" customWidth="true" width="13.36328125"/>
-    <col min="6" max="6" customWidth="true" width="20.453125"/>
+    <col min="1" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>135</v>
+      <c r="G1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8642,18 +9136,18 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>136</v>
+      <c r="G2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8662,21 +9156,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>136</v>
+      <c r="G3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -8685,21 +9179,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>136</v>
+      <c r="G4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -8708,18 +9202,18 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>136</v>
+      <c r="G5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -8731,21 +9225,21 @@
       <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>111</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>136</v>
+      <c r="G6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -8754,21 +9248,21 @@
       <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>111</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>136</v>
+      <c r="G7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -8777,21 +9271,21 @@
       <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>111</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>136</v>
+      <c r="G8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -8800,14 +9294,14 @@
       <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>111</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>136</v>
+      <c r="G9" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -8820,45 +9314,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F37F32-7980-4B53-B396-8F4B2915558F}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.6328125"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" customWidth="true" width="17.90625"/>
-    <col min="4" max="4" customWidth="true" width="15.0"/>
-    <col min="5" max="5" customWidth="true" width="16.08984375"/>
-    <col min="6" max="6" customWidth="true" width="15.26953125"/>
+    <col min="1" max="1" width="41.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="B1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>135</v>
+      <c r="G1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8873,18 +9367,18 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>136</v>
+      <c r="G2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8893,21 +9387,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>136</v>
+      <c r="G3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -8916,21 +9410,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>136</v>
+      <c r="G4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -8939,21 +9433,21 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>136</v>
+      <c r="G5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -8962,18 +9456,18 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>440</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>136</v>
+      <c r="G6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -8988,18 +9482,18 @@
       <c r="E7" s="4">
         <v>440</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>136</v>
+      <c r="G7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -9008,21 +9502,21 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>440</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>136</v>
+      <c r="G8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -9031,21 +9525,21 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>440</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>136</v>
+      <c r="G9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -9054,21 +9548,21 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>440</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>136</v>
+      <c r="G10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -9077,18 +9571,18 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>440</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>136</v>
+      <c r="G11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9100,21 +9594,21 @@
       <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>111</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>136</v>
+      <c r="G12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -9123,21 +9617,21 @@
       <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>111</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s" s="0">
-        <v>136</v>
+      <c r="G13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -9146,21 +9640,21 @@
       <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>111</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s" s="0">
-        <v>136</v>
+      <c r="G14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -9169,18 +9663,18 @@
       <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>111</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s" s="0">
-        <v>136</v>
+      <c r="G15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -9192,21 +9686,21 @@
       <c r="D16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>111</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s" s="0">
-        <v>136</v>
+      <c r="G16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -9215,21 +9709,21 @@
       <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>111</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s" s="0">
-        <v>136</v>
+      <c r="G17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -9238,21 +9732,21 @@
       <c r="D18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>111</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" t="s" s="0">
-        <v>136</v>
+      <c r="G18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -9261,18 +9755,18 @@
       <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>111</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s" s="0">
-        <v>136</v>
+      <c r="G19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -9284,21 +9778,21 @@
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>111</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" t="s" s="0">
-        <v>136</v>
+      <c r="G20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -9307,21 +9801,21 @@
       <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>111</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" t="s" s="0">
-        <v>136</v>
+      <c r="G21" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -9330,271 +9824,271 @@
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>111</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" t="s" s="0">
-        <v>136</v>
+      <c r="G22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>112</v>
       </c>
-      <c r="F23" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>337</v>
+      <c r="F23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>112</v>
       </c>
-      <c r="F24" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G24" t="s" s="0">
-        <v>337</v>
+      <c r="F24" t="s">
+        <v>331</v>
+      </c>
+      <c r="G24" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>112</v>
       </c>
-      <c r="F25" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>337</v>
+      <c r="F25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>112</v>
       </c>
-      <c r="F26" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>337</v>
+      <c r="F26" t="s">
+        <v>331</v>
+      </c>
+      <c r="G26" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>112</v>
       </c>
-      <c r="F27" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G27" t="s" s="0">
-        <v>337</v>
+      <c r="F27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G27" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>112</v>
       </c>
-      <c r="F28" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G28" t="s" s="0">
-        <v>337</v>
+      <c r="F28" t="s">
+        <v>331</v>
+      </c>
+      <c r="G28" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>112</v>
       </c>
-      <c r="F29" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G29" t="s" s="0">
-        <v>337</v>
+      <c r="F29" t="s">
+        <v>331</v>
+      </c>
+      <c r="G29" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>112</v>
       </c>
-      <c r="F30" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G30" t="s" s="0">
-        <v>337</v>
+      <c r="F30" t="s">
+        <v>331</v>
+      </c>
+      <c r="G30" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>112</v>
       </c>
-      <c r="F31" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G31" t="s" s="0">
-        <v>337</v>
+      <c r="F31" t="s">
+        <v>331</v>
+      </c>
+      <c r="G31" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>112</v>
       </c>
-      <c r="F32" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G32" t="s" s="0">
-        <v>337</v>
+      <c r="F32" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>112</v>
       </c>
-      <c r="F33" t="s" s="0">
-        <v>336</v>
-      </c>
-      <c r="G33" t="s" s="0">
-        <v>337</v>
+      <c r="F33" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9613,21 +10107,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.08984375"/>
-    <col min="2" max="2" customWidth="true" style="20" width="23.54296875"/>
-    <col min="3" max="3" customWidth="true" style="20" width="13.36328125"/>
-    <col min="4" max="4" customWidth="true" style="20" width="11.81640625"/>
-    <col min="5" max="5" customWidth="true" style="12" width="34.7265625"/>
-    <col min="6" max="6" customWidth="true" style="12" width="20.54296875"/>
-    <col min="7" max="7" customWidth="true" style="12" width="24.26953125"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.08984375"/>
-    <col min="9" max="9" customWidth="true" style="12" width="14.90625"/>
-    <col min="10" max="10" customWidth="true" style="12" width="60.453125"/>
-    <col min="11" max="11" customWidth="true" style="14" width="43.7265625"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="60.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="43.7265625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="21"/>
@@ -9641,7 +10135,7 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="1"/>
@@ -9652,7 +10146,7 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1"/>
@@ -9660,7 +10154,7 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1"/>

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="557">
   <si>
     <t>Email</t>
   </si>
@@ -1504,12 +1504,235 @@
   </si>
   <si>
     <t>2025-12-15 12:53:18</t>
+  </si>
+  <si>
+    <t>INR MASTER</t>
+  </si>
+  <si>
+    <t>69424dc6de594c6a0f6c5985</t>
+  </si>
+  <si>
+    <t>2025-12-17 12:00:15</t>
+  </si>
+  <si>
+    <t>69424ea7de594c6a0f6c5c4e</t>
+  </si>
+  <si>
+    <t>2025-12-17 12:04:00</t>
+  </si>
+  <si>
+    <t>69424fb0de594c6a0f6c5f02</t>
+  </si>
+  <si>
+    <t>2025-12-17 12:08:24</t>
+  </si>
+  <si>
+    <t>694251a1de594c6a0f6c61b9</t>
+  </si>
+  <si>
+    <t>2025-12-17 12:16:43</t>
+  </si>
+  <si>
+    <t>6942545bff6b0b798b9e3a17</t>
+  </si>
+  <si>
+    <t>2025-12-17 12:28:34</t>
+  </si>
+  <si>
+    <t>69425a794ac69625f78e502b</t>
+  </si>
+  <si>
+    <t>2025-12-17 12:54:24</t>
+  </si>
+  <si>
+    <t>69426c58cf6e0e1688e3a768</t>
+  </si>
+  <si>
+    <t>2025-12-17 14:10:47</t>
+  </si>
+  <si>
+    <t>69426d4bcf6e0e1688e3aa1b</t>
+  </si>
+  <si>
+    <t>2025-12-17 14:14:37</t>
+  </si>
+  <si>
+    <t>69426e3acf6e0e1688e3acd2</t>
+  </si>
+  <si>
+    <t>2025-12-17 14:18:38</t>
+  </si>
+  <si>
+    <t>69426fbecf6e0e1688e3af8a</t>
+  </si>
+  <si>
+    <t>2025-12-17 14:25:09</t>
+  </si>
+  <si>
+    <t>694280fecf6e0e1688e3d9d4</t>
+  </si>
+  <si>
+    <t>2025-12-17 15:38:39</t>
+  </si>
+  <si>
+    <t>694281cccf6e0e1688e3dd18</t>
+  </si>
+  <si>
+    <t>2025-12-17 15:42:09</t>
+  </si>
+  <si>
+    <t>6942aa4840e6a841067bf56d</t>
+  </si>
+  <si>
+    <t>2025-12-17 18:34:37</t>
+  </si>
+  <si>
+    <t>694397149a3b87c1f14e5954</t>
+  </si>
+  <si>
+    <t>2025-12-18 11:25:03</t>
+  </si>
+  <si>
+    <t>694398779a3b87c1f14e62b5</t>
+  </si>
+  <si>
+    <t>2025-12-18 11:30:58</t>
+  </si>
+  <si>
+    <t>6943994f9a3b87c1f14e692d</t>
+  </si>
+  <si>
+    <t>2025-12-18 11:34:31</t>
+  </si>
+  <si>
+    <t>69439a9a9a3b87c1f14e7347</t>
+  </si>
+  <si>
+    <t>2025-12-18 11:40:04</t>
+  </si>
+  <si>
+    <t>6943ce709229cd96d4f080db</t>
+  </si>
+  <si>
+    <t>2025-12-18 15:22:31</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>6945277f16b84676a86ced1a</t>
+  </si>
+  <si>
+    <t>2025-12-19 15:53:35</t>
+  </si>
+  <si>
+    <t>69452e0b16b84676a86d0484</t>
+  </si>
+  <si>
+    <t>2025-12-19 16:21:25</t>
+  </si>
+  <si>
+    <t>694536e916b84676a86d22b5</t>
+  </si>
+  <si>
+    <t>2025-12-19 16:59:16</t>
+  </si>
+  <si>
+    <t>6945394c16b84676a86d2591</t>
+  </si>
+  <si>
+    <t>2025-12-19 17:09:26</t>
+  </si>
+  <si>
+    <t>69453a2616b84676a86d2ae3</t>
+  </si>
+  <si>
+    <t>2025-12-19 17:13:03</t>
+  </si>
+  <si>
+    <t>69453bef16b84676a86d3572</t>
+  </si>
+  <si>
+    <t>2025-12-19 17:20:40</t>
+  </si>
+  <si>
+    <t>69453e6516b84676a86d389e</t>
+  </si>
+  <si>
+    <t>2025-12-19 17:31:11</t>
+  </si>
+  <si>
+    <t>69453ea416b84676a86d3b49</t>
+  </si>
+  <si>
+    <t>2025-12-19 17:32:14</t>
+  </si>
+  <si>
+    <t>69453ee316b84676a86d3df2</t>
+  </si>
+  <si>
+    <t>2025-12-19 17:33:31</t>
+  </si>
+  <si>
+    <t>69453efb16b84676a86d3e04</t>
+  </si>
+  <si>
+    <t>2025-12-19 17:33:39</t>
+  </si>
+  <si>
+    <t>6945418779b58c1ba9347c3f</t>
+  </si>
+  <si>
+    <t>2025-12-19 17:44:34</t>
+  </si>
+  <si>
+    <t>6945433279b58c1ba934847e</t>
+  </si>
+  <si>
+    <t>2025-12-19 17:51:37</t>
+  </si>
+  <si>
+    <t>6945489ac7dd61481cc26528</t>
+  </si>
+  <si>
+    <t>2025-12-19 18:14:44</t>
+  </si>
+  <si>
+    <t>69454906c7dd61481cc267e0</t>
+  </si>
+  <si>
+    <t>2025-12-19 18:16:30</t>
+  </si>
+  <si>
+    <t>69454970c7dd61481cc26a88</t>
+  </si>
+  <si>
+    <t>2025-12-19 18:18:18</t>
+  </si>
+  <si>
+    <t>6948e064311f13a333ea5756</t>
+  </si>
+  <si>
+    <t>2025-12-22 11:39:19</t>
+  </si>
+  <si>
+    <t>6948e10b311f13a333ea5a6d</t>
+  </si>
+  <si>
+    <t>2025-12-22 11:42:05</t>
+  </si>
+  <si>
+    <t>6948e7a3311f13a333ea8130</t>
+  </si>
+  <si>
+    <t>2025-12-22 12:10:31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2010,30 +2233,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.08984375"/>
+    <col min="2" max="2" customWidth="true" width="17.453125"/>
+    <col min="3" max="3" customWidth="true" width="32.1796875"/>
+    <col min="4" max="4" customWidth="true" width="20.453125"/>
+    <col min="6" max="6" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -2053,15 +2276,15 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2070,18 +2293,18 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2090,18 +2313,18 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2110,18 +2333,18 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2130,18 +2353,18 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>440</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2150,18 +2373,18 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>440</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2170,18 +2393,18 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>440</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2190,18 +2413,18 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>440</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2210,18 +2433,18 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>440</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2230,15 +2453,15 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>440</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2247,18 +2470,18 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>440</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2267,10 +2490,10 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>440</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>57</v>
       </c>
     </row>
@@ -2278,7 +2501,7 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2295,10 +2518,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2315,10 +2538,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2335,10 +2558,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2355,10 +2578,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -2375,10 +2598,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2395,10 +2618,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -2415,10 +2638,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2435,10 +2658,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2455,10 +2678,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2475,7 +2698,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -2492,10 +2715,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2531,14 +2754,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="58.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.6328125"/>
+    <col min="2" max="2" customWidth="true" width="20.08984375"/>
+    <col min="5" max="5" customWidth="true" width="19.36328125"/>
+    <col min="6" max="6" customWidth="true" width="14.81640625"/>
+    <col min="7" max="7" customWidth="true" width="13.1796875"/>
+    <col min="8" max="8" customWidth="true" width="14.90625"/>
+    <col min="9" max="9" customWidth="true" width="14.36328125"/>
+    <col min="10" max="10" customWidth="true" width="58.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -3712,11 +3935,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="17.26953125"/>
+    <col min="4" max="4" customWidth="true" width="23.81640625"/>
+    <col min="5" max="5" customWidth="true" width="15.453125"/>
+    <col min="6" max="6" customWidth="true" width="12.81640625"/>
+    <col min="7" max="7" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3741,10 +3964,10 @@
       <c r="G2" s="4">
         <v>440</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -3770,10 +3993,10 @@
       <c r="G3" s="4">
         <v>440</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -3799,10 +4022,10 @@
       <c r="G4" s="4">
         <v>440</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -3828,10 +4051,10 @@
       <c r="G5" s="4">
         <v>440</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -3857,10 +4080,10 @@
       <c r="G6" s="4">
         <v>440</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -3877,15 +4100,15 @@
       <c r="G7" s="4">
         <v>440</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3900,15 +4123,15 @@
       <c r="G8" s="4">
         <v>440</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3923,15 +4146,15 @@
       <c r="G9" s="4">
         <v>440</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>447</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3946,10 +4169,10 @@
       <c r="G10" s="4">
         <v>440</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -3970,438 +4193,438 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="55.81640625" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.26953125"/>
+    <col min="2" max="2" customWidth="true" width="17.7265625"/>
+    <col min="3" max="3" customWidth="true" width="55.81640625"/>
+    <col min="4" max="4" customWidth="true" width="31.0"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>448</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>454</v>
       </c>
     </row>
@@ -4420,238 +4643,238 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.6328125" customWidth="1"/>
-    <col min="3" max="3" width="72.08984375" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
-    <col min="5" max="5" width="30.36328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="46.6328125"/>
+    <col min="3" max="3" customWidth="true" width="72.08984375"/>
+    <col min="4" max="4" customWidth="true" width="30.81640625"/>
+    <col min="5" max="5" customWidth="true" width="30.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>324</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>326</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>321</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>328</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>329</v>
       </c>
     </row>
@@ -4662,7 +4885,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4670,309 +4893,377 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="51.26953125" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="51.26953125"/>
+    <col min="4" max="4" customWidth="true" width="30.90625"/>
+    <col min="5" max="5" customWidth="true" width="24.54296875"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>288</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>358</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>360</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>362</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>368</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>372</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -4990,347 +5281,347 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="45.90625" customWidth="1"/>
-    <col min="4" max="4" width="41.1796875" customWidth="1"/>
-    <col min="5" max="5" width="39.26953125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="45.90625"/>
+    <col min="4" max="4" customWidth="true" width="41.1796875"/>
+    <col min="5" max="5" customWidth="true" width="39.26953125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>412</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>415</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>416</v>
       </c>
     </row>
@@ -5349,297 +5640,297 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="43.453125" customWidth="1"/>
-    <col min="4" max="4" width="52.26953125" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="43.453125"/>
+    <col min="4" max="4" customWidth="true" width="52.26953125"/>
+    <col min="5" max="5" customWidth="true" width="40.81640625"/>
+    <col min="6" max="6" customWidth="true" width="27.90625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>271</v>
       </c>
     </row>
@@ -5658,126 +5949,126 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="39.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0"/>
+    <col min="2" max="2" customWidth="true" width="26.1796875"/>
+    <col min="3" max="3" customWidth="true" width="39.26953125"/>
+    <col min="4" max="4" customWidth="true" width="34.453125"/>
+    <col min="5" max="5" customWidth="true" width="21.6328125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>337</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>339</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>341</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>343</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>344</v>
       </c>
     </row>
@@ -5796,412 +6087,412 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="35.36328125" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="35.36328125"/>
+    <col min="4" max="4" customWidth="true" width="40.0"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>351</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>455</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>457</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>459</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>445</v>
       </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>461</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>463</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>465</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>467</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>469</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>471</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>473</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>475</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>477</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>447</v>
       </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>479</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>481</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>482</v>
       </c>
     </row>
@@ -6220,25 +6511,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="6"/>
+    <col min="1" max="1" customWidth="true" width="18.6328125"/>
+    <col min="2" max="2" customWidth="true" width="15.6328125"/>
+    <col min="3" max="3" customWidth="true" width="17.81640625"/>
+    <col min="4" max="4" customWidth="true" width="20.6328125"/>
+    <col min="5" max="5" customWidth="true" style="6" width="11.90625"/>
+    <col min="6" max="6" style="6" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -6272,7 +6563,7 @@
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6289,10 +6580,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -6312,7 +6603,7 @@
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -6332,7 +6623,7 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -6349,10 +6640,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -6387,282 +6678,282 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.36328125"/>
+    <col min="2" max="2" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" customWidth="true" width="24.0"/>
+    <col min="4" max="4" customWidth="true" width="25.26953125"/>
+    <col min="5" max="5" customWidth="true" width="21.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>417</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>419</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>421</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>423</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>425</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>429</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>435</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>437</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>439</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>441</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>443</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>444</v>
       </c>
     </row>
@@ -6681,45 +6972,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="28.08984375" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="28.08984375"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>253</v>
       </c>
     </row>
@@ -6738,298 +7029,298 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.54296875"/>
+    <col min="2" max="2" customWidth="true" width="16.26953125"/>
+    <col min="3" max="3" customWidth="true" width="33.7265625"/>
+    <col min="4" max="4" customWidth="true" width="30.08984375"/>
+    <col min="5" max="5" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>291</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>315</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>317</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>333</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>335</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>336</v>
       </c>
     </row>
@@ -7040,7 +7331,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -7048,198 +7339,742 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" customWidth="1"/>
-    <col min="5" max="5" width="33.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.453125"/>
+    <col min="2" max="2" customWidth="true" width="16.6328125"/>
+    <col min="3" max="3" customWidth="true" width="21.453125"/>
+    <col min="4" max="4" customWidth="true" width="35.453125"/>
+    <col min="5" max="5" customWidth="true" width="33.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>324</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>326</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>355</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>356</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>376</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>376</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>379</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>386</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>388</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>392</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>394</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -7257,39 +8092,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.453125"/>
+    <col min="2" max="2" customWidth="true" width="17.0"/>
+    <col min="3" max="3" customWidth="true" width="18.90625"/>
+    <col min="4" max="4" customWidth="true" width="17.54296875"/>
+    <col min="5" max="5" customWidth="true" width="14.08984375"/>
+    <col min="7" max="7" customWidth="true" width="13.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7307,15 +8142,15 @@
       <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7324,21 +8159,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7347,21 +8182,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7370,21 +8205,21 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -7399,15 +8234,15 @@
       <c r="F6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -7422,15 +8257,15 @@
       <c r="F7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -7445,15 +8280,15 @@
       <c r="F8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -7468,7 +8303,7 @@
       <c r="F9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -7487,39 +8322,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.453125"/>
+    <col min="2" max="2" customWidth="true" width="28.7265625"/>
+    <col min="3" max="3" customWidth="true" width="29.0"/>
+    <col min="4" max="4" customWidth="true" width="19.1796875"/>
+    <col min="5" max="5" customWidth="true" width="15.453125"/>
+    <col min="7" max="7" customWidth="true" width="12.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7534,18 +8369,18 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7554,21 +8389,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7577,21 +8412,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7600,21 +8435,21 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -7629,15 +8464,15 @@
       <c r="F6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -7652,15 +8487,15 @@
       <c r="F7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -7675,15 +8510,15 @@
       <c r="F8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -7698,15 +8533,15 @@
       <c r="F9" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>140</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -7721,15 +8556,15 @@
       <c r="F10" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>140</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -7744,15 +8579,15 @@
       <c r="F11" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>140</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -7767,15 +8602,15 @@
       <c r="F12" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>140</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -7790,15 +8625,15 @@
       <c r="F13" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>140</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -7813,7 +8648,7 @@
       <c r="F14" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>139</v>
       </c>
     </row>
@@ -7833,32 +8668,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="17.453125"/>
+    <col min="2" max="2" customWidth="true" width="19.1796875"/>
+    <col min="3" max="3" customWidth="true" width="17.453125"/>
+    <col min="4" max="4" customWidth="true" width="14.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>132</v>
       </c>
     </row>
@@ -7878,10 +8713,10 @@
       <c r="E2" s="4">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>134</v>
       </c>
     </row>
@@ -7901,10 +8736,10 @@
       <c r="E3" s="4">
         <v>123</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>134</v>
       </c>
     </row>
@@ -7924,10 +8759,10 @@
       <c r="E4" s="4">
         <v>123</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>134</v>
       </c>
     </row>
@@ -7947,10 +8782,10 @@
       <c r="E5" s="4">
         <v>123</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>134</v>
       </c>
     </row>
@@ -7970,10 +8805,10 @@
       <c r="E6" s="4">
         <v>123</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>134</v>
       </c>
     </row>
@@ -7993,10 +8828,10 @@
       <c r="E7" s="4">
         <v>123</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>134</v>
       </c>
     </row>
@@ -8016,10 +8851,10 @@
       <c r="E8" s="4">
         <v>123</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>134</v>
       </c>
     </row>
@@ -8039,10 +8874,10 @@
       <c r="E9" s="4">
         <v>123</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>134</v>
       </c>
     </row>
@@ -8065,7 +8900,7 @@
       <c r="F10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>132</v>
       </c>
     </row>
@@ -8088,7 +8923,7 @@
       <c r="F11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8111,7 +8946,7 @@
       <c r="F12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8134,7 +8969,7 @@
       <c r="F13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8157,7 +8992,7 @@
       <c r="F14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8180,7 +9015,7 @@
       <c r="F15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8203,7 +9038,7 @@
       <c r="F16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8226,7 +9061,7 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8249,34 +9084,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" style="6" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" customWidth="true" width="24.1796875"/>
+    <col min="4" max="4" customWidth="true" width="10.453125"/>
+    <col min="5" max="5" customWidth="true" width="14.08984375"/>
+    <col min="6" max="6" customWidth="true" width="17.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>132</v>
       </c>
     </row>
@@ -8299,7 +9134,7 @@
       <c r="F2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8307,7 +9142,7 @@
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8316,13 +9151,13 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8330,7 +9165,7 @@
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -8339,13 +9174,13 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8353,7 +9188,7 @@
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -8362,13 +9197,13 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8391,7 +9226,7 @@
       <c r="F6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8399,7 +9234,7 @@
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -8408,13 +9243,13 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>440</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8422,7 +9257,7 @@
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -8431,13 +9266,13 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>440</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8445,7 +9280,7 @@
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -8454,13 +9289,13 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>440</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8483,7 +9318,7 @@
       <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8491,7 +9326,7 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -8500,13 +9335,13 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>440</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8514,7 +9349,7 @@
       <c r="A12" s="6">
         <v>123</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -8523,13 +9358,13 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>440</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8537,7 +9372,7 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -8546,13 +9381,13 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>440</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8575,7 +9410,7 @@
       <c r="F14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8583,7 +9418,7 @@
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -8592,13 +9427,13 @@
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>440</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8606,7 +9441,7 @@
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -8615,13 +9450,13 @@
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>440</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8629,7 +9464,7 @@
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -8638,13 +9473,13 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>440</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8652,7 +9487,7 @@
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -8661,13 +9496,13 @@
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>440</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8675,7 +9510,7 @@
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -8684,13 +9519,13 @@
       <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>111</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8698,7 +9533,7 @@
       <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -8707,13 +9542,13 @@
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>111</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8721,7 +9556,7 @@
       <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -8730,13 +9565,13 @@
       <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8744,7 +9579,7 @@
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -8753,13 +9588,13 @@
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>111</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8767,7 +9602,7 @@
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -8776,13 +9611,13 @@
       <c r="D23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>111</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8790,7 +9625,7 @@
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -8799,13 +9634,13 @@
       <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>111</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8813,7 +9648,7 @@
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -8822,13 +9657,13 @@
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>111</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8836,7 +9671,7 @@
       <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -8845,13 +9680,13 @@
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>111</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8859,7 +9694,7 @@
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -8868,13 +9703,13 @@
       <c r="D27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>111</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8882,7 +9717,7 @@
       <c r="A28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -8891,13 +9726,13 @@
       <c r="D28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>111</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8905,7 +9740,7 @@
       <c r="A29" s="6">
         <v>123</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -8914,13 +9749,13 @@
       <c r="D29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>111</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8928,7 +9763,7 @@
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -8937,13 +9772,13 @@
       <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>111</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8951,7 +9786,7 @@
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -8960,13 +9795,13 @@
       <c r="D31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>111</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8974,7 +9809,7 @@
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -8983,13 +9818,13 @@
       <c r="D32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>111</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -8997,7 +9832,7 @@
       <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -9006,13 +9841,13 @@
       <c r="D33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>111</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -9020,7 +9855,7 @@
       <c r="A34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -9029,13 +9864,13 @@
       <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>111</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -9043,7 +9878,7 @@
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -9052,13 +9887,13 @@
       <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>111</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -9090,38 +9925,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="24.36328125"/>
+    <col min="3" max="3" customWidth="true" width="21.453125"/>
+    <col min="4" max="4" customWidth="true" width="19.90625"/>
+    <col min="5" max="5" customWidth="true" width="13.36328125"/>
+    <col min="6" max="6" customWidth="true" width="20.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9136,18 +9971,18 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -9156,21 +9991,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -9179,21 +10014,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -9202,18 +10037,18 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9225,21 +10060,21 @@
       <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>111</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -9248,21 +10083,21 @@
       <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -9271,21 +10106,21 @@
       <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>111</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -9294,13 +10129,13 @@
       <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>111</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -9320,39 +10155,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="41.6328125"/>
+    <col min="2" max="2" customWidth="true" width="20.0"/>
+    <col min="3" max="3" customWidth="true" width="17.90625"/>
+    <col min="4" max="4" customWidth="true" width="15.0"/>
+    <col min="5" max="5" customWidth="true" width="16.08984375"/>
+    <col min="6" max="6" customWidth="true" width="15.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9367,18 +10202,18 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -9387,21 +10222,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -9410,21 +10245,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -9433,21 +10268,21 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -9456,18 +10291,18 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>440</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -9482,18 +10317,18 @@
       <c r="E7" s="4">
         <v>440</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -9502,21 +10337,21 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>440</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -9525,21 +10360,21 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>440</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -9548,21 +10383,21 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>440</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -9571,18 +10406,18 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>440</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9594,21 +10429,21 @@
       <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>111</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -9617,21 +10452,21 @@
       <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>111</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -9640,21 +10475,21 @@
       <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>111</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -9663,18 +10498,18 @@
       <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>111</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -9686,21 +10521,21 @@
       <c r="D16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>111</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -9709,21 +10544,21 @@
       <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>111</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -9732,21 +10567,21 @@
       <c r="D18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>111</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -9755,18 +10590,18 @@
       <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>111</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -9778,21 +10613,21 @@
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>111</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -9801,21 +10636,21 @@
       <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -9824,21 +10659,21 @@
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>111</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -9847,21 +10682,21 @@
       <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>112</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -9870,21 +10705,21 @@
       <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>112</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -9893,21 +10728,21 @@
       <c r="D25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>112</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -9916,21 +10751,21 @@
       <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>112</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -9939,21 +10774,21 @@
       <c r="D27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>112</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -9962,21 +10797,21 @@
       <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>112</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -9985,21 +10820,21 @@
       <c r="D29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>112</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -10008,21 +10843,21 @@
       <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>112</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -10031,21 +10866,21 @@
       <c r="D31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>112</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -10054,21 +10889,21 @@
       <c r="D32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>112</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -10077,18 +10912,18 @@
       <c r="D33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>112</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -10107,21 +10942,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="60.453125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="43.7265625" style="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.08984375"/>
+    <col min="2" max="2" customWidth="true" style="20" width="23.54296875"/>
+    <col min="3" max="3" customWidth="true" style="20" width="13.36328125"/>
+    <col min="4" max="4" customWidth="true" style="20" width="11.81640625"/>
+    <col min="5" max="5" customWidth="true" style="12" width="34.7265625"/>
+    <col min="6" max="6" customWidth="true" style="12" width="20.54296875"/>
+    <col min="7" max="7" customWidth="true" style="12" width="24.26953125"/>
+    <col min="8" max="8" customWidth="true" style="12" width="13.08984375"/>
+    <col min="9" max="9" customWidth="true" style="12" width="14.90625"/>
+    <col min="10" max="10" customWidth="true" style="12" width="60.453125"/>
+    <col min="11" max="11" customWidth="true" style="14" width="43.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>23</v>
       </c>
       <c r="B1" s="21"/>
@@ -10135,7 +10970,7 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>124</v>
       </c>
       <c r="C2" s="1"/>
@@ -10146,7 +10981,7 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>26</v>
       </c>
       <c r="C3" s="1"/>
@@ -10154,7 +10989,7 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>27</v>
       </c>
       <c r="C4" s="1"/>

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2A5A1-F4B8-4600-B7A8-643343FB8B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DA0DA7-6FA6-4641-9EB4-21CE6EEF342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmailData" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="EmailId_Result" sheetId="22" r:id="rId21"/>
     <sheet name="Zipcode_Result" sheetId="23" r:id="rId22"/>
     <sheet name="EndToEnd_Result" sheetId="24" r:id="rId23"/>
+    <sheet name="CreateCustomerAndSession" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="677">
   <si>
     <t>Email</t>
   </si>
@@ -1726,6 +1727,366 @@
   </si>
   <si>
     <t>2025-12-22 12:10:31</t>
+  </si>
+  <si>
+    <t>694931363fbd5815ff04f602</t>
+  </si>
+  <si>
+    <t>2025-12-22 17:24:09</t>
+  </si>
+  <si>
+    <t>INR VISA</t>
+  </si>
+  <si>
+    <t>694931853fbd5815ff04f8c3</t>
+  </si>
+  <si>
+    <t>2025-12-22 17:27:10</t>
+  </si>
+  <si>
+    <t>6949326d3fbd5815ff04fe5b</t>
+  </si>
+  <si>
+    <t>2025-12-22 17:29:20</t>
+  </si>
+  <si>
+    <t>USD MASTER</t>
+  </si>
+  <si>
+    <t>694933e63fbd5815ff05084f</t>
+  </si>
+  <si>
+    <t>2025-12-22 17:36:01</t>
+  </si>
+  <si>
+    <t>6949373a3fbd5815ff05125b</t>
+  </si>
+  <si>
+    <t>2025-12-22 17:50:10</t>
+  </si>
+  <si>
+    <t>6949385f3fbd5815ff0519c8</t>
+  </si>
+  <si>
+    <t>2025-12-22 17:55:04</t>
+  </si>
+  <si>
+    <t>694a21584a4f53f748f9c0c3</t>
+  </si>
+  <si>
+    <t>2025-12-23 10:30:32</t>
+  </si>
+  <si>
+    <t>694a22324a4f53f748f9c4a4</t>
+  </si>
+  <si>
+    <t>2025-12-23 10:34:01</t>
+  </si>
+  <si>
+    <t>694a241c4a4f53f748f9c900</t>
+  </si>
+  <si>
+    <t>2025-12-23 10:42:11</t>
+  </si>
+  <si>
+    <t>694a25304a4f53f748f9ccf0</t>
+  </si>
+  <si>
+    <t>2025-12-23 10:46:47</t>
+  </si>
+  <si>
+    <t>694a25dc4a4f53f748f9d0b8</t>
+  </si>
+  <si>
+    <t>2025-12-23 10:49:37</t>
+  </si>
+  <si>
+    <t>694a26884a4f53f748f9d47f</t>
+  </si>
+  <si>
+    <t>2025-12-23 10:52:39</t>
+  </si>
+  <si>
+    <t>694a273b4a4f53f748f9dafe</t>
+  </si>
+  <si>
+    <t>2025-12-23 10:55:39</t>
+  </si>
+  <si>
+    <t>694a27f14a4f53f748f9dec2</t>
+  </si>
+  <si>
+    <t>2025-12-23 10:58:31</t>
+  </si>
+  <si>
+    <t>694a29154a4f53f748f9e29f</t>
+  </si>
+  <si>
+    <t>2025-12-23 11:03:26</t>
+  </si>
+  <si>
+    <t>694a29cd4a4f53f748f9e65c</t>
+  </si>
+  <si>
+    <t>2025-12-23 11:06:29</t>
+  </si>
+  <si>
+    <t>694a2a824a4f53f748f9ea07</t>
+  </si>
+  <si>
+    <t>2025-12-23 11:09:29</t>
+  </si>
+  <si>
+    <t>694a2b3a4a4f53f748f9edb2</t>
+  </si>
+  <si>
+    <t>2025-12-23 11:12:44</t>
+  </si>
+  <si>
+    <t>694a2bf44a4f53f748f9f167</t>
+  </si>
+  <si>
+    <t>2025-12-23 11:15:41</t>
+  </si>
+  <si>
+    <t>694a2dce4a4f53f748f9f81e</t>
+  </si>
+  <si>
+    <t>2025-12-23 11:21:53</t>
+  </si>
+  <si>
+    <t>CLP VISA</t>
+  </si>
+  <si>
+    <t>694a80076121018246f93d68</t>
+  </si>
+  <si>
+    <t>2025-12-23 17:12:20</t>
+  </si>
+  <si>
+    <t>694a80c36121018246f93fec</t>
+  </si>
+  <si>
+    <t>2025-12-23 17:15:26</t>
+  </si>
+  <si>
+    <t>PEN VISA</t>
+  </si>
+  <si>
+    <t>694a860e6ab547d8d6261e4e</t>
+  </si>
+  <si>
+    <t>2025-12-23 17:38:01</t>
+  </si>
+  <si>
+    <t>694a87136ab547d8d62620db</t>
+  </si>
+  <si>
+    <t>2025-12-23 17:42:23</t>
+  </si>
+  <si>
+    <t>694a8a9ec89ddcf8f3998bec</t>
+  </si>
+  <si>
+    <t>2025-12-23 17:57:34</t>
+  </si>
+  <si>
+    <t>694a8c69c89ddcf8f3999831</t>
+  </si>
+  <si>
+    <t>2025-12-23 18:05:18</t>
+  </si>
+  <si>
+    <t>694a8f18c89ddcf8f399a782</t>
+  </si>
+  <si>
+    <t>2025-12-23 18:16:44</t>
+  </si>
+  <si>
+    <t>694b7ce404f0708ed1e91269</t>
+  </si>
+  <si>
+    <t>2025-12-24 11:11:16</t>
+  </si>
+  <si>
+    <t>694b7d5904f0708ed1e914f1</t>
+  </si>
+  <si>
+    <t>2025-12-24 11:13:11</t>
+  </si>
+  <si>
+    <t>694b812f04f0708ed1e91c62</t>
+  </si>
+  <si>
+    <t>2025-12-24 11:29:37</t>
+  </si>
+  <si>
+    <t>694b813204f0708ed1e91c68</t>
+  </si>
+  <si>
+    <t>2025-12-24 11:29:43</t>
+  </si>
+  <si>
+    <t>694b841204f0708ed1e921fe</t>
+  </si>
+  <si>
+    <t>2025-12-24 11:43:11</t>
+  </si>
+  <si>
+    <t>694b846904f0708ed1e92489</t>
+  </si>
+  <si>
+    <t>2025-12-24 11:45:52</t>
+  </si>
+  <si>
+    <t>MXN VISA</t>
+  </si>
+  <si>
+    <t>694b85e904f0708ed1e92a62</t>
+  </si>
+  <si>
+    <t>2025-12-24 11:49:49</t>
+  </si>
+  <si>
+    <t>07/28</t>
+  </si>
+  <si>
+    <t>Master4105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5553042241984105 </t>
+  </si>
+  <si>
+    <t>2025-12-24 12:16:11</t>
+  </si>
+  <si>
+    <t>694b8c5e04f0708ed1e93568</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:19:21</t>
+  </si>
+  <si>
+    <t>694b8d2404f0708ed1e93856</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:21:10</t>
+  </si>
+  <si>
+    <t>694b8d9204f0708ed1e93b49</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:22:59</t>
+  </si>
+  <si>
+    <t>694b8e0704f0708ed1e93e3c</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:24:58</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:26:03</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:26:22</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:26:47</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:27:09</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:27:29</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:27:50</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:39:45</t>
+  </si>
+  <si>
+    <t>694b931804f0708ed1e94ce2</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:46:26</t>
+  </si>
+  <si>
+    <t>694b940204f0708ed1e9538e</t>
+  </si>
+  <si>
+    <t>2025-12-24 12:50:18</t>
+  </si>
+  <si>
+    <t>694b977204f0708ed1e95dd3</t>
+  </si>
+  <si>
+    <t>2025-12-24 13:04:53</t>
+  </si>
+  <si>
+    <t>694bad18e2188cbf0dda77ca</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:37:18</t>
+  </si>
+  <si>
+    <t>useralias@gmail.com</t>
+  </si>
+  <si>
+    <t>694bad8be2188cbf0dda7a7e</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:39:15</t>
+  </si>
+  <si>
+    <t>694bae29e2188cbf0dda7d39</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:41:54</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:52:20</t>
+  </si>
+  <si>
+    <t>694bb0e3197becacc1a08026</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:53:26</t>
+  </si>
+  <si>
+    <t>694bb143197becacc1a08309</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:55:01</t>
+  </si>
+  <si>
+    <t>694bb1a3197becacc1a085e8</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:56:38</t>
+  </si>
+  <si>
+    <t>694bb205197becacc1a088cd</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:58:16</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:59:15</t>
+  </si>
+  <si>
+    <t>2025-12-24 14:59:37</t>
+  </si>
+  <si>
+    <t>2025-12-24 15:00:09</t>
+  </si>
+  <si>
+    <t>2025-12-24 15:00:32</t>
+  </si>
+  <si>
+    <t>2025-12-24 15:00:55</t>
+  </si>
+  <si>
+    <t>2025-12-24 15:01:23</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +2094,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1810,6 +2171,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292A2E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1875,7 +2243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1922,6 +2290,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2225,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F36" sqref="A26:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2732,6 +3101,223 @@
       </c>
       <c r="F25" s="8" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E26" s="8">
+        <v>123</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E27" s="8">
+        <v>123</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E28" s="8">
+        <v>123</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E29" s="8">
+        <v>123</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E30" s="8">
+        <v>123</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E31" s="8">
+        <v>123</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E32" s="8">
+        <v>123</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E33" s="8">
+        <v>123</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E34" s="8">
+        <v>123</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B35" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E35" s="8">
+        <v>123</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E36" s="8">
+        <v>123</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4771,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A2:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -4626,6 +5212,465 @@
       </c>
       <c r="E34" t="s" s="0">
         <v>454</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" t="s" s="0">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D40" s="0"/>
+      <c r="E40" t="s" s="0">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="D41" s="0"/>
+      <c r="E41" t="s" s="0">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D42" s="0"/>
+      <c r="E42" t="s" s="0">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D43" s="0"/>
+      <c r="E43" t="s" s="0">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D44" s="0"/>
+      <c r="E44" t="s" s="0">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0"/>
+      <c r="B45" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D45" s="0"/>
+      <c r="E45" t="s" s="0">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" t="s" s="0">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>658</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D53" s="0"/>
+      <c r="E53" t="s" s="0">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D58" s="0"/>
+      <c r="E58" t="s" s="0">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="D59" s="0"/>
+      <c r="E59" t="s" s="0">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D60" s="0"/>
+      <c r="E60" t="s" s="0">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D61" s="0"/>
+      <c r="E61" t="s" s="0">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D62" s="0"/>
+      <c r="E62" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0"/>
+      <c r="B63" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D63" s="0"/>
+      <c r="E63" t="s" s="0">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -4885,7 +5930,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5198,7 +6243,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
         <v>520</v>
       </c>
@@ -5215,7 +6260,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
         <v>21</v>
       </c>
@@ -5232,7 +6277,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
         <v>21</v>
       </c>
@@ -5249,7 +6294,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
         <v>21</v>
       </c>
@@ -5264,6 +6309,91 @@
       </c>
       <c r="E26" t="s" s="0">
         <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -7331,7 +8461,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -7533,7 +8663,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
         <v>483</v>
       </c>
@@ -7550,7 +8680,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
         <v>483</v>
       </c>
@@ -7567,7 +8697,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
         <v>483</v>
       </c>
@@ -7584,7 +8714,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
         <v>483</v>
       </c>
@@ -7601,7 +8731,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
         <v>483</v>
       </c>
@@ -7618,7 +8748,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
         <v>483</v>
       </c>
@@ -7635,7 +8765,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
         <v>483</v>
       </c>
@@ -7652,7 +8782,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
         <v>483</v>
       </c>
@@ -7669,7 +8799,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
         <v>483</v>
       </c>
@@ -7686,7 +8816,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
         <v>483</v>
       </c>
@@ -7703,7 +8833,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
         <v>483</v>
       </c>
@@ -7720,7 +8850,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
         <v>483</v>
       </c>
@@ -7737,7 +8867,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
         <v>483</v>
       </c>
@@ -7754,7 +8884,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
         <v>483</v>
       </c>
@@ -7771,7 +8901,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
         <v>483</v>
       </c>
@@ -7788,7 +8918,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s" s="0">
         <v>483</v>
       </c>
@@ -7805,7 +8935,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s" s="0">
         <v>483</v>
       </c>
@@ -7822,7 +8952,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s" s="0">
         <v>376</v>
       </c>
@@ -7839,7 +8969,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
         <v>483</v>
       </c>
@@ -7856,7 +8986,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
         <v>483</v>
       </c>
@@ -7873,7 +9003,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
         <v>483</v>
       </c>
@@ -7890,7 +9020,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
         <v>483</v>
       </c>
@@ -7907,7 +9037,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
         <v>483</v>
       </c>
@@ -7924,7 +9054,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
         <v>483</v>
       </c>
@@ -7941,7 +9071,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s" s="0">
         <v>483</v>
       </c>
@@ -7958,7 +9088,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
         <v>483</v>
       </c>
@@ -7975,7 +9105,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s" s="0">
         <v>483</v>
       </c>
@@ -7992,7 +9122,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
         <v>483</v>
       </c>
@@ -8009,7 +9139,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
         <v>483</v>
       </c>
@@ -8026,7 +9156,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
         <v>483</v>
       </c>
@@ -8043,7 +9173,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
         <v>483</v>
       </c>
@@ -8060,7 +9190,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
         <v>483</v>
       </c>
@@ -8075,6 +9205,538 @@
       </c>
       <c r="E43" t="s" s="0">
         <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.81640625"/>
+    <col min="2" max="2" customWidth="true" width="20.90625"/>
+    <col min="3" max="3" customWidth="true" width="23.453125"/>
+    <col min="4" max="4" customWidth="true" width="31.36328125"/>
+    <col min="5" max="5" customWidth="true" width="22.26953125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -9919,7 +11581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F273D65-64CD-4DA6-A7CB-CBDD420D1D4A}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="705">
   <si>
     <t>Email</t>
   </si>
@@ -2087,6 +2087,90 @@
   </si>
   <si>
     <t>2025-12-24 15:01:23</t>
+  </si>
+  <si>
+    <t>694bbc4c197becacc1a09480</t>
+  </si>
+  <si>
+    <t>2025-12-24 15:41:58</t>
+  </si>
+  <si>
+    <t>694bbccd197becacc1a09755</t>
+  </si>
+  <si>
+    <t>2025-12-24 15:44:03</t>
+  </si>
+  <si>
+    <t>694bbd5d1d663b6cdd29e5da</t>
+  </si>
+  <si>
+    <t>2025-12-24 15:46:45</t>
+  </si>
+  <si>
+    <t>694bbe221d663b6cdd29e8ac</t>
+  </si>
+  <si>
+    <t>2025-12-24 15:50:06</t>
+  </si>
+  <si>
+    <t>694bbf121d663b6cdd29eba9</t>
+  </si>
+  <si>
+    <t>2025-12-24 15:54:04</t>
+  </si>
+  <si>
+    <t>694bc1371d663b6cdd29ee95</t>
+  </si>
+  <si>
+    <t>2025-12-24 16:03:12</t>
+  </si>
+  <si>
+    <t>694bc1ce1d663b6cdd29f181</t>
+  </si>
+  <si>
+    <t>2025-12-24 16:05:37</t>
+  </si>
+  <si>
+    <t>2025-12-24 16:24:32</t>
+  </si>
+  <si>
+    <t>suhas@gmail.com</t>
+  </si>
+  <si>
+    <t>694bc8827d800f2da0d7cf29</t>
+  </si>
+  <si>
+    <t>2025-12-24 16:34:20</t>
+  </si>
+  <si>
+    <t>694bcead1d663b6cdd29fbd1</t>
+  </si>
+  <si>
+    <t>2025-12-24 17:00:33</t>
+  </si>
+  <si>
+    <t>694bcf501d663b6cdd29fe9e</t>
+  </si>
+  <si>
+    <t>2025-12-24 17:03:14</t>
+  </si>
+  <si>
+    <t>694bd28a7d800f2da0d7da61</t>
+  </si>
+  <si>
+    <t>2025-12-24 17:17:04</t>
+  </si>
+  <si>
+    <t>694bd3df7d800f2da0d7dfec</t>
+  </si>
+  <si>
+    <t>2025-12-24 17:22:45</t>
+  </si>
+  <si>
+    <t>694bd48d7d800f2da0d7e2d0</t>
+  </si>
+  <si>
+    <t>2025-12-24 17:25:44</t>
   </si>
 </sst>
 </file>
@@ -4771,7 +4855,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:E63"/>
+  <dimension ref="A2:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -5671,6 +5755,36 @@
       <c r="D63" s="0"/>
       <c r="E63" t="s" s="0">
         <v>676</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0"/>
+      <c r="B64" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D64" s="0"/>
+      <c r="E64" t="s" s="0">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -8461,7 +8575,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -9445,6 +9559,40 @@
         <v>629</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9452,7 +9600,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -9737,6 +9885,176 @@
       </c>
       <c r="E16" t="s" s="0">
         <v>598</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABF62CE-9E95-47C0-B93F-68925D06440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5322C1CE-AD7E-49D0-B522-8C05275DC5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmailData" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="523">
   <si>
     <t>Email</t>
   </si>
@@ -1543,13 +1543,96 @@
   </si>
   <si>
     <t>2025-12-30 18:18:07</t>
+  </si>
+  <si>
+    <t>69566897d115b70387391700</t>
+  </si>
+  <si>
+    <t>2026-01-01 18:05:17</t>
+  </si>
+  <si>
+    <t>69575109f2e8c4632394d764</t>
+  </si>
+  <si>
+    <t>ZaakPay</t>
+  </si>
+  <si>
+    <t>2026-01-02 10:31:53</t>
+  </si>
+  <si>
+    <t>69575170f2e8c4632394dabc</t>
+  </si>
+  <si>
+    <t>2026-01-02 10:33:30</t>
+  </si>
+  <si>
+    <t>2026-01-02 10:34:20</t>
+  </si>
+  <si>
+    <t>695752d1f2e8c4632394de25</t>
+  </si>
+  <si>
+    <t>2026-01-02 10:39:26</t>
+  </si>
+  <si>
+    <t>69575399f2e8c4632394e185</t>
+  </si>
+  <si>
+    <t>2026-01-02 10:42:46</t>
+  </si>
+  <si>
+    <t>695753fbf2e8c4632394e4df</t>
+  </si>
+  <si>
+    <t>2026-01-02 10:44:27</t>
+  </si>
+  <si>
+    <t>2026-01-02 10:45:16</t>
+  </si>
+  <si>
+    <t>2026-01-02 10:45:35</t>
+  </si>
+  <si>
+    <t>6957583df2e8c4632394f5fa</t>
+  </si>
+  <si>
+    <t>Zaakpay</t>
+  </si>
+  <si>
+    <t>2026-01-02 11:02:34</t>
+  </si>
+  <si>
+    <t>69575899f2e8c4632394f95f</t>
+  </si>
+  <si>
+    <t>2026-01-02 11:04:04</t>
+  </si>
+  <si>
+    <t>695758f7f2e8c4632394fcc2</t>
+  </si>
+  <si>
+    <t>2026-01-02 11:05:35</t>
+  </si>
+  <si>
+    <t>69575ad9f2e8c4632395003d</t>
+  </si>
+  <si>
+    <t>2026-01-02 11:13:42</t>
+  </si>
+  <si>
+    <t>INR Visa</t>
+  </si>
+  <si>
+    <t>69575c75f2e8c4632395039d</t>
+  </si>
+  <si>
+    <t>2026-01-02 11:20:08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2061,30 +2144,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.08984375"/>
-    <col min="2" max="2" customWidth="true" width="17.453125"/>
-    <col min="3" max="3" customWidth="true" width="32.1796875"/>
-    <col min="4" max="4" customWidth="true" width="20.453125"/>
-    <col min="6" max="6" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2104,15 +2187,15 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2121,18 +2204,18 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2141,18 +2224,18 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2161,18 +2244,18 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2181,18 +2264,18 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>440</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2201,18 +2284,18 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>440</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2221,18 +2304,18 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>440</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2241,18 +2324,18 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>440</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2261,18 +2344,18 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>440</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2281,15 +2364,15 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>440</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2298,18 +2381,18 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>440</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2318,10 +2401,10 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>440</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2329,7 +2412,7 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2346,10 +2429,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2366,10 +2449,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2386,10 +2469,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2406,10 +2489,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -2426,10 +2509,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2446,10 +2529,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -2466,10 +2549,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2486,10 +2569,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2506,10 +2589,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2526,7 +2609,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -2543,10 +2626,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -2563,10 +2646,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -2583,10 +2666,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -2603,10 +2686,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -2623,10 +2706,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -2643,10 +2726,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -2663,10 +2746,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="24" t="s">
@@ -2683,10 +2766,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -2703,10 +2786,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -2723,10 +2806,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -2743,7 +2826,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="24" t="s">
@@ -2760,10 +2843,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2799,14 +2882,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.6328125"/>
-    <col min="2" max="2" customWidth="true" width="20.08984375"/>
-    <col min="5" max="5" customWidth="true" width="19.36328125"/>
-    <col min="6" max="6" customWidth="true" width="14.81640625"/>
-    <col min="7" max="7" customWidth="true" width="13.1796875"/>
-    <col min="8" max="8" customWidth="true" width="14.90625"/>
-    <col min="9" max="9" customWidth="true" width="14.36328125"/>
-    <col min="10" max="10" customWidth="true" width="58.54296875"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="58.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -3980,11 +4063,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="17.26953125"/>
-    <col min="4" max="4" customWidth="true" width="23.81640625"/>
-    <col min="5" max="5" customWidth="true" width="15.453125"/>
-    <col min="6" max="6" customWidth="true" width="12.81640625"/>
-    <col min="7" max="7" customWidth="true" width="15.81640625"/>
+    <col min="1" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -4009,10 +4092,10 @@
       <c r="G2" s="4">
         <v>440</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4038,10 +4121,10 @@
       <c r="G3" s="4">
         <v>440</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4067,10 +4150,10 @@
       <c r="G4" s="4">
         <v>440</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4096,10 +4179,10 @@
       <c r="G5" s="4">
         <v>440</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4125,10 +4208,10 @@
       <c r="G6" s="4">
         <v>440</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4145,15 +4228,15 @@
       <c r="G7" s="4">
         <v>440</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -4168,15 +4251,15 @@
       <c r="G8" s="4">
         <v>440</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -4191,15 +4274,15 @@
       <c r="G9" s="4">
         <v>440</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>182</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4214,10 +4297,10 @@
       <c r="G10" s="4">
         <v>440</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>57</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4238,12 +4321,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.26953125"/>
-    <col min="2" max="2" customWidth="true" width="17.7265625"/>
-    <col min="3" max="3" customWidth="true" width="55.81640625"/>
-    <col min="4" max="4" customWidth="true" width="31.0"/>
-    <col min="5" max="5" customWidth="true" width="31.36328125"/>
-    <col min="6" max="6" customWidth="true" width="20.6328125"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="55.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4260,171 +4343,171 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="46.6328125"/>
-    <col min="3" max="3" customWidth="true" width="72.08984375"/>
-    <col min="4" max="4" customWidth="true" width="64.453125"/>
-    <col min="5" max="5" customWidth="true" width="30.36328125"/>
+    <col min="1" max="1" width="46.6328125" customWidth="1"/>
+    <col min="3" max="3" width="72.08984375" customWidth="1"/>
+    <col min="4" max="4" width="64.453125" customWidth="1"/>
+    <col min="5" max="5" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>453</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>358</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>383</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>454</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>456</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>358</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>358</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>383</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>457</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>459</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>358</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>358</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>383</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>460</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>462</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>361</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>145</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>463</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>361</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>145</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>465</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>361</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>145</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>467</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>462</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>361</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>145</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>463</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>145</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>465</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>361</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>145</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>467</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>471</v>
       </c>
     </row>
@@ -4435,41 +4518,130 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="51.26953125"/>
-    <col min="4" max="4" customWidth="true" width="59.08984375"/>
-    <col min="5" max="5" customWidth="true" width="28.26953125"/>
-    <col min="6" max="6" customWidth="true" width="24.54296875"/>
+    <col min="3" max="3" width="51.26953125" customWidth="1"/>
+    <col min="4" max="4" width="59.08984375" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>489</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>492</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>493</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4488,263 +4660,263 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>361</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>372</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>373</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>361</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>144</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>372</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>375</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>361</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>361</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>377</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>361</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>145</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>379</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>361</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>145</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>379</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>361</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>145</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>379</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>361</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>145</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>379</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>389</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>358</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>144</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>365</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>390</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>361</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>145</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>379</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>361</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>379</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>361</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>145</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>379</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>361</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>474</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>361</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>145</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>482</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>361</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>145</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>484</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>489</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>358</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>144</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>365</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>490</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4763,304 +4935,304 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="8.7265625"/>
-    <col min="4" max="4" customWidth="true" width="41.1796875"/>
-    <col min="5" max="5" customWidth="true" width="39.26953125"/>
-    <col min="6" max="6" customWidth="true" width="20.1796875"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="41.1796875" customWidth="1"/>
+    <col min="5" max="5" width="39.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>361</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>393</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>358</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>361</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>395</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>358</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>361</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>397</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>361</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>361</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>393</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>361</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>361</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>395</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>361</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>361</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>397</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>361</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>361</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>393</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>361</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>361</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>395</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>361</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>361</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>397</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>361</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>361</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>393</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>361</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>361</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>395</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>361</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>361</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>397</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>124</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>361</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>361</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>372</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>408</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>358</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>358</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>383</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>410</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>361</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>361</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>476</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>361</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>361</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>478</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>361</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>361</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>480</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5079,66 +5251,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="43.453125"/>
-    <col min="4" max="4" customWidth="true" width="52.26953125"/>
-    <col min="5" max="5" customWidth="true" width="40.81640625"/>
-    <col min="6" max="6" customWidth="true" width="27.90625"/>
+    <col min="3" max="3" width="43.453125" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" customWidth="1"/>
+    <col min="6" max="6" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>361</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>361</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>372</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>412</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>361</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>361</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>414</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>416</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>358</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>358</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>383</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>417</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5157,91 +5329,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0"/>
-    <col min="2" max="2" customWidth="true" width="26.1796875"/>
-    <col min="3" max="3" customWidth="true" width="39.26953125"/>
-    <col min="4" max="4" customWidth="true" width="34.453125"/>
-    <col min="5" max="5" customWidth="true" width="32.36328125"/>
-    <col min="6" max="6" customWidth="true" width="28.1796875"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>358</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>383</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>419</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>126</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>358</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>358</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>383</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>421</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>180</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>358</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>358</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>383</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>423</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>358</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>358</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>383</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>425</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5260,25 +5432,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.6328125"/>
-    <col min="2" max="2" customWidth="true" width="15.6328125"/>
-    <col min="3" max="3" customWidth="true" width="17.81640625"/>
-    <col min="4" max="4" customWidth="true" width="20.6328125"/>
-    <col min="5" max="5" customWidth="true" style="6" width="11.90625"/>
-    <col min="6" max="6" style="6" width="8.7265625"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -5312,7 +5484,7 @@
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5329,10 +5501,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -5352,7 +5524,7 @@
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -5372,7 +5544,7 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -5389,10 +5561,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -5427,156 +5599,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="35.36328125"/>
-    <col min="4" max="4" customWidth="true" width="40.0"/>
-    <col min="5" max="5" customWidth="true" width="27.36328125"/>
+    <col min="3" max="3" width="35.36328125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>358</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>383</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>427</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>361</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>144</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>429</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>361</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>361</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>372</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>431</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>361</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>144</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>433</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>125</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>358</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>358</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>383</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>435</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>361</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>429</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>361</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>361</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>372</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>438</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>440</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>358</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>358</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>372</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>441</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5595,44 +5767,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.36328125"/>
-    <col min="2" max="2" customWidth="true" width="18.453125"/>
-    <col min="3" max="3" customWidth="true" width="24.0"/>
-    <col min="4" max="4" customWidth="true" width="25.26953125"/>
-    <col min="5" max="5" customWidth="true" width="21.81640625"/>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>358</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>383</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>443</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>361</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>144</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>445</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5651,18 +5823,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="37.81640625"/>
-    <col min="4" max="4" customWidth="true" width="20.90625"/>
-    <col min="5" max="5" customWidth="true" width="26.1796875"/>
+    <col min="3" max="3" width="37.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5681,71 +5853,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.54296875"/>
-    <col min="2" max="2" customWidth="true" width="16.26953125"/>
-    <col min="3" max="3" customWidth="true" width="33.7265625"/>
-    <col min="4" max="4" customWidth="true" width="47.7265625"/>
-    <col min="5" max="5" customWidth="true" width="33.90625"/>
-    <col min="6" max="6" customWidth="true" width="24.08984375"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" customWidth="1"/>
+    <col min="5" max="5" width="33.90625" customWidth="1"/>
+    <col min="6" max="6" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>358</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>383</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>447</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>358</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>358</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>383</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>449</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>358</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>358</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>383</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>451</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5756,1073 +5928,1096 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.453125"/>
-    <col min="2" max="2" customWidth="true" width="16.6328125"/>
-    <col min="3" max="3" customWidth="true" width="21.453125"/>
-    <col min="4" max="4" customWidth="true" width="35.453125"/>
-    <col min="5" max="5" customWidth="true" width="33.1796875"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>157</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>147</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>158</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>160</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>161</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>160</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>147</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>163</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>145</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>148</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>166</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>165</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>145</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>168</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>165</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>145</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>148</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>170</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>145</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>148</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>172</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>165</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>145</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>148</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>174</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>165</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>144</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>147</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>176</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>165</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>144</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>147</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>178</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>183</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>144</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>147</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>184</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>183</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>144</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>186</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>183</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>144</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>188</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>183</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>144</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>147</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>190</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>183</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>144</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>147</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>192</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>183</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>144</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>147</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>194</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>183</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>144</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>147</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>196</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>183</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>144</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>147</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>198</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>183</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>144</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>147</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>200</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>183</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>144</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>147</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>202</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>183</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>144</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>147</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>204</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>183</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>144</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>147</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>206</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>183</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>144</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>147</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>208</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>183</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>144</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>147</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>210</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>183</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>144</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>147</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>212</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>183</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>144</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>147</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>214</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>183</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>144</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>147</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="D28" t="s">
         <v>216</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>160</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>145</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>148</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="D29" t="s">
         <v>218</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>183</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>144</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>147</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>220</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>183</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>144</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>147</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>222</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>183</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>144</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>147</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>224</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>183</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>144</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>147</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>226</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>183</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>144</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>147</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>228</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>183</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>144</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>147</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>230</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="E35" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>183</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>144</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="C36" t="s">
         <v>147</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D36" t="s">
         <v>232</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="E36" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>183</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B37" t="s">
         <v>144</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="C37" t="s">
         <v>147</v>
       </c>
-      <c r="D37" t="s" s="0">
+      <c r="D37" t="s">
         <v>234</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="E37" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>183</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="C38" t="s">
         <v>147</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>236</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="E38" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>183</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="B39" t="s">
         <v>144</v>
       </c>
-      <c r="C39" t="s" s="0">
+      <c r="C39" t="s">
         <v>147</v>
       </c>
-      <c r="D39" t="s" s="0">
+      <c r="D39" t="s">
         <v>238</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="E39" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>183</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="B40" t="s">
         <v>144</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="C40" t="s">
         <v>147</v>
       </c>
-      <c r="D40" t="s" s="0">
+      <c r="D40" t="s">
         <v>240</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="E40" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>183</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="B41" t="s">
         <v>144</v>
       </c>
-      <c r="C41" t="s" s="0">
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="D41" t="s">
         <v>242</v>
       </c>
-      <c r="E41" t="s" s="0">
+      <c r="E41" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>183</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="B42" t="s">
         <v>144</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="C42" t="s">
         <v>147</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>244</v>
       </c>
-      <c r="E42" t="s" s="0">
+      <c r="E42" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>183</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="B43" t="s">
         <v>144</v>
       </c>
-      <c r="C43" t="s" s="0">
+      <c r="C43" t="s">
         <v>147</v>
       </c>
-      <c r="D43" t="s" s="0">
+      <c r="D43" t="s">
         <v>246</v>
       </c>
-      <c r="E43" t="s" s="0">
+      <c r="E43" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>279</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>145</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="C44" t="s">
         <v>148</v>
       </c>
-      <c r="D44" t="s" s="0">
+      <c r="D44" t="s">
         <v>280</v>
       </c>
-      <c r="E44" t="s" s="0">
+      <c r="E44" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>279</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>145</v>
       </c>
-      <c r="C45" t="s" s="0">
+      <c r="C45" t="s">
         <v>148</v>
       </c>
-      <c r="D45" t="s" s="0">
+      <c r="D45" t="s">
         <v>282</v>
       </c>
-      <c r="E45" t="s" s="0">
+      <c r="E45" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>284</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>145</v>
       </c>
-      <c r="C46" t="s" s="0">
+      <c r="C46" t="s">
         <v>148</v>
       </c>
-      <c r="D46" t="s" s="0">
+      <c r="D46" t="s">
         <v>285</v>
       </c>
-      <c r="E46" t="s" s="0">
+      <c r="E46" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>284</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>145</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="C47" t="s">
         <v>148</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="D47" t="s">
         <v>287</v>
       </c>
-      <c r="E47" t="s" s="0">
+      <c r="E47" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>284</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B48" t="s">
         <v>145</v>
       </c>
-      <c r="C48" t="s" s="0">
+      <c r="C48" t="s">
         <v>148</v>
       </c>
-      <c r="D48" t="s" s="0">
+      <c r="D48" t="s">
         <v>289</v>
       </c>
-      <c r="E48" t="s" s="0">
+      <c r="E48" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s" s="0">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>284</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" t="s" s="0">
+      <c r="C49" t="s">
         <v>147</v>
       </c>
-      <c r="D49" t="s" s="0">
+      <c r="D49" t="s">
         <v>291</v>
       </c>
-      <c r="E49" t="s" s="0">
+      <c r="E49" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>284</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B50" t="s">
         <v>144</v>
       </c>
-      <c r="C50" t="s" s="0">
+      <c r="C50" t="s">
         <v>147</v>
       </c>
-      <c r="D50" t="s" s="0">
+      <c r="D50" t="s">
         <v>293</v>
       </c>
-      <c r="E50" t="s" s="0">
+      <c r="E50" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s" s="0">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>284</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B51" t="s">
         <v>145</v>
       </c>
-      <c r="C51" t="s" s="0">
+      <c r="C51" t="s">
         <v>148</v>
       </c>
-      <c r="D51" t="s" s="0">
+      <c r="D51" t="s">
         <v>295</v>
       </c>
-      <c r="E51" t="s" s="0">
+      <c r="E51" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s" s="0">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>284</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="B52" t="s">
         <v>145</v>
       </c>
-      <c r="C52" t="s" s="0">
+      <c r="C52" t="s">
         <v>148</v>
       </c>
-      <c r="D52" t="s" s="0">
+      <c r="D52" t="s">
         <v>297</v>
       </c>
-      <c r="E52" t="s" s="0">
+      <c r="E52" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s" s="0">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>284</v>
       </c>
-      <c r="B53" t="s" s="0">
+      <c r="B53" t="s">
         <v>145</v>
       </c>
-      <c r="C53" t="s" s="0">
+      <c r="C53" t="s">
         <v>148</v>
       </c>
-      <c r="D53" t="s" s="0">
+      <c r="D53" t="s">
         <v>299</v>
       </c>
-      <c r="E53" t="s" s="0">
+      <c r="E53" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s" s="0">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>284</v>
       </c>
-      <c r="B54" t="s" s="0">
+      <c r="B54" t="s">
         <v>145</v>
       </c>
-      <c r="C54" t="s" s="0">
+      <c r="C54" t="s">
         <v>148</v>
       </c>
-      <c r="D54" t="s" s="0">
+      <c r="D54" t="s">
         <v>301</v>
       </c>
-      <c r="E54" t="s" s="0">
+      <c r="E54" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s" s="0">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>284</v>
       </c>
-      <c r="B55" t="s" s="0">
+      <c r="B55" t="s">
         <v>145</v>
       </c>
-      <c r="C55" t="s" s="0">
+      <c r="C55" t="s">
         <v>148</v>
       </c>
-      <c r="D55" t="s" s="0">
+      <c r="D55" t="s">
         <v>303</v>
       </c>
-      <c r="E55" t="s" s="0">
+      <c r="E55" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s" s="0">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>279</v>
       </c>
-      <c r="B56" t="s" s="0">
+      <c r="B56" t="s">
         <v>145</v>
       </c>
-      <c r="C56" t="s" s="0">
+      <c r="C56" t="s">
         <v>148</v>
       </c>
-      <c r="D56" t="s" s="0">
+      <c r="D56" t="s">
         <v>305</v>
       </c>
-      <c r="E56" t="s" s="0">
+      <c r="E56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s" s="0">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>307</v>
       </c>
-      <c r="B57" t="s" s="0">
+      <c r="B57" t="s">
         <v>145</v>
       </c>
-      <c r="C57" t="s" s="0">
+      <c r="C57" t="s">
         <v>148</v>
       </c>
-      <c r="D57" t="s" s="0">
+      <c r="D57" t="s">
         <v>308</v>
       </c>
-      <c r="E57" t="s" s="0">
+      <c r="E57" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s" s="0">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>183</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B58" t="s">
         <v>144</v>
       </c>
-      <c r="C58" t="s" s="0">
+      <c r="C58" t="s">
         <v>147</v>
       </c>
-      <c r="D58" t="s" s="0">
+      <c r="D58" t="s">
         <v>314</v>
       </c>
-      <c r="E58" t="s" s="0">
+      <c r="E58" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s" s="0">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>183</v>
       </c>
-      <c r="B59" t="s" s="0">
+      <c r="B59" t="s">
         <v>144</v>
       </c>
-      <c r="C59" t="s" s="0">
+      <c r="C59" t="s">
         <v>147</v>
       </c>
-      <c r="D59" t="s" s="0">
+      <c r="D59" t="s">
         <v>316</v>
       </c>
-      <c r="E59" t="s" s="0">
+      <c r="E59" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s" s="0">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>248</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B60" t="s">
         <v>145</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C60" t="s">
         <v>148</v>
       </c>
-      <c r="D60" t="s" s="0">
+      <c r="D60" t="s">
         <v>338</v>
       </c>
-      <c r="E60" t="s" s="0">
+      <c r="E60" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s" s="0">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>248</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="B61" t="s">
         <v>145</v>
       </c>
-      <c r="C61" t="s" s="0">
+      <c r="C61" t="s">
         <v>148</v>
       </c>
-      <c r="D61" t="s" s="0">
+      <c r="D61" t="s">
         <v>340</v>
       </c>
-      <c r="E61" t="s" s="0">
+      <c r="E61" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s" s="0">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>183</v>
       </c>
-      <c r="B62" t="s" s="0">
+      <c r="B62" t="s">
         <v>144</v>
       </c>
-      <c r="C62" t="s" s="0">
+      <c r="C62" t="s">
         <v>147</v>
       </c>
-      <c r="D62" t="s" s="0">
+      <c r="D62" t="s">
         <v>342</v>
       </c>
-      <c r="E62" t="s" s="0">
+      <c r="E62" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>520</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" t="s">
+        <v>521</v>
+      </c>
+      <c r="F63" t="s">
+        <v>512</v>
+      </c>
+      <c r="G63" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -6832,481 +7027,565 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.81640625"/>
-    <col min="2" max="2" customWidth="true" width="20.90625"/>
-    <col min="3" max="3" customWidth="true" width="23.453125"/>
-    <col min="4" max="4" customWidth="true" width="31.36328125"/>
-    <col min="5" max="5" customWidth="true" width="22.26953125"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>248</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>147</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>249</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>248</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>147</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>251</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>248</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>147</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>253</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>248</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>144</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>255</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>248</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>147</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>257</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>248</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>144</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>147</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>259</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>248</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>144</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>147</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>261</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>248</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>144</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>147</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>263</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>248</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>144</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>147</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>265</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>248</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>144</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>147</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>267</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>248</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>144</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>147</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>269</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>248</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>144</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>271</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>248</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>144</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>273</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>248</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>144</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>147</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>275</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>248</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>144</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>147</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>277</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>248</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>145</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>148</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>318</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>248</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>145</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>148</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>320</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>183</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>145</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>148</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>322</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>160</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>145</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>148</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>324</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>183</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>145</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>148</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>326</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>183</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>145</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>148</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>328</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>183</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>145</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>148</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>330</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>183</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>144</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>147</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>332</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>183</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>144</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>147</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>334</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>183</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>144</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>147</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>336</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>416</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>486</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>144</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>147</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>487</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>514</v>
+      </c>
+      <c r="F29" t="s">
+        <v>512</v>
+      </c>
+      <c r="G29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>516</v>
+      </c>
+      <c r="F30" t="s">
+        <v>512</v>
+      </c>
+      <c r="G30" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>518</v>
+      </c>
+      <c r="F31" t="s">
+        <v>512</v>
+      </c>
+      <c r="G31" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -7316,7 +7595,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -7324,284 +7603,393 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.453125"/>
-    <col min="2" max="2" customWidth="true" width="21.36328125"/>
-    <col min="3" max="3" customWidth="true" width="18.36328125"/>
-    <col min="4" max="4" customWidth="true" width="57.81640625"/>
-    <col min="5" max="5" customWidth="true" width="34.1796875"/>
-    <col min="6" max="6" customWidth="true" width="19.26953125"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="57.81640625" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>344</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>345</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>151</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>152</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>313</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>144</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>346</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>144</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>146</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>313</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>144</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>349</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>313</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>144</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>147</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>351</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>353</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>354</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>144</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>356</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>313</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>358</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>144</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>147</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>359</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>353</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>361</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>144</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>354</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>361</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>356</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>313</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>358</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>144</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>365</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>366</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>353</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>361</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>368</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>361</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>145</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>370</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>313</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>358</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>358</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>383</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>384</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>353</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>361</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>145</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>368</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>361</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>145</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>370</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E17" t="s">
+        <v>503</v>
+      </c>
+      <c r="F17" t="s">
+        <v>498</v>
+      </c>
+      <c r="G17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" t="s">
+        <v>505</v>
+      </c>
+      <c r="F18" t="s">
+        <v>498</v>
+      </c>
+      <c r="G18" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" t="s">
+        <v>507</v>
+      </c>
+      <c r="F19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>368</v>
+      </c>
+      <c r="F20" t="s">
+        <v>498</v>
+      </c>
+      <c r="G20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F21" t="s">
+        <v>498</v>
+      </c>
+      <c r="G21" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7619,39 +8007,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.453125"/>
-    <col min="2" max="2" customWidth="true" width="17.0"/>
-    <col min="3" max="3" customWidth="true" width="18.90625"/>
-    <col min="4" max="4" customWidth="true" width="17.54296875"/>
-    <col min="5" max="5" customWidth="true" width="14.08984375"/>
-    <col min="7" max="7" customWidth="true" width="13.81640625"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7669,15 +8057,15 @@
       <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7686,21 +8074,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7709,21 +8097,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7732,21 +8120,21 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -7761,15 +8149,15 @@
       <c r="F6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -7784,15 +8172,15 @@
       <c r="F7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -7807,15 +8195,15 @@
       <c r="F8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -7830,7 +8218,7 @@
       <c r="F9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7849,39 +8237,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.453125"/>
-    <col min="2" max="2" customWidth="true" width="28.7265625"/>
-    <col min="3" max="3" customWidth="true" width="29.0"/>
-    <col min="4" max="4" customWidth="true" width="19.1796875"/>
-    <col min="5" max="5" customWidth="true" width="15.453125"/>
-    <col min="7" max="7" customWidth="true" width="12.1796875"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7896,18 +8284,18 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7916,21 +8304,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7939,21 +8327,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7962,21 +8350,21 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -7991,15 +8379,15 @@
       <c r="F6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -8014,15 +8402,15 @@
       <c r="F7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -8037,15 +8425,15 @@
       <c r="F8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -8060,15 +8448,15 @@
       <c r="F9" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>140</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -8083,15 +8471,15 @@
       <c r="F10" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -8106,15 +8494,15 @@
       <c r="F11" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>140</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -8129,15 +8517,15 @@
       <c r="F12" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -8152,15 +8540,15 @@
       <c r="F13" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -8175,7 +8563,7 @@
       <c r="F14" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8195,32 +8583,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="17.453125"/>
-    <col min="2" max="2" customWidth="true" width="19.1796875"/>
-    <col min="3" max="3" customWidth="true" width="17.453125"/>
-    <col min="4" max="4" customWidth="true" width="14.08984375"/>
+    <col min="1" max="1" width="17.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8240,10 +8628,10 @@
       <c r="E2" s="4">
         <v>123</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>142</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8263,10 +8651,10 @@
       <c r="E3" s="4">
         <v>123</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>142</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8286,10 +8674,10 @@
       <c r="E4" s="4">
         <v>123</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>142</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8309,10 +8697,10 @@
       <c r="E5" s="4">
         <v>123</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>142</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8332,10 +8720,10 @@
       <c r="E6" s="4">
         <v>123</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>142</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8355,10 +8743,10 @@
       <c r="E7" s="4">
         <v>123</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>142</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8378,10 +8766,10 @@
       <c r="E8" s="4">
         <v>123</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>142</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8401,10 +8789,10 @@
       <c r="E9" s="4">
         <v>123</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>142</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8427,7 +8815,7 @@
       <c r="F10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8450,7 +8838,7 @@
       <c r="F11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8473,7 +8861,7 @@
       <c r="F12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8496,7 +8884,7 @@
       <c r="F13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8519,7 +8907,7 @@
       <c r="F14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8542,7 +8930,7 @@
       <c r="F15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8565,7 +8953,7 @@
       <c r="F16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8588,7 +8976,7 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8611,34 +8999,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="6" width="8.7265625"/>
-    <col min="2" max="2" customWidth="true" width="16.90625"/>
-    <col min="3" max="3" customWidth="true" width="24.1796875"/>
-    <col min="4" max="4" customWidth="true" width="10.453125"/>
-    <col min="5" max="5" customWidth="true" width="14.08984375"/>
-    <col min="6" max="6" customWidth="true" width="17.08984375"/>
+    <col min="1" max="1" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8661,7 +9049,7 @@
       <c r="F2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8669,7 +9057,7 @@
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8678,13 +9066,13 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8692,7 +9080,7 @@
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -8701,13 +9089,13 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8715,7 +9103,7 @@
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -8724,13 +9112,13 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8753,7 +9141,7 @@
       <c r="F6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8761,7 +9149,7 @@
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -8770,13 +9158,13 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>440</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8784,7 +9172,7 @@
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -8793,13 +9181,13 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>440</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8807,7 +9195,7 @@
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -8816,13 +9204,13 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>440</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8845,7 +9233,7 @@
       <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8853,7 +9241,7 @@
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -8862,13 +9250,13 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>440</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8876,7 +9264,7 @@
       <c r="A12" s="6">
         <v>123</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -8885,13 +9273,13 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>440</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8899,7 +9287,7 @@
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -8908,13 +9296,13 @@
       <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>440</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8937,7 +9325,7 @@
       <c r="F14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8945,7 +9333,7 @@
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -8954,13 +9342,13 @@
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>440</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8968,7 +9356,7 @@
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -8977,13 +9365,13 @@
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>440</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8991,7 +9379,7 @@
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -9000,13 +9388,13 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>440</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9014,7 +9402,7 @@
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -9023,13 +9411,13 @@
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>440</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9037,7 +9425,7 @@
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -9046,13 +9434,13 @@
       <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>111</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9060,7 +9448,7 @@
       <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -9069,13 +9457,13 @@
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>111</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9083,7 +9471,7 @@
       <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -9092,13 +9480,13 @@
       <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>111</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9106,7 +9494,7 @@
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -9115,13 +9503,13 @@
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>111</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" t="s" s="0">
+      <c r="G22" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9129,7 +9517,7 @@
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -9138,13 +9526,13 @@
       <c r="D23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>111</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>58</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9152,7 +9540,7 @@
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -9161,13 +9549,13 @@
       <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>111</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="F24" t="s">
         <v>58</v>
       </c>
-      <c r="G24" t="s" s="0">
+      <c r="G24" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9175,7 +9563,7 @@
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -9184,13 +9572,13 @@
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>111</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="G25" t="s" s="0">
+      <c r="G25" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9198,7 +9586,7 @@
       <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -9207,13 +9595,13 @@
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>111</v>
       </c>
-      <c r="F26" t="s" s="0">
+      <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="G26" t="s" s="0">
+      <c r="G26" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9221,7 +9609,7 @@
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -9230,13 +9618,13 @@
       <c r="D27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>111</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>58</v>
       </c>
-      <c r="G27" t="s" s="0">
+      <c r="G27" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9244,7 +9632,7 @@
       <c r="A28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -9253,13 +9641,13 @@
       <c r="D28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>111</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>58</v>
       </c>
-      <c r="G28" t="s" s="0">
+      <c r="G28" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9267,7 +9655,7 @@
       <c r="A29" s="6">
         <v>123</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -9276,13 +9664,13 @@
       <c r="D29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>111</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>58</v>
       </c>
-      <c r="G29" t="s" s="0">
+      <c r="G29" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9290,7 +9678,7 @@
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -9299,13 +9687,13 @@
       <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>111</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="G30" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9313,7 +9701,7 @@
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -9322,13 +9710,13 @@
       <c r="D31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>111</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>58</v>
       </c>
-      <c r="G31" t="s" s="0">
+      <c r="G31" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9336,7 +9724,7 @@
       <c r="A32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -9345,13 +9733,13 @@
       <c r="D32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>111</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>58</v>
       </c>
-      <c r="G32" t="s" s="0">
+      <c r="G32" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9359,7 +9747,7 @@
       <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -9368,13 +9756,13 @@
       <c r="D33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>111</v>
       </c>
-      <c r="F33" t="s" s="0">
+      <c r="F33" t="s">
         <v>58</v>
       </c>
-      <c r="G33" t="s" s="0">
+      <c r="G33" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9382,7 +9770,7 @@
       <c r="A34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -9391,13 +9779,13 @@
       <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>111</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" t="s" s="0">
+      <c r="G34" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9405,7 +9793,7 @@
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -9414,13 +9802,13 @@
       <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>111</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="F35" t="s">
         <v>58</v>
       </c>
-      <c r="G35" t="s" s="0">
+      <c r="G35" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9452,38 +9840,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="24.36328125"/>
-    <col min="3" max="3" customWidth="true" width="21.453125"/>
-    <col min="4" max="4" customWidth="true" width="19.90625"/>
-    <col min="5" max="5" customWidth="true" width="13.36328125"/>
-    <col min="6" max="6" customWidth="true" width="20.453125"/>
+    <col min="1" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9498,18 +9886,18 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -9518,21 +9906,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -9541,21 +9929,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -9564,18 +9952,18 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9587,21 +9975,21 @@
       <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>111</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -9610,21 +9998,21 @@
       <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>111</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -9633,21 +10021,21 @@
       <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>111</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -9656,13 +10044,13 @@
       <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>111</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9682,39 +10070,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.6328125"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" customWidth="true" width="17.90625"/>
-    <col min="4" max="4" customWidth="true" width="15.0"/>
-    <col min="5" max="5" customWidth="true" width="16.08984375"/>
-    <col min="6" max="6" customWidth="true" width="15.26953125"/>
+    <col min="1" max="1" width="41.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -9729,18 +10117,18 @@
       <c r="E2" s="4">
         <v>440</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -9749,21 +10137,21 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>440</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -9772,21 +10160,21 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>440</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -9795,21 +10183,21 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>440</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -9818,18 +10206,18 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>440</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -9844,18 +10232,18 @@
       <c r="E7" s="4">
         <v>440</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -9864,21 +10252,21 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>440</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -9887,21 +10275,21 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>440</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -9910,21 +10298,21 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>440</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -9933,18 +10321,18 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>440</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9956,21 +10344,21 @@
       <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>111</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -9979,21 +10367,21 @@
       <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>111</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -10002,21 +10390,21 @@
       <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>111</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -10025,18 +10413,18 @@
       <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>111</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -10048,21 +10436,21 @@
       <c r="D16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>111</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -10071,21 +10459,21 @@
       <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>111</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -10094,21 +10482,21 @@
       <c r="D18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>111</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -10117,18 +10505,18 @@
       <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>111</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -10140,21 +10528,21 @@
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>111</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -10163,21 +10551,21 @@
       <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>111</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -10186,21 +10574,21 @@
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>111</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" t="s" s="0">
+      <c r="G22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -10209,21 +10597,21 @@
       <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>112</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>155</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -10232,21 +10620,21 @@
       <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>112</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="F24" t="s">
         <v>155</v>
       </c>
-      <c r="G24" t="s" s="0">
+      <c r="G24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -10255,21 +10643,21 @@
       <c r="D25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>112</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>155</v>
       </c>
-      <c r="G25" t="s" s="0">
+      <c r="G25" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -10278,21 +10666,21 @@
       <c r="D26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>112</v>
       </c>
-      <c r="F26" t="s" s="0">
+      <c r="F26" t="s">
         <v>155</v>
       </c>
-      <c r="G26" t="s" s="0">
+      <c r="G26" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -10301,21 +10689,21 @@
       <c r="D27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>112</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>155</v>
       </c>
-      <c r="G27" t="s" s="0">
+      <c r="G27" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -10324,21 +10712,21 @@
       <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>112</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>155</v>
       </c>
-      <c r="G28" t="s" s="0">
+      <c r="G28" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -10347,21 +10735,21 @@
       <c r="D29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>112</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>155</v>
       </c>
-      <c r="G29" t="s" s="0">
+      <c r="G29" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -10370,21 +10758,21 @@
       <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>112</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>155</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="G30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -10393,21 +10781,21 @@
       <c r="D31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>112</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>155</v>
       </c>
-      <c r="G31" t="s" s="0">
+      <c r="G31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -10416,21 +10804,21 @@
       <c r="D32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>112</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>155</v>
       </c>
-      <c r="G32" t="s" s="0">
+      <c r="G32" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -10439,18 +10827,18 @@
       <c r="D33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>112</v>
       </c>
-      <c r="F33" t="s" s="0">
+      <c r="F33" t="s">
         <v>155</v>
       </c>
-      <c r="G33" t="s" s="0">
+      <c r="G33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10469,21 +10857,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.08984375"/>
-    <col min="2" max="2" customWidth="true" style="20" width="23.54296875"/>
-    <col min="3" max="3" customWidth="true" style="20" width="13.36328125"/>
-    <col min="4" max="4" customWidth="true" style="20" width="11.81640625"/>
-    <col min="5" max="5" customWidth="true" style="12" width="34.7265625"/>
-    <col min="6" max="6" customWidth="true" style="12" width="20.54296875"/>
-    <col min="7" max="7" customWidth="true" style="12" width="24.26953125"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.08984375"/>
-    <col min="9" max="9" customWidth="true" style="12" width="14.90625"/>
-    <col min="10" max="10" customWidth="true" style="12" width="60.453125"/>
-    <col min="11" max="11" customWidth="true" style="14" width="43.7265625"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="60.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="43.7265625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="21"/>
@@ -10497,7 +10885,7 @@
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="1"/>
@@ -10508,7 +10896,7 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1"/>
@@ -10516,7 +10904,7 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1"/>

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F3F12-9728-4AD4-962C-6C2FFA90842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7FEFD-DD16-43B3-9BF0-30AD70732F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmailData" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="580">
   <si>
     <t>CardNumber</t>
   </si>
@@ -1681,12 +1681,127 @@
   </si>
   <si>
     <t>2026-01-08 13:05:41</t>
+  </si>
+  <si>
+    <t>4999992100017063</t>
+  </si>
+  <si>
+    <t>08/28</t>
+  </si>
+  <si>
+    <t>euroExhange</t>
+  </si>
+  <si>
+    <t>FAIL → Exception occurred during payment flow: Unsupported PSP: euroExhange</t>
+  </si>
+  <si>
+    <t>695f78bb320055a6bdd24248</t>
+  </si>
+  <si>
+    <t>2026-01-08 14:58:55</t>
+  </si>
+  <si>
+    <t>695f794b320055a6bdd244e2</t>
+  </si>
+  <si>
+    <t>2026-01-08 15:01:06</t>
+  </si>
+  <si>
+    <t>695f7b9d320055a6bdd252a3</t>
+  </si>
+  <si>
+    <t>2026-01-08 15:11:07</t>
+  </si>
+  <si>
+    <t>695f91a3c6bec9683d1fb552</t>
+  </si>
+  <si>
+    <t>2026-01-08 16:44:57</t>
+  </si>
+  <si>
+    <t>euroexhange</t>
+  </si>
+  <si>
+    <t>FAIL → Exception occurred during payment flow: Error communicating with the remote browser. It may have died.
+Build info: version: '4.38.0', revision: '6b412e825c*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [fe2c7866f82210df32b6c32f76ecce77, get [url]]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.171, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: C:\Users\LENOVO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65327}, goog:processID: 2416, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:65327/devtoo..., se:cdpVersion: 143.0.7499.171, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: fe2c7866f82210df32b6c32f76ecce77</t>
+  </si>
+  <si>
+    <t>695f9289c6bec9683d1fbdc4</t>
+  </si>
+  <si>
+    <t>2026-01-08 16:48:36</t>
+  </si>
+  <si>
+    <t>695f93a9c6bec9683d1fc040</t>
+  </si>
+  <si>
+    <t>2026-01-08 16:54:13</t>
+  </si>
+  <si>
+    <t>695f945bc6bec9683d1fc326</t>
+  </si>
+  <si>
+    <t>2026-01-08 16:57:10</t>
+  </si>
+  <si>
+    <t>695f94bbc6bec9683d1fc852</t>
+  </si>
+  <si>
+    <t>2026-01-08 16:58:42</t>
+  </si>
+  <si>
+    <t>695f9519c6bec9683d1fcb34</t>
+  </si>
+  <si>
+    <t>2026-01-08 17:00:22</t>
+  </si>
+  <si>
+    <t>2026-01-08 17:01:01</t>
+  </si>
+  <si>
+    <t>euroexchange</t>
+  </si>
+  <si>
+    <t>EUR VISA</t>
+  </si>
+  <si>
+    <t>695f9755c6bec9683d1fd66c</t>
+  </si>
+  <si>
+    <t>EuroExchange</t>
+  </si>
+  <si>
+    <t>2026-01-08 17:09:27</t>
+  </si>
+  <si>
+    <t>695f97a9c6bec9683d1fd909</t>
+  </si>
+  <si>
+    <t>2026-01-08 17:10:50</t>
+  </si>
+  <si>
+    <t>695f9929c6bec9683d1fe98d</t>
+  </si>
+  <si>
+    <t>2026-01-08 17:24:01</t>
+  </si>
+  <si>
+    <t>695f9bddc6bec9683d1ffb76</t>
+  </si>
+  <si>
+    <t>2026-01-08 17:28:39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -2141,33 +2256,33 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.08984375"/>
+    <col min="2" max="2" customWidth="true" width="17.453125"/>
+    <col min="3" max="3" customWidth="true" width="20.453125"/>
+    <col min="5" max="5" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C2" s="2" t="b">
@@ -2175,10 +2290,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>246</v>
       </c>
       <c r="C3" s="2" t="b">
@@ -2186,10 +2301,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>246</v>
       </c>
       <c r="C4" s="2" t="b">
@@ -2197,10 +2312,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C5" s="2" t="b">
@@ -2208,10 +2323,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>246</v>
       </c>
       <c r="C6" s="2" t="b">
@@ -2219,47 +2334,47 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2386,7 +2501,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
@@ -2394,1203 +2509,1295 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" customWidth="1"/>
-    <col min="5" max="5" width="33.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.453125"/>
+    <col min="2" max="2" customWidth="true" width="16.6328125"/>
+    <col min="3" max="3" customWidth="true" width="21.453125"/>
+    <col min="4" max="4" customWidth="true" width="35.453125"/>
+    <col min="5" max="5" customWidth="true" width="33.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="s" s="0">
         <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="s" s="0">
         <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="s" s="0">
         <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="s" s="0">
         <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="s" s="0">
         <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="0">
         <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B63" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="s" s="0">
         <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="B64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="s" s="0">
         <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B65" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="B66" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" t="s" s="0">
         <v>378</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B67" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="0">
         <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>415</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" t="s" s="0">
         <v>416</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="0">
         <v>417</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -3608,556 +3815,556 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.81640625"/>
+    <col min="2" max="2" customWidth="true" width="20.90625"/>
+    <col min="3" max="3" customWidth="true" width="23.453125"/>
+    <col min="4" max="4" customWidth="true" width="31.36328125"/>
+    <col min="5" max="5" customWidth="true" width="32.453125"/>
+    <col min="6" max="6" customWidth="true" width="22.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>268</v>
       </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>269</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>280</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>285</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="B31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>287</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>288</v>
       </c>
     </row>
@@ -4176,696 +4383,696 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="57.81640625" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.453125"/>
+    <col min="2" max="2" customWidth="true" width="21.36328125"/>
+    <col min="3" max="3" customWidth="true" width="18.36328125"/>
+    <col min="4" max="4" customWidth="true" width="57.81640625"/>
+    <col min="5" max="5" customWidth="true" width="34.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="B9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="B12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="B15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>272</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="B20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="C23" t="s">
-        <v>249</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="C24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="C25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="C26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="C28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>315</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="C29" t="s">
-        <v>246</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>317</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>319</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="C31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>321</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
-        <v>249</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="0">
         <v>330</v>
       </c>
     </row>
@@ -4877,7 +5084,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView topLeftCell="C96" workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
@@ -4885,2418 +5092,2645 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="65.36328125" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.453125"/>
+    <col min="4" max="4" customWidth="true" width="65.36328125"/>
+    <col min="5" max="5" customWidth="true" width="36.7265625"/>
+    <col min="6" max="6" customWidth="true" width="19.08984375"/>
+    <col min="7" max="7" customWidth="true" width="21.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>333</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>340</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>355</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>357</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>375</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B29" t="s">
-        <v>246</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>383</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="B30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="B31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>388</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>391</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>394</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="B34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>396</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="B35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="0">
         <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="B36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>400</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="0">
         <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="B37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="0">
         <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="B38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C38" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D38" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
-        <v>246</v>
-      </c>
-      <c r="C39" t="s">
-        <v>246</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D39" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>407</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="0">
         <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B40" t="s">
-        <v>246</v>
-      </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="0">
         <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B41" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>411</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" t="s">
-        <v>249</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D42" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B43" t="s">
-        <v>246</v>
-      </c>
-      <c r="C43" t="s">
-        <v>246</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>423</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B44" t="s">
-        <v>246</v>
-      </c>
-      <c r="C44" t="s">
-        <v>249</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D44" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>425</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" t="s">
-        <v>249</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D45" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>428</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="0">
         <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C46" t="s">
-        <v>246</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D46" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B47" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" t="s">
-        <v>246</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D47" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="s" s="0">
         <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B48" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>435</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="0">
         <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B49" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>437</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="s" s="0">
         <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="B50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>439</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="B51" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>441</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="0">
         <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="B52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>443</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" t="s" s="0">
         <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="B53" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>445</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="s" s="0">
         <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B54" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D54" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" t="s" s="0">
         <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D55" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="s" s="0">
         <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B56" t="s">
-        <v>249</v>
-      </c>
-      <c r="C56" t="s">
-        <v>249</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B56" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D56" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" t="s" s="0">
         <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B57" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" t="s">
-        <v>249</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="B57" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D57" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" t="s" s="0">
         <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D58" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" t="s" s="0">
         <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B59" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D59" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" t="s" s="0">
         <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="B60" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="B60" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D60" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="s" s="0">
         <v>453</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" t="s" s="0">
         <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="B61" t="s">
-        <v>246</v>
-      </c>
-      <c r="C61" t="s">
-        <v>249</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="B61" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D61" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>455</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" t="s" s="0">
         <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B62" t="s">
-        <v>246</v>
-      </c>
-      <c r="C62" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="B62" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="0">
         <v>457</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="s" s="0">
         <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B63" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" t="s">
-        <v>246</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B63" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D63" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" t="s" s="0">
         <v>459</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="s" s="0">
         <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B64" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="s" s="0">
         <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B65" t="s">
-        <v>249</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C65" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B66" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C66" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B67" t="s">
-        <v>249</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="0">
         <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B68" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="0">
         <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B69" t="s">
-        <v>249</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="s" s="0">
         <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B70" t="s">
-        <v>249</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" t="s" s="0">
         <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B71" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" t="s" s="0">
         <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B72" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72" t="s">
-        <v>246</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="B72" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D72" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" t="s" s="0">
         <v>469</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" t="s" s="0">
         <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B73" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" t="s">
-        <v>246</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="B73" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D73" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" t="s" s="0">
         <v>471</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" t="s" s="0">
         <v>472</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="B74" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D74" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" t="s" s="0">
         <v>473</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" t="s" s="0">
         <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C75" t="s">
-        <v>246</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="B75" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D75" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" t="s" s="0">
         <v>475</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" t="s" s="0">
         <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B76" t="s">
-        <v>246</v>
-      </c>
-      <c r="C76" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="B76" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D76" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" t="s" s="0">
         <v>477</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" t="s" s="0">
         <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B77" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="B77" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D77" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="0">
         <v>479</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" t="s" s="0">
         <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B78" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" t="s">
-        <v>249</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="B78" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D78" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" t="s" s="0">
         <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B79" t="s">
-        <v>249</v>
-      </c>
-      <c r="C79" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D79" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" t="s" s="0">
         <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B80" t="s">
-        <v>246</v>
-      </c>
-      <c r="C80" t="s">
-        <v>246</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="B80" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D80" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" t="s" s="0">
         <v>483</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" t="s" s="0">
         <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B81" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="B81" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D81" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" t="s" s="0">
         <v>485</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" t="s" s="0">
         <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B82" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="B82" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D82" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" t="s" s="0">
         <v>487</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" t="s" s="0">
         <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B83" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="B83" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D83" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" t="s" s="0">
         <v>489</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" t="s" s="0">
         <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B84" t="s">
-        <v>249</v>
-      </c>
-      <c r="C84" t="s">
-        <v>246</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D84" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" t="s" s="0">
         <v>491</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s" s="0">
         <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B85" t="s">
-        <v>249</v>
-      </c>
-      <c r="C85" t="s">
-        <v>246</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="B85" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D85" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" t="s" s="0">
         <v>493</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" t="s" s="0">
         <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B86" t="s">
-        <v>249</v>
-      </c>
-      <c r="C86" t="s">
-        <v>246</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="B86" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D86" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" t="s" s="0">
         <v>495</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" t="s" s="0">
         <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B87" t="s">
-        <v>249</v>
-      </c>
-      <c r="C87" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="B87" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D87" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" t="s" s="0">
         <v>497</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" t="s" s="0">
         <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B88" t="s">
-        <v>249</v>
-      </c>
-      <c r="C88" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="B88" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D88" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" t="s" s="0">
         <v>499</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" t="s" s="0">
         <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B89" t="s">
-        <v>249</v>
-      </c>
-      <c r="C89" t="s">
-        <v>246</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="B89" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D89" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" t="s" s="0">
         <v>501</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" t="s" s="0">
         <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="B90" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" t="s">
-        <v>246</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="B90" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D90" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" t="s" s="0">
         <v>503</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" t="s" s="0">
         <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="B91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" t="s">
-        <v>246</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="B91" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D91" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" t="s" s="0">
         <v>505</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" t="s" s="0">
         <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B92" t="s">
-        <v>249</v>
-      </c>
-      <c r="C92" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="B92" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s" s="0">
         <v>507</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" t="s" s="0">
         <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C93" t="s">
-        <v>246</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="B93" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D93" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" t="s" s="0">
         <v>509</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" t="s" s="0">
         <v>510</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C94" t="s">
-        <v>246</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="B94" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D94" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" t="s" s="0">
         <v>511</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" t="s" s="0">
         <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B95" t="s">
-        <v>246</v>
-      </c>
-      <c r="C95" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="B95" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D95" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" t="s" s="0">
         <v>513</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" t="s" s="0">
         <v>514</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B96" t="s">
-        <v>246</v>
-      </c>
-      <c r="C96" t="s">
-        <v>246</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="B96" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D96" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" t="s" s="0">
         <v>515</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" t="s" s="0">
         <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B97" t="s">
-        <v>246</v>
-      </c>
-      <c r="C97" t="s">
-        <v>246</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="B97" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D97" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" t="s" s="0">
         <v>517</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" t="s" s="0">
         <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B98" t="s">
-        <v>246</v>
-      </c>
-      <c r="C98" t="s">
-        <v>246</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="B98" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D98" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" t="s" s="0">
         <v>519</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" t="s" s="0">
         <v>520</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B99" t="s">
-        <v>246</v>
-      </c>
-      <c r="C99" t="s">
-        <v>246</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="B99" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D99" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" t="s" s="0">
         <v>521</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" t="s" s="0">
         <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B100" t="s">
-        <v>246</v>
-      </c>
-      <c r="C100" t="s">
-        <v>246</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="B100" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D100" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" t="s" s="0">
         <v>523</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" t="s" s="0">
         <v>524</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B101" t="s">
-        <v>246</v>
-      </c>
-      <c r="C101" t="s">
-        <v>246</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="B101" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D101" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" t="s" s="0">
         <v>525</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" t="s" s="0">
         <v>526</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C102" t="s">
-        <v>246</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="B102" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D102" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" t="s" s="0">
         <v>528</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" t="s" s="0">
         <v>529</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B103" t="s">
-        <v>246</v>
-      </c>
-      <c r="C103" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="B103" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D103" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" t="s" s="0">
         <v>530</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" t="s" s="0">
         <v>531</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B104" t="s">
-        <v>246</v>
-      </c>
-      <c r="C104" t="s">
-        <v>246</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="B104" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D104" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" t="s" s="0">
         <v>532</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" t="s" s="0">
         <v>533</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B105" t="s">
-        <v>249</v>
-      </c>
-      <c r="C105" t="s">
-        <v>38</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="B105" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s" s="0">
         <v>534</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" t="s" s="0">
         <v>535</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B106" t="s">
-        <v>249</v>
-      </c>
-      <c r="C106" t="s">
-        <v>38</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="B106" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s" s="0">
         <v>534</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" t="s" s="0">
         <v>536</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B107" t="s">
-        <v>249</v>
-      </c>
-      <c r="C107" t="s">
-        <v>249</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="B107" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D107" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" t="s" s="0">
         <v>537</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" t="s" s="0">
         <v>538</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B108" t="s">
-        <v>249</v>
-      </c>
-      <c r="C108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="B108" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D108" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" t="s" s="0">
         <v>539</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" t="s" s="0">
         <v>540</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B109" t="s">
-        <v>249</v>
-      </c>
-      <c r="C109" t="s">
-        <v>38</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="B109" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s" s="0">
         <v>541</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" t="s" s="0">
         <v>542</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B110" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" t="s">
-        <v>38</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="B110" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D110" t="s" s="0">
         <v>541</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" t="s" s="0">
         <v>543</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="G113" t="s" s="0">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="F114" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="G114" t="s" s="0">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="F115" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="G115" t="s" s="0">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="F116" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="G116" t="s" s="0">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="F117" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="G117" t="s" s="0">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="F118" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="G118" t="s" s="0">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="F119" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="G119" t="s" s="0">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="F120" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="G120" t="s" s="0">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -7308,42 +7742,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95DD057-E530-49CE-8A96-15C01556F9C0}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="5" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.453125"/>
+    <col min="2" max="2" customWidth="true" width="32.1796875"/>
+    <col min="3" max="3" customWidth="true" width="20.453125"/>
+    <col min="5" max="7" customWidth="true" width="19.26953125"/>
+    <col min="8" max="8" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>25</v>
       </c>
     </row>
@@ -7360,21 +7794,21 @@
       <c r="D2" s="3">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>362</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" t="b" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>26</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -7383,24 +7817,24 @@
       <c r="C3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>268</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
+      <c r="H3" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>418</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7412,22 +7846,44 @@
       <c r="D4" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>362</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>422</v>
       </c>
-      <c r="H4" t="b">
+      <c r="H4" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" s="0">
+        <v>870</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="H5" t="b" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="1"/>
@@ -7617,11 +8073,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="4"/>
+    <col min="1" max="1" customWidth="true" style="14" width="15.6328125"/>
+    <col min="2" max="2" customWidth="true" style="14" width="17.81640625"/>
+    <col min="3" max="3" customWidth="true" style="14" width="20.6328125"/>
+    <col min="4" max="4" customWidth="true" style="4" width="11.90625"/>
+    <col min="5" max="5" style="4" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7698,12 +8154,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.453125"/>
+    <col min="2" max="2" customWidth="true" width="17.0"/>
+    <col min="3" max="3" customWidth="true" width="18.90625"/>
+    <col min="4" max="4" customWidth="true" width="17.54296875"/>
+    <col min="5" max="5" customWidth="true" width="14.08984375"/>
+    <col min="7" max="7" customWidth="true" width="13.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7718,7 +8174,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -7732,10 +8188,10 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C3" s="1" t="b">
@@ -7745,10 +8201,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C4" s="1" t="b">
@@ -7758,10 +8214,10 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>246</v>
       </c>
       <c r="C5" s="1" t="b">
@@ -7771,10 +8227,10 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C6" s="1" t="b">
@@ -7785,10 +8241,10 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C7" s="1" t="b">
@@ -7799,10 +8255,10 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>249</v>
       </c>
       <c r="C8" s="1" t="b">
@@ -7813,10 +8269,10 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>246</v>
       </c>
       <c r="C9" s="1" t="b">
@@ -7847,12 +8303,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.453125"/>
+    <col min="2" max="2" customWidth="true" width="28.7265625"/>
+    <col min="3" max="3" customWidth="true" width="29.0"/>
+    <col min="4" max="4" customWidth="true" width="19.1796875"/>
+    <col min="5" max="5" customWidth="true" width="15.453125"/>
+    <col min="7" max="7" customWidth="true" width="12.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7867,61 +8323,61 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" t="b">
+      <c r="B2" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C2" t="b" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" t="b">
+      <c r="B3" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C3" t="b" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" t="b">
+      <c r="B4" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C4" t="b" s="0">
         <v>0</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" t="b">
+      <c r="B5" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C5" t="b" s="0">
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" t="b">
+      <c r="B6" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C6" t="b" s="0">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
@@ -7990,16 +8446,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7063156-6C08-4131-917F-AB54D3A5925A}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="20" width="17.453125"/>
+    <col min="2" max="2" customWidth="true" style="20" width="19.1796875"/>
+    <col min="3" max="3" customWidth="true" style="20" width="17.453125"/>
+    <col min="4" max="4" customWidth="true" width="14.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8198,12 +8654,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" style="4" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" customWidth="true" width="24.1796875"/>
+    <col min="4" max="4" customWidth="true" width="10.453125"/>
+    <col min="5" max="5" customWidth="true" width="14.08984375"/>
+    <col min="6" max="6" customWidth="true" width="17.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8446,11 +8902,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="24.36328125"/>
+    <col min="3" max="3" customWidth="true" width="21.453125"/>
+    <col min="4" max="4" customWidth="true" width="19.90625"/>
+    <col min="5" max="5" customWidth="true" width="13.36328125"/>
+    <col min="6" max="6" customWidth="true" width="20.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8549,11 +9005,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="17.26953125"/>
+    <col min="4" max="4" customWidth="true" width="23.81640625"/>
+    <col min="5" max="5" customWidth="true" width="15.453125"/>
+    <col min="6" max="6" customWidth="true" width="12.81640625"/>
+    <col min="7" max="7" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="590">
   <si>
     <t>CardNumber</t>
   </si>
@@ -1795,6 +1795,36 @@
   </si>
   <si>
     <t>2026-01-08 17:28:39</t>
+  </si>
+  <si>
+    <t>696098d65a39512d3851e8fa</t>
+  </si>
+  <si>
+    <t>2026-01-09 11:28:04</t>
+  </si>
+  <si>
+    <t>69609a8b5a39512d3851f524</t>
+  </si>
+  <si>
+    <t>2026-01-09 11:36:14</t>
+  </si>
+  <si>
+    <t>69609d8c5a39512d3852120d</t>
+  </si>
+  <si>
+    <t>2026-01-09 11:48:44</t>
+  </si>
+  <si>
+    <t>6960a5355a39512d385240db</t>
+  </si>
+  <si>
+    <t>2026-01-09 12:20:43</t>
+  </si>
+  <si>
+    <t>6960a6aa5a39512d38524d03</t>
+  </si>
+  <si>
+    <t>2026-01-09 12:26:58</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
@@ -3798,6 +3828,75 @@
       </c>
       <c r="G72" t="s" s="0">
         <v>579</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -5084,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView topLeftCell="C96" workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
@@ -7731,6 +7830,52 @@
       </c>
       <c r="G120" t="s" s="0">
         <v>568</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="F121" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="G121" t="s" s="0">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="F122" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="G122" t="s" s="0">
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\git\Integration\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="488">
   <si>
     <t>CardHolder</t>
   </si>
@@ -1511,12 +1511,19 @@
   </si>
   <si>
     <t>2026-01-07 15:44:01</t>
+  </si>
+  <si>
+    <t>696098565a39512d3851e377</t>
+  </si>
+  <si>
+    <t>2026-01-09 11:25:53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -2039,28 +2046,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.08984375"/>
+    <col min="2" max="2" customWidth="true" width="17.453125"/>
+    <col min="3" max="3" customWidth="true" width="20.453125"/>
+    <col min="5" max="5" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C2" s="2" t="b">
@@ -2068,10 +2075,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>349</v>
       </c>
       <c r="C3" s="2" t="b">
@@ -2079,10 +2086,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>349</v>
       </c>
       <c r="C4" s="2" t="b">
@@ -2090,10 +2097,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C5" s="2" t="b">
@@ -2101,10 +2108,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>349</v>
       </c>
       <c r="C6" s="2" t="b">
@@ -2112,10 +2119,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C7" s="2" t="b">
@@ -2123,10 +2130,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C8" s="2" t="b">
@@ -2134,10 +2141,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C9" s="2" t="b">
@@ -2145,10 +2152,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C10" s="2" t="b">
@@ -2287,39 +2294,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="41.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="41.6328125"/>
+    <col min="2" max="2" customWidth="true" width="20.0"/>
+    <col min="3" max="3" customWidth="true" width="17.90625"/>
+    <col min="4" max="4" customWidth="true" width="15.0"/>
+    <col min="5" max="5" customWidth="true" width="16.08984375"/>
+    <col min="6" max="6" customWidth="true" width="15.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2334,18 +2341,18 @@
       <c r="E2" s="3">
         <v>440</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2354,21 +2361,21 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2377,21 +2384,21 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2400,21 +2407,21 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2423,18 +2430,18 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>440</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2449,18 +2456,18 @@
       <c r="E7" s="3">
         <v>440</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2469,21 +2476,21 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>440</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2492,21 +2499,21 @@
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>440</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2515,21 +2522,21 @@
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>440</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2538,18 +2545,18 @@
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>440</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2561,21 +2568,21 @@
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>111</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2584,21 +2591,21 @@
       <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>111</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2607,21 +2614,21 @@
       <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>111</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2630,18 +2637,18 @@
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>111</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2653,21 +2660,21 @@
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>111</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2676,21 +2683,21 @@
       <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>111</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2699,21 +2706,21 @@
       <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>111</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2722,18 +2729,18 @@
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>111</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>63</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2745,21 +2752,21 @@
       <c r="D20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>111</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2768,21 +2775,21 @@
       <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2791,21 +2798,21 @@
       <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>111</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2814,21 +2821,21 @@
       <c r="D23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>112</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2837,21 +2844,21 @@
       <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>112</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2860,21 +2867,21 @@
       <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>112</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2883,21 +2890,21 @@
       <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>112</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2906,21 +2913,21 @@
       <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>112</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2929,21 +2936,21 @@
       <c r="D28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>112</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2952,21 +2959,21 @@
       <c r="D29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>112</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -2975,21 +2982,21 @@
       <c r="D30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>112</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2998,21 +3005,21 @@
       <c r="D31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>112</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3021,21 +3028,21 @@
       <c r="D32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>112</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3044,18 +3051,18 @@
       <c r="D33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>112</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>14</v>
       </c>
     </row>
@@ -3074,21 +3081,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.453125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="43.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.08984375"/>
+    <col min="2" max="2" customWidth="true" style="18" width="23.54296875"/>
+    <col min="3" max="3" customWidth="true" style="18" width="13.36328125"/>
+    <col min="4" max="4" customWidth="true" style="18" width="11.81640625"/>
+    <col min="5" max="5" customWidth="true" style="10" width="34.7265625"/>
+    <col min="6" max="6" customWidth="true" style="10" width="20.54296875"/>
+    <col min="7" max="7" customWidth="true" style="10" width="24.26953125"/>
+    <col min="8" max="8" customWidth="true" style="10" width="13.08984375"/>
+    <col min="9" max="9" customWidth="true" style="10" width="14.90625"/>
+    <col min="10" max="10" customWidth="true" style="10" width="60.453125"/>
+    <col min="11" max="11" customWidth="true" style="12" width="43.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B1" s="19"/>
@@ -3102,7 +3109,7 @@
       <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>118</v>
       </c>
       <c r="C2" s="1"/>
@@ -3113,7 +3120,7 @@
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" s="1"/>
@@ -3121,7 +3128,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C4" s="1"/>
@@ -3229,14 +3236,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="58.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.6328125"/>
+    <col min="2" max="2" customWidth="true" width="20.08984375"/>
+    <col min="5" max="5" customWidth="true" width="19.36328125"/>
+    <col min="6" max="6" customWidth="true" width="14.81640625"/>
+    <col min="7" max="7" customWidth="true" width="13.1796875"/>
+    <col min="8" max="8" customWidth="true" width="14.90625"/>
+    <col min="9" max="9" customWidth="true" width="14.36328125"/>
+    <col min="10" max="10" customWidth="true" width="58.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4396,11 +4403,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="17.26953125"/>
+    <col min="4" max="4" customWidth="true" width="23.81640625"/>
+    <col min="5" max="5" customWidth="true" width="15.453125"/>
+    <col min="6" max="6" customWidth="true" width="12.81640625"/>
+    <col min="7" max="7" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -4425,10 +4432,10 @@
       <c r="G2" s="3">
         <v>440</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -4454,10 +4461,10 @@
       <c r="G3" s="3">
         <v>440</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -4483,10 +4490,10 @@
       <c r="G4" s="3">
         <v>440</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -4512,10 +4519,10 @@
       <c r="G5" s="3">
         <v>440</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -4541,10 +4548,10 @@
       <c r="G6" s="3">
         <v>440</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -4561,15 +4568,15 @@
       <c r="G7" s="3">
         <v>440</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -4584,15 +4591,15 @@
       <c r="G8" s="3">
         <v>440</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -4607,15 +4614,15 @@
       <c r="G9" s="3">
         <v>440</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>176</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -4630,10 +4637,10 @@
       <c r="G10" s="3">
         <v>440</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -4646,7 +4653,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
@@ -4654,1182 +4661,1205 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" customWidth="1"/>
-    <col min="5" max="5" width="33.1796875" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.453125"/>
+    <col min="2" max="2" customWidth="true" width="16.6328125"/>
+    <col min="3" max="3" customWidth="true" width="21.453125"/>
+    <col min="4" max="4" customWidth="true" width="35.453125"/>
+    <col min="5" max="5" customWidth="true" width="33.1796875"/>
+    <col min="6" max="6" customWidth="true" width="20.81640625"/>
+    <col min="7" max="7" customWidth="true" width="21.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>273</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>273</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="s" s="0">
         <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>285</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>287</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="0">
         <v>291</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="s" s="0">
         <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="s" s="0">
         <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>273</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>299</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="s" s="0">
         <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="s" s="0">
         <v>307</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="s" s="0">
         <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="s" s="0">
         <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="0">
         <v>333</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="0">
         <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>392</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="s" s="0">
         <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>392</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" t="s" s="0">
         <v>395</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="s" s="0">
         <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>397</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>481</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" t="s" s="0">
         <v>482</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>481</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" t="s" s="0">
         <v>484</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="0">
         <v>485</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -5847,556 +5877,556 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.81640625"/>
+    <col min="2" max="2" customWidth="true" width="20.90625"/>
+    <col min="3" max="3" customWidth="true" width="23.453125"/>
+    <col min="4" max="4" customWidth="true" width="31.36328125"/>
+    <col min="5" max="5" customWidth="true" width="32.453125"/>
+    <col min="6" max="6" customWidth="true" width="22.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>247</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>263</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>265</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>267</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>269</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>271</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>315</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>317</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>319</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>321</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>371</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>372</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>383</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>386</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>388</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>391</v>
       </c>
     </row>
@@ -6415,696 +6445,696 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="57.81640625" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.453125"/>
+    <col min="2" max="2" customWidth="true" width="21.36328125"/>
+    <col min="3" max="3" customWidth="true" width="18.36328125"/>
+    <col min="4" max="4" customWidth="true" width="57.81640625"/>
+    <col min="5" max="5" customWidth="true" width="34.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>335</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>337</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>340</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>342</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>350</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>356</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>357</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>375</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>379</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>411</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>415</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>419</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>421</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>423</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>425</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>429</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="0">
         <v>434</v>
       </c>
     </row>
@@ -7124,595 +7154,595 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="47.453125" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="47.453125"/>
+    <col min="5" max="5" customWidth="true" width="36.7265625"/>
+    <col min="6" max="6" customWidth="true" width="19.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>335</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>437</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>438</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>440</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>442</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>444</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>438</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>440</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>442</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>449</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>457</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>459</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>461</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>463</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>469</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>429</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>429</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>479</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>480</v>
       </c>
     </row>
@@ -7731,36 +7761,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="5" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.453125"/>
+    <col min="2" max="2" customWidth="true" width="32.1796875"/>
+    <col min="3" max="3" customWidth="true" width="20.453125"/>
+    <col min="5" max="7" customWidth="true" width="19.26953125"/>
+    <col min="8" max="8" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>403</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>465</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>51</v>
       </c>
     </row>
@@ -7777,21 +7807,21 @@
       <c r="D2" s="3">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>466</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" t="b" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>55</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -7800,19 +7830,19 @@
       <c r="C3" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>371</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="H3" t="b">
+      <c r="H3" t="b" s="0">
         <v>1</v>
       </c>
     </row>
@@ -12783,11 +12813,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="4"/>
+    <col min="1" max="1" customWidth="true" style="25" width="15.6328125"/>
+    <col min="2" max="2" customWidth="true" style="25" width="17.81640625"/>
+    <col min="3" max="3" customWidth="true" style="25" width="20.6328125"/>
+    <col min="4" max="4" customWidth="true" style="4" width="11.90625"/>
+    <col min="5" max="5" style="4" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12864,12 +12894,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.453125"/>
+    <col min="2" max="2" customWidth="true" width="17.0"/>
+    <col min="3" max="3" customWidth="true" width="18.90625"/>
+    <col min="4" max="4" customWidth="true" width="17.54296875"/>
+    <col min="5" max="5" customWidth="true" width="14.08984375"/>
+    <col min="7" max="7" customWidth="true" width="13.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12884,7 +12914,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -12898,10 +12928,10 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C3" s="1" t="b">
@@ -12911,10 +12941,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C4" s="1" t="b">
@@ -12924,10 +12954,10 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>349</v>
       </c>
       <c r="C5" s="1" t="b">
@@ -12937,10 +12967,10 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C6" s="1" t="b">
@@ -12951,10 +12981,10 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C7" s="1" t="b">
@@ -12965,10 +12995,10 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>352</v>
       </c>
       <c r="C8" s="1" t="b">
@@ -12979,10 +13009,10 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>349</v>
       </c>
       <c r="C9" s="1" t="b">
@@ -13017,39 +13047,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.453125"/>
+    <col min="2" max="2" customWidth="true" width="28.7265625"/>
+    <col min="3" max="3" customWidth="true" width="29.0"/>
+    <col min="4" max="4" customWidth="true" width="19.1796875"/>
+    <col min="5" max="5" customWidth="true" width="15.453125"/>
+    <col min="7" max="7" customWidth="true" width="12.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -13064,18 +13094,18 @@
       <c r="E2" s="3">
         <v>440</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -13084,21 +13114,21 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -13107,21 +13137,21 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -13130,21 +13160,21 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -13159,15 +13189,15 @@
       <c r="F6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -13182,15 +13212,15 @@
       <c r="F7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -13205,15 +13235,15 @@
       <c r="F8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -13228,15 +13258,15 @@
       <c r="F9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>134</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -13251,15 +13281,15 @@
       <c r="F10" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>134</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -13274,15 +13304,15 @@
       <c r="F11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>134</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -13297,15 +13327,15 @@
       <c r="F12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>134</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -13320,15 +13350,15 @@
       <c r="F13" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>134</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -13343,7 +13373,7 @@
       <c r="F14" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>133</v>
       </c>
     </row>
@@ -13363,32 +13393,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="17.453125"/>
+    <col min="2" max="2" customWidth="true" width="19.1796875"/>
+    <col min="3" max="3" customWidth="true" width="17.453125"/>
+    <col min="4" max="4" customWidth="true" width="14.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>126</v>
       </c>
     </row>
@@ -13408,10 +13438,10 @@
       <c r="E2" s="3">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>128</v>
       </c>
     </row>
@@ -13431,10 +13461,10 @@
       <c r="E3" s="3">
         <v>123</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>128</v>
       </c>
     </row>
@@ -13454,10 +13484,10 @@
       <c r="E4" s="3">
         <v>123</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>128</v>
       </c>
     </row>
@@ -13477,10 +13507,10 @@
       <c r="E5" s="3">
         <v>123</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>128</v>
       </c>
     </row>
@@ -13500,10 +13530,10 @@
       <c r="E6" s="3">
         <v>123</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>128</v>
       </c>
     </row>
@@ -13523,10 +13553,10 @@
       <c r="E7" s="3">
         <v>123</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>128</v>
       </c>
     </row>
@@ -13546,10 +13576,10 @@
       <c r="E8" s="3">
         <v>123</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>128</v>
       </c>
     </row>
@@ -13569,10 +13599,10 @@
       <c r="E9" s="3">
         <v>123</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>128</v>
       </c>
     </row>
@@ -13595,7 +13625,7 @@
       <c r="F10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>126</v>
       </c>
     </row>
@@ -13618,7 +13648,7 @@
       <c r="F11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13641,7 +13671,7 @@
       <c r="F12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13664,7 +13694,7 @@
       <c r="F13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13687,7 +13717,7 @@
       <c r="F14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13710,7 +13740,7 @@
       <c r="F15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13733,7 +13763,7 @@
       <c r="F16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13756,7 +13786,7 @@
       <c r="F17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13779,34 +13809,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" style="4" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" customWidth="true" width="24.1796875"/>
+    <col min="4" max="4" customWidth="true" width="10.453125"/>
+    <col min="5" max="5" customWidth="true" width="14.08984375"/>
+    <col min="6" max="6" customWidth="true" width="17.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>126</v>
       </c>
     </row>
@@ -13829,7 +13859,7 @@
       <c r="F2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13837,7 +13867,7 @@
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -13846,13 +13876,13 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13860,7 +13890,7 @@
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -13869,13 +13899,13 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13883,7 +13913,7 @@
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -13892,13 +13922,13 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13921,7 +13951,7 @@
       <c r="F6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13929,7 +13959,7 @@
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -13938,13 +13968,13 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>440</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13952,7 +13982,7 @@
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -13961,13 +13991,13 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>440</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -13975,7 +14005,7 @@
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -13984,13 +14014,13 @@
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>440</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14013,7 +14043,7 @@
       <c r="F10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14021,7 +14051,7 @@
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -14030,13 +14060,13 @@
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>440</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14044,7 +14074,7 @@
       <c r="A12" s="4">
         <v>123</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -14053,13 +14083,13 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>440</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14067,7 +14097,7 @@
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -14076,13 +14106,13 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>440</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14105,7 +14135,7 @@
       <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14113,7 +14143,7 @@
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -14122,13 +14152,13 @@
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>440</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14136,7 +14166,7 @@
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -14145,13 +14175,13 @@
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>440</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14159,7 +14189,7 @@
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -14168,13 +14198,13 @@
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>440</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14182,7 +14212,7 @@
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -14191,13 +14221,13 @@
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>440</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14205,7 +14235,7 @@
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -14214,13 +14244,13 @@
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>111</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14228,7 +14258,7 @@
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -14237,13 +14267,13 @@
       <c r="D20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>111</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14251,7 +14281,7 @@
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -14260,13 +14290,13 @@
       <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14274,7 +14304,7 @@
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -14283,13 +14313,13 @@
       <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>111</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14297,7 +14327,7 @@
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -14306,13 +14336,13 @@
       <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>111</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14320,7 +14350,7 @@
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -14329,13 +14359,13 @@
       <c r="D24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>111</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14343,7 +14373,7 @@
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -14352,13 +14382,13 @@
       <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>111</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14366,7 +14396,7 @@
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -14375,13 +14405,13 @@
       <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>111</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14389,7 +14419,7 @@
       <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -14398,13 +14428,13 @@
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>111</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14412,7 +14442,7 @@
       <c r="A28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -14421,13 +14451,13 @@
       <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>111</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14435,7 +14465,7 @@
       <c r="A29" s="4">
         <v>123</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -14444,13 +14474,13 @@
       <c r="D29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>111</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14458,7 +14488,7 @@
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -14467,13 +14497,13 @@
       <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>111</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14481,7 +14511,7 @@
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -14490,13 +14520,13 @@
       <c r="D31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>111</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14504,7 +14534,7 @@
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -14513,13 +14543,13 @@
       <c r="D32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>111</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14527,7 +14557,7 @@
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -14536,13 +14566,13 @@
       <c r="D33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>111</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14550,7 +14580,7 @@
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -14559,13 +14589,13 @@
       <c r="D34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>111</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14573,7 +14603,7 @@
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -14582,13 +14612,13 @@
       <c r="D35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>111</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -14620,38 +14650,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="24.36328125"/>
+    <col min="3" max="3" customWidth="true" width="21.453125"/>
+    <col min="4" max="4" customWidth="true" width="19.90625"/>
+    <col min="5" max="5" customWidth="true" width="13.36328125"/>
+    <col min="6" max="6" customWidth="true" width="20.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -14666,18 +14696,18 @@
       <c r="E2" s="3">
         <v>440</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -14686,21 +14716,21 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>440</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -14709,21 +14739,21 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>440</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -14732,18 +14762,18 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>440</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -14755,21 +14785,21 @@
       <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>111</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -14778,21 +14808,21 @@
       <c r="D7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -14801,21 +14831,21 @@
       <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>111</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -14824,13 +14854,13 @@
       <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>111</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>127</v>
       </c>
     </row>

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7FEFD-DD16-43B3-9BF0-30AD70732F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7770E359-6076-47EE-B029-6203A431515D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmailData" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="598">
   <si>
     <t>CardNumber</t>
   </si>
@@ -1826,13 +1826,37 @@
   <si>
     <t>2026-01-09 12:26:58</t>
   </si>
+  <si>
+    <t>6960ba0d5a39512d3852d239</t>
+  </si>
+  <si>
+    <t>2026-01-09 13:49:37</t>
+  </si>
+  <si>
+    <t>INR Master</t>
+  </si>
+  <si>
+    <t>6965deafdaf29e91e691d0fa</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>2026-01-13 11:27:29</t>
+  </si>
+  <si>
+    <t>6965df1bdaf29e91e691d414</t>
+  </si>
+  <si>
+    <t>2026-01-13 11:29:17</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1897,13 +1921,67 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1918,7 +1996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1981,6 +2059,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2286,7 +2382,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2531,7 +2627,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
@@ -3738,7 +3834,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7">
       <c r="A69" t="s" s="0">
         <v>570</v>
       </c>
@@ -3761,7 +3857,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7">
       <c r="A70" t="s" s="0">
         <v>570</v>
       </c>
@@ -3784,7 +3880,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7">
       <c r="A71" t="s" s="0">
         <v>377</v>
       </c>
@@ -3807,7 +3903,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7">
       <c r="A72" t="s" s="0">
         <v>377</v>
       </c>
@@ -3830,7 +3926,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7">
       <c r="A73" t="s" s="0">
         <v>377</v>
       </c>
@@ -3853,7 +3949,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7">
       <c r="A74" t="s" s="0">
         <v>377</v>
       </c>
@@ -3876,7 +3972,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7">
       <c r="A75" t="s" s="0">
         <v>377</v>
       </c>
@@ -3897,6 +3993,81 @@
       </c>
       <c r="G75" t="s" s="0">
         <v>589</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -5185,14 +5356,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="C96" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="23.453125"/>
-    <col min="4" max="4" customWidth="true" width="65.36328125"/>
+    <col min="4" max="4" customWidth="true" width="72.26953125"/>
     <col min="5" max="5" customWidth="true" width="36.7265625"/>
     <col min="6" max="6" customWidth="true" width="19.08984375"/>
     <col min="7" max="7" customWidth="true" width="21.54296875"/>
@@ -7832,7 +8003,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7">
       <c r="A121" t="s" s="0">
         <v>6</v>
       </c>
@@ -7855,7 +8026,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7">
       <c r="A122" t="s" s="0">
         <v>6</v>
       </c>
@@ -7887,8 +8058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95DD057-E530-49CE-8A96-15C01556F9C0}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\git\Integration\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA7FEFD-DD16-43B3-9BF0-30AD70732F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299EF638-011F-4F8B-AFA5-67BD485AC26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmailData" sheetId="1" r:id="rId1"/>
@@ -30,26 +30,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EmailData!$A$1:$C$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PSPCards!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Purchase_Result!$A$1:$G$160</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="658">
   <si>
     <t>CardNumber</t>
   </si>
@@ -1764,9 +1752,6 @@
     <t>2026-01-08 17:01:01</t>
   </si>
   <si>
-    <t>euroexchange</t>
-  </si>
-  <si>
     <t>EUR VISA</t>
   </si>
   <si>
@@ -1795,14 +1780,272 @@
   </si>
   <si>
     <t>2026-01-08 17:28:39</t>
+  </si>
+  <si>
+    <t>Madika sharma</t>
+  </si>
+  <si>
+    <t>5099993000077203</t>
+  </si>
+  <si>
+    <t>Euroexchange</t>
+  </si>
+  <si>
+    <t>69649639963d571437984839</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:06:43</t>
+  </si>
+  <si>
+    <t>696496b8963d571437984f92</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:08:45</t>
+  </si>
+  <si>
+    <t>6964971e963d571437985667</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:10:35</t>
+  </si>
+  <si>
+    <t>69649527963d571437984386</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:10:50</t>
+  </si>
+  <si>
+    <t>69649787963d571437985927</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:12:19</t>
+  </si>
+  <si>
+    <t>6964979f963d571437985b40</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:12:36</t>
+  </si>
+  <si>
+    <t>6964963c963d571437984842</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:15:33</t>
+  </si>
+  <si>
+    <t>696498ad963d571437986047</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:17:05</t>
+  </si>
+  <si>
+    <t>69649910963d5714379862a2</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:19:45</t>
+  </si>
+  <si>
+    <t>696499c1963d57143798656f</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:21:52</t>
+  </si>
+  <si>
+    <t>696497dc963d571437985db5</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:22:43</t>
+  </si>
+  <si>
+    <t>69649a28963d571437986be1</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:23:29</t>
+  </si>
+  <si>
+    <t>69649a71963d571437986e81</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:24:48</t>
+  </si>
+  <si>
+    <t>69649ab0963d5714379872cf</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:25:38</t>
+  </si>
+  <si>
+    <t>69649b88963d57143798797f</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:29:17</t>
+  </si>
+  <si>
+    <t>69649c01963d571437987c26</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:31:20</t>
+  </si>
+  <si>
+    <t>PASS → Payment failed as expected</t>
+  </si>
+  <si>
+    <t>69649afc963d57143798751d</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:35:57</t>
+  </si>
+  <si>
+    <t>69649d82963d571437988270</t>
+  </si>
+  <si>
+    <t>2026-01-12 12:37:54</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>6964c9ea963d5714379945c9</t>
+  </si>
+  <si>
+    <t>2026-01-12 15:46:42</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:51:23</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:51:45</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:52:11</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:52:37</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:53:03</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:53:24</t>
+  </si>
+  <si>
+    <t>6964d9c2963d57143799859e</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:54:43</t>
+  </si>
+  <si>
+    <t>6964da29963d571437998b6d</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:56:24</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:57:18</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:57:46</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:58:14</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:58:31</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:58:57</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:59:22</t>
+  </si>
+  <si>
+    <t>6964db29963d571437998e59</t>
+  </si>
+  <si>
+    <t>2026-01-12 17:00:43</t>
+  </si>
+  <si>
+    <t>6964db86963d571437999406</t>
+  </si>
+  <si>
+    <t>2026-01-12 17:02:22</t>
+  </si>
+  <si>
+    <t>FAIL → Exception occurred during payment flow: invalid session id
+Build info: version: '4.38.0', revision: '6b412e825c*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [cc8d6bcf19cd1e6a42b0d738e240a4d9, getCurrentUrl {}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.170, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: C:\Users\LENOVO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63268}, goog:processID: 147732, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63268/devtoo..., se:cdpVersion: 143.0.7499.170, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cc8d6bcf19cd1e6a42b0d738e240a4d9</t>
+  </si>
+  <si>
+    <t>6964dda0963d571437999cc0</t>
+  </si>
+  <si>
+    <t>2026-01-12 17:15:51</t>
+  </si>
+  <si>
+    <t>FAIL → Exception occurred during payment flow: Expected condition failed: waiting for url to contain "issucces". Current url: "https://test4.paymentsclub.net/customerverification.jsp" (tried for 15 second(s) with 500 milliseconds interval)
+Build info: version: '4.38.0', revision: '6b412e825c*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.170, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: C:\Users\LENOVO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50662}, goog:processID: 164076, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50662/devtoo..., se:cdpVersion: 143.0.7499.170, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c5d8d4ebfb9eb342fb5d12ee57ce97c1</t>
+  </si>
+  <si>
+    <t>6964df04963d57143799a69a</t>
+  </si>
+  <si>
+    <t>2026-01-12 17:26:12</t>
+  </si>
+  <si>
+    <t>6964e5fc963d57143799ca79</t>
+  </si>
+  <si>
+    <t>2026-01-12 17:46:59</t>
+  </si>
+  <si>
+    <t>FAIL → Exception occurred during payment flow: java.util.concurrent.TimeoutException
+Build info: version: '4.38.0', revision: '6b412e825c*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [31dc3e4d2c20d0f4b4606787e2cb1f1b, getCurrentUrl {}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.170, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: C:\Users\LENOVO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54521}, goog:processID: 170660, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:54521/devtoo..., se:cdpVersion: 143.0.7499.170, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 31dc3e4d2c20d0f4b4606787e2cb1f1b</t>
+  </si>
+  <si>
+    <t>6964dffb963d57143799a8b7</t>
+  </si>
+  <si>
+    <t>2026-01-12 17:48:20</t>
+  </si>
+  <si>
+    <t>6964e795963d57143799e49b</t>
+  </si>
+  <si>
+    <t>2026-01-12 17:53:41</t>
+  </si>
+  <si>
+    <t>FAIL → Exception occurred during payment flow: Expected condition failed: waiting for url to contain "issucces". Current url: "https://test4.paymentsclub.net/customerverification.jsp" (tried for 15 second(s) with 500 milliseconds interval)
+Build info: version: '4.38.0', revision: '6b412e825c*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.170, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: C:\Users\LENOVO\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60214}, goog:processID: 44340, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60214/devtoo..., se:cdpVersion: 143.0.7499.170, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: dacaea0b962a86a8f6a1142c5f0833e2</t>
+  </si>
+  <si>
+    <t>6964e6c5963d57143799d453</t>
+  </si>
+  <si>
+    <t>2026-01-12 17:59:17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1867,6 +2110,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1888,7 +2138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1951,6 +2201,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2261,28 +2512,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.08984375"/>
-    <col min="2" max="2" customWidth="true" width="17.453125"/>
-    <col min="3" max="3" customWidth="true" width="20.453125"/>
-    <col min="5" max="5" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>301</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>249</v>
       </c>
       <c r="C2" s="2" t="b">
@@ -2290,10 +2541,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>246</v>
       </c>
       <c r="C3" s="2" t="b">
@@ -2301,10 +2552,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>246</v>
       </c>
       <c r="C4" s="2" t="b">
@@ -2312,10 +2563,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>249</v>
       </c>
       <c r="C5" s="2" t="b">
@@ -2323,10 +2574,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>246</v>
       </c>
       <c r="C6" s="2" t="b">
@@ -2334,10 +2585,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>249</v>
       </c>
       <c r="C7" s="2" t="b">
@@ -2345,10 +2596,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>249</v>
       </c>
       <c r="C8" s="2" t="b">
@@ -2356,10 +2607,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>249</v>
       </c>
       <c r="C9" s="2" t="b">
@@ -2367,10 +2618,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>249</v>
       </c>
       <c r="C10" s="2" t="b">
@@ -2501,1303 +2752,1326 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.453125"/>
-    <col min="2" max="2" customWidth="true" width="16.6328125"/>
-    <col min="3" max="3" customWidth="true" width="21.453125"/>
-    <col min="4" max="4" customWidth="true" width="35.453125"/>
-    <col min="5" max="5" customWidth="true" width="33.1796875"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s" s="0">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s" s="0">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s" s="0">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s" s="0">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>93</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s" s="0">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s" s="0">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>97</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s" s="0">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s" s="0">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>101</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s" s="0">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s" s="0">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>105</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s" s="0">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="D28" t="s">
         <v>107</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="D29" t="s">
         <v>109</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>74</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s" s="0">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>111</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s" s="0">
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>113</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s" s="0">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>115</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s" s="0">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>117</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s" s="0">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>119</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s" s="0">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
         <v>41</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="E35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s" s="0">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D36" t="s">
         <v>123</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="E36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s" s="0">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" t="s" s="0">
+      <c r="D37" t="s">
         <v>125</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="E37" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C38" t="s" s="0">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>127</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="E38" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s" s="0">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-      <c r="D39" t="s" s="0">
+      <c r="D39" t="s">
         <v>129</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="E39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s" s="0">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
         <v>41</v>
       </c>
-      <c r="D40" t="s" s="0">
+      <c r="D40" t="s">
         <v>131</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="E40" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s" s="0">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="D41" t="s">
         <v>133</v>
       </c>
-      <c r="E41" t="s" s="0">
+      <c r="E41" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>74</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s" s="0">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>135</v>
       </c>
-      <c r="E42" t="s" s="0">
+      <c r="E42" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>74</v>
       </c>
-      <c r="B43" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s" s="0">
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="D43" t="s" s="0">
+      <c r="D43" t="s">
         <v>137</v>
       </c>
-      <c r="E43" t="s" s="0">
+      <c r="E43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>170</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="D44" t="s" s="0">
+      <c r="D44" t="s">
         <v>171</v>
       </c>
-      <c r="E44" t="s" s="0">
+      <c r="E44" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>170</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>39</v>
       </c>
-      <c r="C45" t="s" s="0">
+      <c r="C45" t="s">
         <v>42</v>
       </c>
-      <c r="D45" t="s" s="0">
+      <c r="D45" t="s">
         <v>173</v>
       </c>
-      <c r="E45" t="s" s="0">
+      <c r="E45" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>175</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-      <c r="C46" t="s" s="0">
+      <c r="C46" t="s">
         <v>42</v>
       </c>
-      <c r="D46" t="s" s="0">
+      <c r="D46" t="s">
         <v>176</v>
       </c>
-      <c r="E46" t="s" s="0">
+      <c r="E46" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>175</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="D47" t="s">
         <v>178</v>
       </c>
-      <c r="E47" t="s" s="0">
+      <c r="E47" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>175</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="C48" t="s" s="0">
+      <c r="C48" t="s">
         <v>42</v>
       </c>
-      <c r="D48" t="s" s="0">
+      <c r="D48" t="s">
         <v>180</v>
       </c>
-      <c r="E48" t="s" s="0">
+      <c r="E48" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" t="s" s="0">
+      <c r="A49" t="s">
         <v>175</v>
       </c>
-      <c r="B49" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s" s="0">
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
         <v>41</v>
       </c>
-      <c r="D49" t="s" s="0">
+      <c r="D49" t="s">
         <v>182</v>
       </c>
-      <c r="E49" t="s" s="0">
+      <c r="E49" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>175</v>
       </c>
-      <c r="B50" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s" s="0">
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
         <v>41</v>
       </c>
-      <c r="D50" t="s" s="0">
+      <c r="D50" t="s">
         <v>184</v>
       </c>
-      <c r="E50" t="s" s="0">
+      <c r="E50" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" t="s" s="0">
+      <c r="A51" t="s">
         <v>175</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B51" t="s">
         <v>39</v>
       </c>
-      <c r="C51" t="s" s="0">
+      <c r="C51" t="s">
         <v>42</v>
       </c>
-      <c r="D51" t="s" s="0">
+      <c r="D51" t="s">
         <v>186</v>
       </c>
-      <c r="E51" t="s" s="0">
+      <c r="E51" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="s" s="0">
+      <c r="A52" t="s">
         <v>175</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="B52" t="s">
         <v>39</v>
       </c>
-      <c r="C52" t="s" s="0">
+      <c r="C52" t="s">
         <v>42</v>
       </c>
-      <c r="D52" t="s" s="0">
+      <c r="D52" t="s">
         <v>188</v>
       </c>
-      <c r="E52" t="s" s="0">
+      <c r="E52" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" t="s" s="0">
+      <c r="A53" t="s">
         <v>175</v>
       </c>
-      <c r="B53" t="s" s="0">
+      <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="C53" t="s" s="0">
+      <c r="C53" t="s">
         <v>42</v>
       </c>
-      <c r="D53" t="s" s="0">
+      <c r="D53" t="s">
         <v>190</v>
       </c>
-      <c r="E53" t="s" s="0">
+      <c r="E53" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" t="s" s="0">
+      <c r="A54" t="s">
         <v>175</v>
       </c>
-      <c r="B54" t="s" s="0">
+      <c r="B54" t="s">
         <v>39</v>
       </c>
-      <c r="C54" t="s" s="0">
+      <c r="C54" t="s">
         <v>42</v>
       </c>
-      <c r="D54" t="s" s="0">
+      <c r="D54" t="s">
         <v>192</v>
       </c>
-      <c r="E54" t="s" s="0">
+      <c r="E54" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="s" s="0">
+      <c r="A55" t="s">
         <v>175</v>
       </c>
-      <c r="B55" t="s" s="0">
+      <c r="B55" t="s">
         <v>39</v>
       </c>
-      <c r="C55" t="s" s="0">
+      <c r="C55" t="s">
         <v>42</v>
       </c>
-      <c r="D55" t="s" s="0">
+      <c r="D55" t="s">
         <v>194</v>
       </c>
-      <c r="E55" t="s" s="0">
+      <c r="E55" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" t="s" s="0">
+      <c r="A56" t="s">
         <v>170</v>
       </c>
-      <c r="B56" t="s" s="0">
+      <c r="B56" t="s">
         <v>39</v>
       </c>
-      <c r="C56" t="s" s="0">
+      <c r="C56" t="s">
         <v>42</v>
       </c>
-      <c r="D56" t="s" s="0">
+      <c r="D56" t="s">
         <v>196</v>
       </c>
-      <c r="E56" t="s" s="0">
+      <c r="E56" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" t="s" s="0">
+      <c r="A57" t="s">
         <v>198</v>
       </c>
-      <c r="B57" t="s" s="0">
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="C57" t="s" s="0">
+      <c r="C57" t="s">
         <v>42</v>
       </c>
-      <c r="D57" t="s" s="0">
+      <c r="D57" t="s">
         <v>199</v>
       </c>
-      <c r="E57" t="s" s="0">
+      <c r="E57" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="s" s="0">
+      <c r="A58" t="s">
         <v>74</v>
       </c>
-      <c r="B58" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C58" t="s" s="0">
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
         <v>41</v>
       </c>
-      <c r="D58" t="s" s="0">
+      <c r="D58" t="s">
         <v>202</v>
       </c>
-      <c r="E58" t="s" s="0">
+      <c r="E58" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="s" s="0">
+      <c r="A59" t="s">
         <v>74</v>
       </c>
-      <c r="B59" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C59" t="s" s="0">
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
         <v>41</v>
       </c>
-      <c r="D59" t="s" s="0">
+      <c r="D59" t="s">
         <v>204</v>
       </c>
-      <c r="E59" t="s" s="0">
+      <c r="E59" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="s" s="0">
+      <c r="A60" t="s">
         <v>139</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B60" t="s">
         <v>39</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C60" t="s">
         <v>42</v>
       </c>
-      <c r="D60" t="s" s="0">
+      <c r="D60" t="s">
         <v>226</v>
       </c>
-      <c r="E60" t="s" s="0">
+      <c r="E60" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" t="s" s="0">
+      <c r="A61" t="s">
         <v>139</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="B61" t="s">
         <v>39</v>
       </c>
-      <c r="C61" t="s" s="0">
+      <c r="C61" t="s">
         <v>42</v>
       </c>
-      <c r="D61" t="s" s="0">
+      <c r="D61" t="s">
         <v>228</v>
       </c>
-      <c r="E61" t="s" s="0">
+      <c r="E61" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" t="s" s="0">
+      <c r="A62" t="s">
         <v>74</v>
       </c>
-      <c r="B62" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C62" t="s" s="0">
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
         <v>41</v>
       </c>
-      <c r="D62" t="s" s="0">
+      <c r="D62" t="s">
         <v>230</v>
       </c>
-      <c r="E62" t="s" s="0">
+      <c r="E62" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" t="s" s="0">
+      <c r="A63" t="s">
         <v>289</v>
       </c>
-      <c r="B63" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D63" t="s" s="0">
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
         <v>41</v>
       </c>
-      <c r="E63" t="s" s="0">
+      <c r="E63" t="s">
         <v>290</v>
       </c>
-      <c r="F63" t="s" s="0">
+      <c r="F63" t="s">
         <v>281</v>
       </c>
-      <c r="G63" t="s" s="0">
+      <c r="G63" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" t="s" s="0">
+      <c r="A64" t="s">
         <v>289</v>
       </c>
-      <c r="B64" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D64" t="s" s="0">
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
         <v>41</v>
       </c>
-      <c r="E64" t="s" s="0">
+      <c r="E64" t="s">
         <v>292</v>
       </c>
-      <c r="F64" t="s" s="0">
+      <c r="F64" t="s">
         <v>281</v>
       </c>
-      <c r="G64" t="s" s="0">
+      <c r="G64" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" t="s" s="0">
+      <c r="A65" t="s">
         <v>294</v>
       </c>
-      <c r="B65" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D65" t="s" s="0">
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
         <v>41</v>
       </c>
-      <c r="E65" t="s" s="0">
+      <c r="E65" t="s">
         <v>295</v>
       </c>
-      <c r="F65" t="s" s="0">
+      <c r="F65" t="s">
         <v>296</v>
       </c>
-      <c r="G65" t="s" s="0">
+      <c r="G65" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" t="s" s="0">
+      <c r="A66" t="s">
         <v>377</v>
       </c>
-      <c r="B66" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D66" t="s" s="0">
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
         <v>41</v>
       </c>
-      <c r="E66" t="s" s="0">
+      <c r="E66" t="s">
         <v>378</v>
       </c>
-      <c r="F66" t="s" s="0">
+      <c r="F66" t="s">
         <v>296</v>
       </c>
-      <c r="G66" t="s" s="0">
+      <c r="G66" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="s" s="0">
+      <c r="A67" t="s">
         <v>377</v>
       </c>
-      <c r="B67" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D67" t="s" s="0">
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
         <v>41</v>
       </c>
-      <c r="E67" t="s" s="0">
+      <c r="E67" t="s">
         <v>380</v>
       </c>
-      <c r="F67" t="s" s="0">
+      <c r="F67" t="s">
         <v>296</v>
       </c>
-      <c r="G67" t="s" s="0">
+      <c r="G67" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" t="s" s="0">
+      <c r="A68" t="s">
         <v>415</v>
       </c>
-      <c r="B68" t="s" s="0">
+      <c r="B68" t="s">
         <v>39</v>
       </c>
-      <c r="C68" t="s" s="0">
+      <c r="C68" t="s">
         <v>39</v>
       </c>
-      <c r="D68" t="s" s="0">
+      <c r="D68" t="s">
         <v>42</v>
       </c>
-      <c r="E68" t="s" s="0">
+      <c r="E68" t="s">
         <v>416</v>
       </c>
-      <c r="F68" t="s" s="0">
+      <c r="F68" t="s">
         <v>281</v>
       </c>
-      <c r="G68" t="s" s="0">
+      <c r="G68" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>569</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
         <v>570</v>
       </c>
-      <c r="B69" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D69" t="s" s="0">
+      <c r="F69" t="s">
+        <v>571</v>
+      </c>
+      <c r="G69" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>569</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
         <v>41</v>
       </c>
-      <c r="E69" t="s" s="0">
+      <c r="E70" t="s">
+        <v>573</v>
+      </c>
+      <c r="F70" t="s">
         <v>571</v>
       </c>
-      <c r="F69" t="s" s="0">
-        <v>572</v>
-      </c>
-      <c r="G69" t="s" s="0">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>570</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D70" t="s" s="0">
+      <c r="G70" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>377</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s">
         <v>41</v>
       </c>
-      <c r="E70" t="s" s="0">
-        <v>574</v>
-      </c>
-      <c r="F70" t="s" s="0">
-        <v>572</v>
-      </c>
-      <c r="G70" t="s" s="0">
+      <c r="E71" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
+      <c r="F71" t="s">
+        <v>296</v>
+      </c>
+      <c r="G71" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
         <v>377</v>
       </c>
-      <c r="B71" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C71" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D71" t="s" s="0">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s">
         <v>41</v>
       </c>
-      <c r="E71" t="s" s="0">
-        <v>576</v>
-      </c>
-      <c r="F71" t="s" s="0">
+      <c r="E72" t="s">
+        <v>577</v>
+      </c>
+      <c r="F72" t="s">
         <v>296</v>
       </c>
-      <c r="G71" t="s" s="0">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D72" t="s" s="0">
+      <c r="G72" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>569</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
         <v>41</v>
       </c>
-      <c r="E72" t="s" s="0">
-        <v>578</v>
-      </c>
-      <c r="F72" t="s" s="0">
-        <v>296</v>
-      </c>
-      <c r="G72" t="s" s="0">
-        <v>579</v>
+      <c r="E73" t="s">
+        <v>620</v>
+      </c>
+      <c r="F73" t="s">
+        <v>571</v>
+      </c>
+      <c r="G73" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -3815,556 +4089,556 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.81640625"/>
-    <col min="2" max="2" customWidth="true" width="20.90625"/>
-    <col min="3" max="3" customWidth="true" width="23.453125"/>
-    <col min="4" max="4" customWidth="true" width="31.36328125"/>
-    <col min="5" max="5" customWidth="true" width="32.453125"/>
-    <col min="6" max="6" customWidth="true" width="22.81640625"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>142</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>139</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>144</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>146</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>139</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>148</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>139</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>150</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>139</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>152</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>139</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>154</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>139</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>156</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>139</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>158</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>139</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>160</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>139</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>162</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>139</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>164</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>139</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>166</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>168</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>139</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>206</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>139</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>208</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>210</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>212</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>214</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>216</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>218</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s" s="0">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>220</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s" s="0">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>222</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s" s="0">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>224</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>267</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>268</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s" s="0">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
         <v>41</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>269</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>267</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s" s="0">
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
         <v>41</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>280</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>281</v>
       </c>
-      <c r="G28" t="s" s="0">
+      <c r="G28" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>267</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s" s="0">
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>283</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>281</v>
       </c>
-      <c r="G29" t="s" s="0">
+      <c r="G29" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>267</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s" s="0">
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
         <v>41</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>285</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>281</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="G30" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>267</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s" s="0">
+      <c r="B31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>287</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>281</v>
       </c>
-      <c r="G31" t="s" s="0">
+      <c r="G31" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4377,702 +4651,702 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.453125"/>
-    <col min="2" max="2" customWidth="true" width="21.36328125"/>
-    <col min="3" max="3" customWidth="true" width="18.36328125"/>
-    <col min="4" max="4" customWidth="true" width="57.81640625"/>
-    <col min="5" max="5" customWidth="true" width="34.1796875"/>
-    <col min="6" max="6" customWidth="true" width="19.26953125"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="57.81640625" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>232</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>201</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>234</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="C3" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>201</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>237</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>201</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>239</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>241</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>242</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>244</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>201</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>247</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>241</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>242</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>249</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>244</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>201</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>253</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>254</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>241</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>256</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>258</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>201</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
         <v>261</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>262</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>241</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>256</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>258</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>201</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" t="s">
         <v>261</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>272</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>271</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>201</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D18" t="s" s="0">
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" t="s">
         <v>261</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>274</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>271</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>201</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D19" t="s" s="0">
+      <c r="B19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s">
         <v>261</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>276</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>271</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>241</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C20" t="s" s="0">
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>256</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>271</v>
       </c>
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C21" t="s" s="0">
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>258</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>271</v>
       </c>
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C22" t="s" s="0">
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>303</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>271</v>
       </c>
-      <c r="G22" t="s" s="0">
+      <c r="G22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>302</v>
       </c>
-      <c r="C23" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D23" t="s" s="0">
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" t="s">
         <v>305</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>306</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>271</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>302</v>
       </c>
-      <c r="C24" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D24" t="s" s="0">
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" t="s">
         <v>305</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>308</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="F24" t="s">
         <v>271</v>
       </c>
-      <c r="G24" t="s" s="0">
+      <c r="G24" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>302</v>
       </c>
-      <c r="C25" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D25" t="s" s="0">
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" t="s">
         <v>260</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>310</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>271</v>
       </c>
-      <c r="G25" t="s" s="0">
+      <c r="G25" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>302</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D26" t="s" s="0">
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" t="s">
         <v>260</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>312</v>
       </c>
-      <c r="F26" t="s" s="0">
+      <c r="F26" t="s">
         <v>271</v>
       </c>
-      <c r="G26" t="s" s="0">
+      <c r="G26" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C27" t="s" s="0">
+      <c r="B27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>303</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>271</v>
       </c>
-      <c r="G27" t="s" s="0">
+      <c r="G27" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>302</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D28" t="s" s="0">
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" t="s">
         <v>260</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>315</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>271</v>
       </c>
-      <c r="G28" t="s" s="0">
+      <c r="G28" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>302</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D29" t="s" s="0">
+      <c r="C29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" t="s">
         <v>260</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>317</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>271</v>
       </c>
-      <c r="G29" t="s" s="0">
+      <c r="G29" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D30" t="s" s="0">
+      <c r="B30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" t="s">
         <v>260</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>319</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>271</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="G30" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>302</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D31" t="s" s="0">
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" t="s">
         <v>260</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>321</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>271</v>
       </c>
-      <c r="G31" t="s" s="0">
+      <c r="G31" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C32" t="s" s="0">
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>323</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>271</v>
       </c>
-      <c r="G32" t="s" s="0">
+      <c r="G32" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C33" t="s" s="0">
+      <c r="B33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>325</v>
       </c>
-      <c r="F33" t="s" s="0">
+      <c r="F33" t="s">
         <v>271</v>
       </c>
-      <c r="G33" t="s" s="0">
+      <c r="G33" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C34" t="s" s="0">
+      <c r="B34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>327</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>271</v>
       </c>
-      <c r="G34" t="s" s="0">
+      <c r="G34" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C35" t="s" s="0">
+      <c r="B35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" t="s">
         <v>39</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>329</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="F35" t="s">
         <v>271</v>
       </c>
-      <c r="G35" t="s" s="0">
+      <c r="G35" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5084,2657 +5358,3559 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G120"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView topLeftCell="C96" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.453125"/>
-    <col min="4" max="4" customWidth="true" width="65.36328125"/>
-    <col min="5" max="5" customWidth="true" width="36.7265625"/>
-    <col min="6" max="6" customWidth="true" width="19.08984375"/>
-    <col min="7" max="7" customWidth="true" width="21.54296875"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="65.36328125" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>232</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>333</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:7" ht="14.5" hidden="1">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" t="s">
         <v>334</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>271</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:7" ht="14.5" hidden="1">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
         <v>336</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>271</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:7" ht="14.5" hidden="1">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s">
         <v>338</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>271</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:7" ht="14.5" hidden="1">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>261</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>340</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>271</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:7" ht="14.5" hidden="1">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
         <v>334</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>271</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:7" ht="14.5" hidden="1">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" t="s">
         <v>336</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>271</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:7" ht="14.5" hidden="1">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" t="s">
         <v>338</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>271</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:7" ht="14.5" hidden="1">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" t="s">
         <v>261</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>345</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>271</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:7" ht="14.5" hidden="1">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>303</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>347</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:7" ht="14.5" hidden="1">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>303</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>347</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:7" ht="14.5" hidden="1">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>303</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>347</v>
       </c>
-      <c r="G12" t="s" s="0">
+      <c r="G12" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:7" ht="14.5" hidden="1">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
         <v>261</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>353</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>347</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:7" ht="14.5" hidden="1">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
         <v>261</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>355</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>347</v>
       </c>
-      <c r="G14" t="s" s="0">
+      <c r="G14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:7" ht="14.5" hidden="1">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" t="s">
         <v>260</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>357</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>347</v>
       </c>
-      <c r="G15" t="s" s="0">
+      <c r="G15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:7" ht="14.5" hidden="1">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" t="s">
         <v>305</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>359</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>347</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:7" ht="14.5" hidden="1">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>303</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>281</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:7" ht="14.5" hidden="1">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C18" t="s" s="0">
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>303</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>347</v>
       </c>
-      <c r="G18" t="s" s="0">
+      <c r="G18" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:7" ht="14.5" hidden="1">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D19" t="s" s="0">
+      <c r="B19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s">
         <v>261</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>365</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>347</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:7" ht="14.5" hidden="1">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C20" t="s" s="0">
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>323</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>281</v>
       </c>
-      <c r="G20" t="s" s="0">
+      <c r="G20" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:7" ht="14.5" hidden="1">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C21" t="s" s="0">
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>323</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>347</v>
       </c>
-      <c r="G21" t="s" s="0">
+      <c r="G21" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:7" ht="14.5" hidden="1">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C22" t="s" s="0">
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>325</v>
       </c>
-      <c r="F22" t="s" s="0">
+      <c r="F22" t="s">
         <v>281</v>
       </c>
-      <c r="G22" t="s" s="0">
+      <c r="G22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:7" ht="14.5" hidden="1">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C23" t="s" s="0">
+      <c r="B23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>325</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>347</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:7" ht="14.5" hidden="1">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C24" t="s" s="0">
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" t="s">
         <v>39</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>327</v>
       </c>
-      <c r="F24" t="s" s="0">
+      <c r="F24" t="s">
         <v>281</v>
       </c>
-      <c r="G24" t="s" s="0">
+      <c r="G24" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:7" ht="14.5" hidden="1">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C25" t="s" s="0">
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>327</v>
       </c>
-      <c r="F25" t="s" s="0">
+      <c r="F25" t="s">
         <v>347</v>
       </c>
-      <c r="G25" t="s" s="0">
+      <c r="G25" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s" s="0">
+    <row r="26" spans="1:7" ht="14.5" hidden="1">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C26" t="s" s="0">
+      <c r="B26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" t="s">
         <v>39</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>329</v>
       </c>
-      <c r="F26" t="s" s="0">
+      <c r="F26" t="s">
         <v>281</v>
       </c>
-      <c r="G26" t="s" s="0">
+      <c r="G26" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s" s="0">
+    <row r="27" spans="1:7" ht="14.5" hidden="1">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C27" t="s" s="0">
+      <c r="B27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>329</v>
       </c>
-      <c r="F27" t="s" s="0">
+      <c r="F27" t="s">
         <v>347</v>
       </c>
-      <c r="G27" t="s" s="0">
+      <c r="G27" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s" s="0">
+    <row r="28" spans="1:7" ht="14.5" hidden="1">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D28" t="s" s="0">
+      <c r="B28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" t="s">
         <v>261</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>375</v>
       </c>
-      <c r="F28" t="s" s="0">
+      <c r="F28" t="s">
         <v>347</v>
       </c>
-      <c r="G28" t="s" s="0">
+      <c r="G28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s" s="0">
+    <row r="29" spans="1:7" ht="14.5" hidden="1">
+      <c r="A29" t="s">
         <v>266</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s" s="0">
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
         <v>253</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>383</v>
       </c>
-      <c r="F29" t="s" s="0">
+      <c r="F29" t="s">
         <v>347</v>
       </c>
-      <c r="G29" t="s" s="0">
+      <c r="G29" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s" s="0">
+    <row r="30" spans="1:7" ht="14.5" hidden="1">
+      <c r="A30" t="s">
         <v>331</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s" s="0">
+      <c r="B30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
         <v>253</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>385</v>
       </c>
-      <c r="F30" t="s" s="0">
+      <c r="F30" t="s">
         <v>347</v>
       </c>
-      <c r="G30" t="s" s="0">
+      <c r="G30" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s" s="0">
+    <row r="31" spans="1:7" ht="14.5" hidden="1">
+      <c r="A31" t="s">
         <v>332</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s" s="0">
+      <c r="B31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
         <v>387</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>388</v>
       </c>
-      <c r="F31" t="s" s="0">
+      <c r="F31" t="s">
         <v>347</v>
       </c>
-      <c r="G31" t="s" s="0">
+      <c r="G31" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s" s="0">
+    <row r="32" spans="1:7" ht="14.5" hidden="1">
+      <c r="A32" t="s">
         <v>266</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C32" t="s" s="0">
+      <c r="B32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>390</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>391</v>
       </c>
-      <c r="F32" t="s" s="0">
+      <c r="F32" t="s">
         <v>281</v>
       </c>
-      <c r="G32" t="s" s="0">
+      <c r="G32" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s" s="0">
+    <row r="33" spans="1:7" ht="14.5" hidden="1">
+      <c r="A33" t="s">
         <v>266</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C33" t="s" s="0">
+      <c r="B33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>393</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>394</v>
       </c>
-      <c r="F33" t="s" s="0">
+      <c r="F33" t="s">
         <v>347</v>
       </c>
-      <c r="G33" t="s" s="0">
+      <c r="G33" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:7" ht="14.5" hidden="1">
+      <c r="A34" t="s">
         <v>331</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C34" t="s" s="0">
+      <c r="B34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>390</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>396</v>
       </c>
-      <c r="F34" t="s" s="0">
+      <c r="F34" t="s">
         <v>281</v>
       </c>
-      <c r="G34" t="s" s="0">
+      <c r="G34" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s" s="0">
+    <row r="35" spans="1:7" ht="14.5" hidden="1">
+      <c r="A35" t="s">
         <v>331</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C35" t="s" s="0">
+      <c r="B35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" t="s">
         <v>39</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>393</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="E35" t="s">
         <v>398</v>
       </c>
-      <c r="F35" t="s" s="0">
+      <c r="F35" t="s">
         <v>347</v>
       </c>
-      <c r="G35" t="s" s="0">
+      <c r="G35" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s" s="0">
+    <row r="36" spans="1:7" ht="14.5" hidden="1">
+      <c r="A36" t="s">
         <v>332</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C36" t="s" s="0">
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D36" t="s">
         <v>390</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="E36" t="s">
         <v>400</v>
       </c>
-      <c r="F36" t="s" s="0">
+      <c r="F36" t="s">
         <v>281</v>
       </c>
-      <c r="G36" t="s" s="0">
+      <c r="G36" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s" s="0">
+    <row r="37" spans="1:7" ht="14.5" hidden="1">
+      <c r="A37" t="s">
         <v>332</v>
       </c>
-      <c r="B37" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C37" t="s" s="0">
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
         <v>39</v>
       </c>
-      <c r="D37" t="s" s="0">
+      <c r="D37" t="s">
         <v>393</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="E37" t="s">
         <v>402</v>
       </c>
-      <c r="F37" t="s" s="0">
+      <c r="F37" t="s">
         <v>347</v>
       </c>
-      <c r="G37" t="s" s="0">
+      <c r="G37" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s" s="0">
+    <row r="38" spans="1:7" ht="14.5" hidden="1">
+      <c r="A38" t="s">
         <v>267</v>
       </c>
-      <c r="B38" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D38" t="s" s="0">
+      <c r="B38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" t="s">
         <v>261</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="E38" t="s">
         <v>405</v>
       </c>
-      <c r="F38" t="s" s="0">
+      <c r="F38" t="s">
         <v>347</v>
       </c>
-      <c r="G38" t="s" s="0">
+      <c r="G38" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s" s="0">
+    <row r="39" spans="1:7" ht="14.5" hidden="1">
+      <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D39" t="s" s="0">
+      <c r="B39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" t="s">
         <v>261</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="E39" t="s">
         <v>407</v>
       </c>
-      <c r="F39" t="s" s="0">
+      <c r="F39" t="s">
         <v>347</v>
       </c>
-      <c r="G39" t="s" s="0">
+      <c r="G39" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s" s="0">
+    <row r="40" spans="1:7" ht="14.5" hidden="1">
+      <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D40" t="s" s="0">
+      <c r="B40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" t="s">
         <v>261</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="E40" t="s">
         <v>409</v>
       </c>
-      <c r="F40" t="s" s="0">
+      <c r="F40" t="s">
         <v>347</v>
       </c>
-      <c r="G40" t="s" s="0">
+      <c r="G40" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s" s="0">
+    <row r="41" spans="1:7" ht="14.5" hidden="1">
+      <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D41" t="s" s="0">
+      <c r="B41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" t="s">
         <v>261</v>
       </c>
-      <c r="E41" t="s" s="0">
+      <c r="E41" t="s">
         <v>411</v>
       </c>
-      <c r="F41" t="s" s="0">
+      <c r="F41" t="s">
         <v>347</v>
       </c>
-      <c r="G41" t="s" s="0">
+      <c r="G41" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s" s="0">
+    <row r="42" spans="1:7" ht="14.5" hidden="1">
+      <c r="A42" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D42" t="s" s="0">
+      <c r="B42" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" t="s">
         <v>413</v>
       </c>
-      <c r="F42" t="s" s="0">
+      <c r="F42" t="s">
         <v>347</v>
       </c>
-      <c r="G42" t="s" s="0">
+      <c r="G42" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s" s="0">
+    <row r="43" spans="1:7" ht="14.5" hidden="1">
+      <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D43" t="s" s="0">
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" t="s">
         <v>261</v>
       </c>
-      <c r="E43" t="s" s="0">
+      <c r="E43" t="s">
         <v>423</v>
       </c>
-      <c r="F43" t="s" s="0">
+      <c r="F43" t="s">
         <v>347</v>
       </c>
-      <c r="G43" t="s" s="0">
+      <c r="G43" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s" s="0">
+    <row r="44" spans="1:7" ht="14.5" hidden="1">
+      <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D44" t="s" s="0">
+      <c r="B44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" t="s">
         <v>305</v>
       </c>
-      <c r="E44" t="s" s="0">
+      <c r="E44" t="s">
         <v>425</v>
       </c>
-      <c r="F44" t="s" s="0">
+      <c r="F44" t="s">
         <v>404</v>
       </c>
-      <c r="G44" t="s" s="0">
+      <c r="G44" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s" s="0">
+    <row r="45" spans="1:7" ht="14.5" hidden="1">
+      <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D45" t="s" s="0">
+      <c r="B45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" t="s">
         <v>427</v>
       </c>
-      <c r="E45" t="s" s="0">
+      <c r="E45" t="s">
         <v>428</v>
       </c>
-      <c r="F45" t="s" s="0">
+      <c r="F45" t="s">
         <v>420</v>
       </c>
-      <c r="G45" t="s" s="0">
+      <c r="G45" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s" s="0">
+    <row r="46" spans="1:7" ht="14.5" hidden="1">
+      <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D46" t="s" s="0">
+      <c r="B46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" t="s">
         <v>261</v>
       </c>
-      <c r="E46" t="s" s="0">
+      <c r="E46" t="s">
         <v>431</v>
       </c>
-      <c r="F46" t="s" s="0">
+      <c r="F46" t="s">
         <v>347</v>
       </c>
-      <c r="G46" t="s" s="0">
+      <c r="G46" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s" s="0">
+    <row r="47" spans="1:7" ht="14.5" hidden="1">
+      <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D47" t="s" s="0">
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" t="s">
         <v>261</v>
       </c>
-      <c r="E47" t="s" s="0">
+      <c r="E47" t="s">
         <v>433</v>
       </c>
-      <c r="F47" t="s" s="0">
+      <c r="F47" t="s">
         <v>420</v>
       </c>
-      <c r="G47" t="s" s="0">
+      <c r="G47" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s" s="0">
+    <row r="48" spans="1:7" ht="14.5" hidden="1">
+      <c r="A48" t="s">
         <v>266</v>
       </c>
-      <c r="B48" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s" s="0">
+      <c r="B48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
         <v>253</v>
       </c>
-      <c r="E48" t="s" s="0">
+      <c r="E48" t="s">
         <v>435</v>
       </c>
-      <c r="F48" t="s" s="0">
+      <c r="F48" t="s">
         <v>347</v>
       </c>
-      <c r="G48" t="s" s="0">
+      <c r="G48" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s" s="0">
+    <row r="49" spans="1:7" ht="14.5" hidden="1">
+      <c r="A49" t="s">
         <v>266</v>
       </c>
-      <c r="B49" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D49" t="s" s="0">
+      <c r="B49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
         <v>253</v>
       </c>
-      <c r="E49" t="s" s="0">
+      <c r="E49" t="s">
         <v>437</v>
       </c>
-      <c r="F49" t="s" s="0">
+      <c r="F49" t="s">
         <v>420</v>
       </c>
-      <c r="G49" t="s" s="0">
+      <c r="G49" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:7" ht="14.5" hidden="1">
+      <c r="A50" t="s">
         <v>331</v>
       </c>
-      <c r="B50" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D50" t="s" s="0">
+      <c r="B50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
         <v>253</v>
       </c>
-      <c r="E50" t="s" s="0">
+      <c r="E50" t="s">
         <v>439</v>
       </c>
-      <c r="F50" t="s" s="0">
+      <c r="F50" t="s">
         <v>347</v>
       </c>
-      <c r="G50" t="s" s="0">
+      <c r="G50" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s" s="0">
+    <row r="51" spans="1:7" ht="14.5" hidden="1">
+      <c r="A51" t="s">
         <v>331</v>
       </c>
-      <c r="B51" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D51" t="s" s="0">
+      <c r="B51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
         <v>253</v>
       </c>
-      <c r="E51" t="s" s="0">
+      <c r="E51" t="s">
         <v>441</v>
       </c>
-      <c r="F51" t="s" s="0">
+      <c r="F51" t="s">
         <v>420</v>
       </c>
-      <c r="G51" t="s" s="0">
+      <c r="G51" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s" s="0">
+    <row r="52" spans="1:7" ht="14.5" hidden="1">
+      <c r="A52" t="s">
         <v>332</v>
       </c>
-      <c r="B52" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s" s="0">
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
         <v>387</v>
       </c>
-      <c r="E52" t="s" s="0">
+      <c r="E52" t="s">
         <v>443</v>
       </c>
-      <c r="F52" t="s" s="0">
+      <c r="F52" t="s">
         <v>347</v>
       </c>
-      <c r="G52" t="s" s="0">
+      <c r="G52" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s" s="0">
+    <row r="53" spans="1:7" ht="14.5" hidden="1">
+      <c r="A53" t="s">
         <v>332</v>
       </c>
-      <c r="B53" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s" s="0">
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
         <v>387</v>
       </c>
-      <c r="E53" t="s" s="0">
+      <c r="E53" t="s">
         <v>445</v>
       </c>
-      <c r="F53" t="s" s="0">
+      <c r="F53" t="s">
         <v>420</v>
       </c>
-      <c r="G53" t="s" s="0">
+      <c r="G53" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s" s="0">
+    <row r="54" spans="1:7" ht="14.5" hidden="1">
+      <c r="A54" t="s">
         <v>14</v>
       </c>
-      <c r="B54" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D54" t="s" s="0">
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" t="s">
         <v>334</v>
       </c>
-      <c r="F54" t="s" s="0">
+      <c r="F54" t="s">
         <v>347</v>
       </c>
-      <c r="G54" t="s" s="0">
+      <c r="G54" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s" s="0">
+    <row r="55" spans="1:7" ht="14.5" hidden="1">
+      <c r="A55" t="s">
         <v>14</v>
       </c>
-      <c r="B55" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D55" t="s" s="0">
+      <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" t="s">
         <v>334</v>
       </c>
-      <c r="F55" t="s" s="0">
+      <c r="F55" t="s">
         <v>420</v>
       </c>
-      <c r="G55" t="s" s="0">
+      <c r="G55" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s" s="0">
+    <row r="56" spans="1:7" ht="14.5" hidden="1">
+      <c r="A56" t="s">
         <v>15</v>
       </c>
-      <c r="B56" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D56" t="s" s="0">
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" t="s">
         <v>336</v>
       </c>
-      <c r="F56" t="s" s="0">
+      <c r="F56" t="s">
         <v>347</v>
       </c>
-      <c r="G56" t="s" s="0">
+      <c r="G56" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s" s="0">
+    <row r="57" spans="1:7" ht="14.5" hidden="1">
+      <c r="A57" t="s">
         <v>15</v>
       </c>
-      <c r="B57" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D57" t="s" s="0">
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" t="s">
         <v>336</v>
       </c>
-      <c r="F57" t="s" s="0">
+      <c r="F57" t="s">
         <v>420</v>
       </c>
-      <c r="G57" t="s" s="0">
+      <c r="G57" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s" s="0">
+    <row r="58" spans="1:7" ht="14.5" hidden="1">
+      <c r="A58" t="s">
         <v>16</v>
       </c>
-      <c r="B58" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D58" t="s" s="0">
+      <c r="B58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" t="s">
         <v>338</v>
       </c>
-      <c r="F58" t="s" s="0">
+      <c r="F58" t="s">
         <v>347</v>
       </c>
-      <c r="G58" t="s" s="0">
+      <c r="G58" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s" s="0">
+    <row r="59" spans="1:7" ht="14.5" hidden="1">
+      <c r="A59" t="s">
         <v>16</v>
       </c>
-      <c r="B59" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D59" t="s" s="0">
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" t="s">
         <v>338</v>
       </c>
-      <c r="F59" t="s" s="0">
+      <c r="F59" t="s">
         <v>420</v>
       </c>
-      <c r="G59" t="s" s="0">
+      <c r="G59" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s" s="0">
+    <row r="60" spans="1:7" ht="14.5" hidden="1">
+      <c r="A60" t="s">
         <v>267</v>
       </c>
-      <c r="B60" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D60" t="s" s="0">
+      <c r="B60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" t="s">
         <v>261</v>
       </c>
-      <c r="E60" t="s" s="0">
+      <c r="E60" t="s">
         <v>453</v>
       </c>
-      <c r="F60" t="s" s="0">
+      <c r="F60" t="s">
         <v>347</v>
       </c>
-      <c r="G60" t="s" s="0">
+      <c r="G60" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s" s="0">
+    <row r="61" spans="1:7" ht="14.5" hidden="1">
+      <c r="A61" t="s">
         <v>267</v>
       </c>
-      <c r="B61" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C61" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D61" t="s" s="0">
+      <c r="B61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" t="s">
         <v>261</v>
       </c>
-      <c r="E61" t="s" s="0">
+      <c r="E61" t="s">
         <v>455</v>
       </c>
-      <c r="F61" t="s" s="0">
+      <c r="F61" t="s">
         <v>420</v>
       </c>
-      <c r="G61" t="s" s="0">
+      <c r="G61" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s" s="0">
+    <row r="62" spans="1:7" ht="14.5" hidden="1">
+      <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C62" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D62" t="s" s="0">
+      <c r="B62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s">
         <v>261</v>
       </c>
-      <c r="E62" t="s" s="0">
+      <c r="E62" t="s">
         <v>457</v>
       </c>
-      <c r="F62" t="s" s="0">
+      <c r="F62" t="s">
         <v>347</v>
       </c>
-      <c r="G62" t="s" s="0">
+      <c r="G62" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s" s="0">
+    <row r="63" spans="1:7" ht="14.5" hidden="1">
+      <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D63" t="s" s="0">
+      <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" t="s">
         <v>261</v>
       </c>
-      <c r="E63" t="s" s="0">
+      <c r="E63" t="s">
         <v>459</v>
       </c>
-      <c r="F63" t="s" s="0">
+      <c r="F63" t="s">
         <v>420</v>
       </c>
-      <c r="G63" t="s" s="0">
+      <c r="G63" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s" s="0">
+    <row r="64" spans="1:7" ht="14.5" hidden="1">
+      <c r="A64" t="s">
         <v>7</v>
       </c>
-      <c r="B64" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C64" t="s" s="0">
+      <c r="B64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="D64" t="s" s="0">
+      <c r="D64" t="s">
         <v>323</v>
       </c>
-      <c r="F64" t="s" s="0">
+      <c r="F64" t="s">
         <v>347</v>
       </c>
-      <c r="G64" t="s" s="0">
+      <c r="G64" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s" s="0">
+    <row r="65" spans="1:7" ht="14.5" hidden="1">
+      <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B65" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C65" t="s" s="0">
+      <c r="B65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" t="s">
         <v>39</v>
       </c>
-      <c r="D65" t="s" s="0">
+      <c r="D65" t="s">
         <v>323</v>
       </c>
-      <c r="F65" t="s" s="0">
+      <c r="F65" t="s">
         <v>420</v>
       </c>
-      <c r="G65" t="s" s="0">
+      <c r="G65" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s" s="0">
+    <row r="66" spans="1:7" ht="14.5" hidden="1">
+      <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="B66" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C66" t="s" s="0">
+      <c r="B66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" t="s">
         <v>39</v>
       </c>
-      <c r="D66" t="s" s="0">
+      <c r="D66" t="s">
         <v>325</v>
       </c>
-      <c r="F66" t="s" s="0">
+      <c r="F66" t="s">
         <v>347</v>
       </c>
-      <c r="G66" t="s" s="0">
+      <c r="G66" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s" s="0">
+    <row r="67" spans="1:7" ht="14.5" hidden="1">
+      <c r="A67" t="s">
         <v>8</v>
       </c>
-      <c r="B67" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C67" t="s" s="0">
+      <c r="B67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" t="s">
         <v>39</v>
       </c>
-      <c r="D67" t="s" s="0">
+      <c r="D67" t="s">
         <v>325</v>
       </c>
-      <c r="F67" t="s" s="0">
+      <c r="F67" t="s">
         <v>420</v>
       </c>
-      <c r="G67" t="s" s="0">
+      <c r="G67" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s" s="0">
+    <row r="68" spans="1:7" ht="14.5" hidden="1">
+      <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="B68" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C68" t="s" s="0">
+      <c r="B68" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" t="s">
         <v>39</v>
       </c>
-      <c r="D68" t="s" s="0">
+      <c r="D68" t="s">
         <v>327</v>
       </c>
-      <c r="F68" t="s" s="0">
+      <c r="F68" t="s">
         <v>347</v>
       </c>
-      <c r="G68" t="s" s="0">
+      <c r="G68" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s" s="0">
+    <row r="69" spans="1:7" ht="14.5" hidden="1">
+      <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="B69" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C69" t="s" s="0">
+      <c r="B69" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" t="s">
         <v>39</v>
       </c>
-      <c r="D69" t="s" s="0">
+      <c r="D69" t="s">
         <v>327</v>
       </c>
-      <c r="F69" t="s" s="0">
+      <c r="E69" t="s">
+        <v>619</v>
+      </c>
+      <c r="F69" t="s">
         <v>420</v>
       </c>
-      <c r="G69" t="s" s="0">
+      <c r="G69" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s" s="0">
+    <row r="70" spans="1:7" ht="14.5" hidden="1">
+      <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C70" t="s" s="0">
+      <c r="B70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" t="s">
         <v>39</v>
       </c>
-      <c r="D70" t="s" s="0">
+      <c r="D70" t="s">
         <v>329</v>
       </c>
-      <c r="F70" t="s" s="0">
+      <c r="F70" t="s">
         <v>347</v>
       </c>
-      <c r="G70" t="s" s="0">
+      <c r="G70" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s" s="0">
+    <row r="71" spans="1:7" ht="14.5" hidden="1">
+      <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C71" t="s" s="0">
+      <c r="B71" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" t="s">
         <v>39</v>
       </c>
-      <c r="D71" t="s" s="0">
+      <c r="D71" t="s">
         <v>329</v>
       </c>
-      <c r="F71" t="s" s="0">
+      <c r="F71" t="s">
         <v>420</v>
       </c>
-      <c r="G71" t="s" s="0">
+      <c r="G71" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s" s="0">
+    <row r="72" spans="1:7" ht="14.5" hidden="1">
+      <c r="A72" t="s">
         <v>19</v>
       </c>
-      <c r="B72" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C72" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D72" t="s" s="0">
+      <c r="B72" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" t="s">
         <v>261</v>
       </c>
-      <c r="E72" t="s" s="0">
+      <c r="E72" t="s">
         <v>469</v>
       </c>
-      <c r="F72" t="s" s="0">
+      <c r="F72" t="s">
         <v>347</v>
       </c>
-      <c r="G72" t="s" s="0">
+      <c r="G72" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s" s="0">
+    <row r="73" spans="1:7" ht="14.5" hidden="1">
+      <c r="A73" t="s">
         <v>19</v>
       </c>
-      <c r="B73" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C73" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D73" t="s" s="0">
+      <c r="B73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" t="s">
         <v>261</v>
       </c>
-      <c r="E73" t="s" s="0">
+      <c r="E73" t="s">
         <v>471</v>
       </c>
-      <c r="F73" t="s" s="0">
+      <c r="F73" t="s">
         <v>420</v>
       </c>
-      <c r="G73" t="s" s="0">
+      <c r="G73" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s" s="0">
+    <row r="74" spans="1:7" ht="14.5" hidden="1">
+      <c r="A74" t="s">
         <v>20</v>
       </c>
-      <c r="B74" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C74" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D74" t="s" s="0">
+      <c r="B74" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" t="s">
         <v>261</v>
       </c>
-      <c r="E74" t="s" s="0">
+      <c r="E74" t="s">
         <v>473</v>
       </c>
-      <c r="F74" t="s" s="0">
+      <c r="F74" t="s">
         <v>347</v>
       </c>
-      <c r="G74" t="s" s="0">
+      <c r="G74" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s" s="0">
+    <row r="75" spans="1:7" ht="14.5" hidden="1">
+      <c r="A75" t="s">
         <v>20</v>
       </c>
-      <c r="B75" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C75" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D75" t="s" s="0">
+      <c r="B75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C75" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" t="s">
         <v>261</v>
       </c>
-      <c r="E75" t="s" s="0">
+      <c r="E75" t="s">
         <v>475</v>
       </c>
-      <c r="F75" t="s" s="0">
+      <c r="F75" t="s">
         <v>420</v>
       </c>
-      <c r="G75" t="s" s="0">
+      <c r="G75" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s" s="0">
+    <row r="76" spans="1:7" ht="14.5" hidden="1">
+      <c r="A76" t="s">
         <v>21</v>
       </c>
-      <c r="B76" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C76" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D76" t="s" s="0">
+      <c r="B76" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" t="s">
         <v>261</v>
       </c>
-      <c r="E76" t="s" s="0">
+      <c r="E76" t="s">
         <v>477</v>
       </c>
-      <c r="F76" t="s" s="0">
+      <c r="F76" t="s">
         <v>347</v>
       </c>
-      <c r="G76" t="s" s="0">
+      <c r="G76" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s" s="0">
+    <row r="77" spans="1:7" ht="14.5" hidden="1">
+      <c r="A77" t="s">
         <v>21</v>
       </c>
-      <c r="B77" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C77" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D77" t="s" s="0">
+      <c r="B77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" t="s">
         <v>261</v>
       </c>
-      <c r="E77" t="s" s="0">
+      <c r="E77" t="s">
         <v>479</v>
       </c>
-      <c r="F77" t="s" s="0">
+      <c r="F77" t="s">
         <v>420</v>
       </c>
-      <c r="G77" t="s" s="0">
+      <c r="G77" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s" s="0">
+    <row r="78" spans="1:7" ht="14.5" hidden="1">
+      <c r="A78" t="s">
         <v>12</v>
       </c>
-      <c r="B78" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C78" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D78" t="s" s="0">
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" t="s">
         <v>413</v>
       </c>
-      <c r="F78" t="s" s="0">
+      <c r="F78" t="s">
         <v>347</v>
       </c>
-      <c r="G78" t="s" s="0">
+      <c r="G78" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s" s="0">
+    <row r="79" spans="1:7" ht="14.5" hidden="1">
+      <c r="A79" t="s">
         <v>12</v>
       </c>
-      <c r="B79" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C79" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D79" t="s" s="0">
+      <c r="B79" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" t="s">
         <v>413</v>
       </c>
-      <c r="F79" t="s" s="0">
+      <c r="F79" t="s">
         <v>420</v>
       </c>
-      <c r="G79" t="s" s="0">
+      <c r="G79" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s" s="0">
+    <row r="80" spans="1:7" ht="14.5" hidden="1">
+      <c r="A80" t="s">
         <v>30</v>
       </c>
-      <c r="B80" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C80" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D80" t="s" s="0">
+      <c r="B80" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" t="s">
         <v>261</v>
       </c>
-      <c r="E80" t="s" s="0">
+      <c r="E80" t="s">
         <v>483</v>
       </c>
-      <c r="F80" t="s" s="0">
+      <c r="F80" t="s">
         <v>347</v>
       </c>
-      <c r="G80" t="s" s="0">
+      <c r="G80" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s" s="0">
+    <row r="81" spans="1:7" ht="14.5" hidden="1">
+      <c r="A81" t="s">
         <v>30</v>
       </c>
-      <c r="B81" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C81" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D81" t="s" s="0">
+      <c r="B81" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" t="s">
         <v>261</v>
       </c>
-      <c r="E81" t="s" s="0">
+      <c r="E81" t="s">
         <v>485</v>
       </c>
-      <c r="F81" t="s" s="0">
+      <c r="F81" t="s">
         <v>420</v>
       </c>
-      <c r="G81" t="s" s="0">
+      <c r="G81" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s" s="0">
+    <row r="82" spans="1:7" ht="14.5" hidden="1">
+      <c r="A82" t="s">
         <v>31</v>
       </c>
-      <c r="B82" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C82" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D82" t="s" s="0">
+      <c r="B82" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" t="s">
         <v>261</v>
       </c>
-      <c r="E82" t="s" s="0">
+      <c r="E82" t="s">
         <v>487</v>
       </c>
-      <c r="F82" t="s" s="0">
+      <c r="F82" t="s">
         <v>347</v>
       </c>
-      <c r="G82" t="s" s="0">
+      <c r="G82" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s" s="0">
+    <row r="83" spans="1:7" ht="14.5" hidden="1">
+      <c r="A83" t="s">
         <v>31</v>
       </c>
-      <c r="B83" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C83" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D83" t="s" s="0">
+      <c r="B83" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" t="s">
         <v>261</v>
       </c>
-      <c r="E83" t="s" s="0">
+      <c r="E83" t="s">
         <v>489</v>
       </c>
-      <c r="F83" t="s" s="0">
+      <c r="F83" t="s">
         <v>420</v>
       </c>
-      <c r="G83" t="s" s="0">
+      <c r="G83" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s" s="0">
+    <row r="84" spans="1:7" ht="14.5" hidden="1">
+      <c r="A84" t="s">
         <v>71</v>
       </c>
-      <c r="B84" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C84" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D84" t="s" s="0">
+      <c r="B84" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" t="s">
         <v>260</v>
       </c>
-      <c r="E84" t="s" s="0">
+      <c r="E84" t="s">
         <v>491</v>
       </c>
-      <c r="F84" t="s" s="0">
+      <c r="F84" t="s">
         <v>347</v>
       </c>
-      <c r="G84" t="s" s="0">
+      <c r="G84" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s" s="0">
+    <row r="85" spans="1:7" ht="14.5" hidden="1">
+      <c r="A85" t="s">
         <v>71</v>
       </c>
-      <c r="B85" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C85" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D85" t="s" s="0">
+      <c r="B85" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" t="s">
         <v>260</v>
       </c>
-      <c r="E85" t="s" s="0">
+      <c r="E85" t="s">
         <v>493</v>
       </c>
-      <c r="F85" t="s" s="0">
+      <c r="F85" t="s">
         <v>420</v>
       </c>
-      <c r="G85" t="s" s="0">
+      <c r="G85" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s" s="0">
+    <row r="86" spans="1:7" ht="14.5" hidden="1">
+      <c r="A86" t="s">
         <v>72</v>
       </c>
-      <c r="B86" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C86" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D86" t="s" s="0">
+      <c r="B86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" t="s">
         <v>260</v>
       </c>
-      <c r="E86" t="s" s="0">
+      <c r="E86" t="s">
         <v>495</v>
       </c>
-      <c r="F86" t="s" s="0">
+      <c r="F86" t="s">
         <v>347</v>
       </c>
-      <c r="G86" t="s" s="0">
+      <c r="G86" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s" s="0">
+    <row r="87" spans="1:7" ht="14.5" hidden="1">
+      <c r="A87" t="s">
         <v>72</v>
       </c>
-      <c r="B87" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C87" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D87" t="s" s="0">
+      <c r="B87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" t="s">
         <v>260</v>
       </c>
-      <c r="E87" t="s" s="0">
+      <c r="E87" t="s">
         <v>497</v>
       </c>
-      <c r="F87" t="s" s="0">
+      <c r="F87" t="s">
         <v>420</v>
       </c>
-      <c r="G87" t="s" s="0">
+      <c r="G87" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s" s="0">
+    <row r="88" spans="1:7" ht="14.5" hidden="1">
+      <c r="A88" t="s">
         <v>32</v>
       </c>
-      <c r="B88" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C88" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D88" t="s" s="0">
+      <c r="B88" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" t="s">
         <v>260</v>
       </c>
-      <c r="E88" t="s" s="0">
+      <c r="E88" t="s">
         <v>499</v>
       </c>
-      <c r="F88" t="s" s="0">
+      <c r="F88" t="s">
         <v>347</v>
       </c>
-      <c r="G88" t="s" s="0">
+      <c r="G88" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s" s="0">
+    <row r="89" spans="1:7" ht="14.5" hidden="1">
+      <c r="A89" t="s">
         <v>32</v>
       </c>
-      <c r="B89" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C89" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D89" t="s" s="0">
+      <c r="B89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" t="s">
         <v>260</v>
       </c>
-      <c r="E89" t="s" s="0">
+      <c r="E89" t="s">
         <v>501</v>
       </c>
-      <c r="F89" t="s" s="0">
+      <c r="F89" t="s">
         <v>420</v>
       </c>
-      <c r="G89" t="s" s="0">
+      <c r="G89" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s" s="0">
+    <row r="90" spans="1:7" ht="14.5" hidden="1">
+      <c r="A90" t="s">
         <v>382</v>
       </c>
-      <c r="B90" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C90" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D90" t="s" s="0">
+      <c r="B90" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" t="s">
         <v>260</v>
       </c>
-      <c r="E90" t="s" s="0">
+      <c r="E90" t="s">
         <v>503</v>
       </c>
-      <c r="F90" t="s" s="0">
+      <c r="F90" t="s">
         <v>347</v>
       </c>
-      <c r="G90" t="s" s="0">
+      <c r="G90" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s" s="0">
+    <row r="91" spans="1:7" ht="14.5" hidden="1">
+      <c r="A91" t="s">
         <v>382</v>
       </c>
-      <c r="B91" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C91" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D91" t="s" s="0">
+      <c r="B91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" t="s">
         <v>260</v>
       </c>
-      <c r="E91" t="s" s="0">
+      <c r="E91" t="s">
         <v>505</v>
       </c>
-      <c r="F91" t="s" s="0">
+      <c r="F91" t="s">
         <v>420</v>
       </c>
-      <c r="G91" t="s" s="0">
+      <c r="G91" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s" s="0">
+    <row r="92" spans="1:7" ht="14.5" hidden="1">
+      <c r="A92" t="s">
         <v>12</v>
       </c>
-      <c r="B92" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C92" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D92" t="s" s="0">
+      <c r="B92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s">
         <v>507</v>
       </c>
-      <c r="F92" t="s" s="0">
+      <c r="F92" t="s">
         <v>347</v>
       </c>
-      <c r="G92" t="s" s="0">
+      <c r="G92" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s" s="0">
+    <row r="93" spans="1:7" ht="14.5" hidden="1">
+      <c r="A93" t="s">
         <v>12</v>
       </c>
-      <c r="B93" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C93" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D93" t="s" s="0">
+      <c r="B93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" t="s">
         <v>260</v>
       </c>
-      <c r="E93" t="s" s="0">
+      <c r="E93" t="s">
         <v>509</v>
       </c>
-      <c r="F93" t="s" s="0">
+      <c r="F93" t="s">
         <v>420</v>
       </c>
-      <c r="G93" t="s" s="0">
+      <c r="G93" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s" s="0">
+    <row r="94" spans="1:7" ht="14.5" hidden="1">
+      <c r="A94" t="s">
         <v>15</v>
       </c>
-      <c r="B94" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C94" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D94" t="s" s="0">
+      <c r="B94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" t="s">
         <v>261</v>
       </c>
-      <c r="E94" t="s" s="0">
+      <c r="E94" t="s">
         <v>511</v>
       </c>
-      <c r="F94" t="s" s="0">
+      <c r="F94" t="s">
         <v>347</v>
       </c>
-      <c r="G94" t="s" s="0">
+      <c r="G94" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s" s="0">
+    <row r="95" spans="1:7" ht="14.5" hidden="1">
+      <c r="A95" t="s">
         <v>15</v>
       </c>
-      <c r="B95" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C95" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D95" t="s" s="0">
+      <c r="B95" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" t="s">
         <v>261</v>
       </c>
-      <c r="E95" t="s" s="0">
+      <c r="E95" t="s">
         <v>513</v>
       </c>
-      <c r="F95" t="s" s="0">
+      <c r="F95" t="s">
         <v>420</v>
       </c>
-      <c r="G95" t="s" s="0">
+      <c r="G95" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s" s="0">
+    <row r="96" spans="1:7" ht="14.5" hidden="1">
+      <c r="A96" t="s">
         <v>73</v>
       </c>
-      <c r="B96" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C96" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D96" t="s" s="0">
+      <c r="B96" t="s">
+        <v>246</v>
+      </c>
+      <c r="C96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" t="s">
         <v>261</v>
       </c>
-      <c r="E96" t="s" s="0">
+      <c r="E96" t="s">
         <v>515</v>
       </c>
-      <c r="F96" t="s" s="0">
+      <c r="F96" t="s">
         <v>347</v>
       </c>
-      <c r="G96" t="s" s="0">
+      <c r="G96" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s" s="0">
+    <row r="97" spans="1:7" ht="14.5" hidden="1">
+      <c r="A97" t="s">
         <v>73</v>
       </c>
-      <c r="B97" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C97" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D97" t="s" s="0">
+      <c r="B97" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" t="s">
         <v>261</v>
       </c>
-      <c r="E97" t="s" s="0">
+      <c r="E97" t="s">
         <v>517</v>
       </c>
-      <c r="F97" t="s" s="0">
+      <c r="F97" t="s">
         <v>420</v>
       </c>
-      <c r="G97" t="s" s="0">
+      <c r="G97" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s" s="0">
+    <row r="98" spans="1:7" ht="14.5" hidden="1">
+      <c r="A98" t="s">
         <v>18</v>
       </c>
-      <c r="B98" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C98" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D98" t="s" s="0">
+      <c r="B98" t="s">
+        <v>246</v>
+      </c>
+      <c r="C98" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" t="s">
         <v>261</v>
       </c>
-      <c r="E98" t="s" s="0">
+      <c r="E98" t="s">
         <v>519</v>
       </c>
-      <c r="F98" t="s" s="0">
+      <c r="F98" t="s">
         <v>347</v>
       </c>
-      <c r="G98" t="s" s="0">
+      <c r="G98" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s" s="0">
+    <row r="99" spans="1:7" ht="14.5" hidden="1">
+      <c r="A99" t="s">
         <v>18</v>
       </c>
-      <c r="B99" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C99" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D99" t="s" s="0">
+      <c r="B99" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" t="s">
         <v>261</v>
       </c>
-      <c r="E99" t="s" s="0">
+      <c r="E99" t="s">
         <v>521</v>
       </c>
-      <c r="F99" t="s" s="0">
+      <c r="F99" t="s">
         <v>420</v>
       </c>
-      <c r="G99" t="s" s="0">
+      <c r="G99" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s" s="0">
+    <row r="100" spans="1:7" ht="14.5" hidden="1">
+      <c r="A100" t="s">
         <v>19</v>
       </c>
-      <c r="B100" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C100" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D100" t="s" s="0">
+      <c r="B100" t="s">
+        <v>246</v>
+      </c>
+      <c r="C100" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" t="s">
         <v>261</v>
       </c>
-      <c r="E100" t="s" s="0">
+      <c r="E100" t="s">
         <v>523</v>
       </c>
-      <c r="F100" t="s" s="0">
+      <c r="F100" t="s">
         <v>347</v>
       </c>
-      <c r="G100" t="s" s="0">
+      <c r="G100" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s" s="0">
+    <row r="101" spans="1:7" ht="14.5" hidden="1">
+      <c r="A101" t="s">
         <v>19</v>
       </c>
-      <c r="B101" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C101" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D101" t="s" s="0">
+      <c r="B101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C101" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" t="s">
         <v>261</v>
       </c>
-      <c r="E101" t="s" s="0">
+      <c r="E101" t="s">
         <v>525</v>
       </c>
-      <c r="F101" t="s" s="0">
+      <c r="F101" t="s">
         <v>420</v>
       </c>
-      <c r="G101" t="s" s="0">
+      <c r="G101" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s" s="0">
+    <row r="102" spans="1:7" ht="14.5" hidden="1">
+      <c r="A102" t="s">
         <v>18</v>
       </c>
-      <c r="B102" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C102" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D102" t="s" s="0">
+      <c r="B102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" t="s">
         <v>261</v>
       </c>
-      <c r="E102" t="s" s="0">
+      <c r="E102" t="s">
         <v>528</v>
       </c>
-      <c r="F102" t="s" s="0">
+      <c r="F102" t="s">
         <v>420</v>
       </c>
-      <c r="G102" t="s" s="0">
+      <c r="G102" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s" s="0">
+    <row r="103" spans="1:7" ht="14.5" hidden="1">
+      <c r="A103" t="s">
         <v>21</v>
       </c>
-      <c r="B103" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C103" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D103" t="s" s="0">
+      <c r="B103" t="s">
+        <v>246</v>
+      </c>
+      <c r="C103" t="s">
+        <v>246</v>
+      </c>
+      <c r="D103" t="s">
         <v>261</v>
       </c>
-      <c r="E103" t="s" s="0">
+      <c r="E103" t="s">
         <v>530</v>
       </c>
-      <c r="F103" t="s" s="0">
+      <c r="F103" t="s">
         <v>347</v>
       </c>
-      <c r="G103" t="s" s="0">
+      <c r="G103" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s" s="0">
+    <row r="104" spans="1:7" ht="14.5" hidden="1">
+      <c r="A104" t="s">
         <v>21</v>
       </c>
-      <c r="B104" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C104" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D104" t="s" s="0">
+      <c r="B104" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" t="s">
+        <v>246</v>
+      </c>
+      <c r="D104" t="s">
         <v>261</v>
       </c>
-      <c r="E104" t="s" s="0">
+      <c r="E104" t="s">
         <v>532</v>
       </c>
-      <c r="F104" t="s" s="0">
+      <c r="F104" t="s">
         <v>420</v>
       </c>
-      <c r="G104" t="s" s="0">
+      <c r="G104" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s" s="0">
+    <row r="105" spans="1:7" ht="14.5" hidden="1">
+      <c r="A105" t="s">
         <v>12</v>
       </c>
-      <c r="B105" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C105" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D105" t="s" s="0">
+      <c r="B105" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s">
         <v>534</v>
       </c>
-      <c r="F105" t="s" s="0">
+      <c r="F105" t="s">
         <v>347</v>
       </c>
-      <c r="G105" t="s" s="0">
+      <c r="G105" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s" s="0">
+    <row r="106" spans="1:7" ht="14.5" hidden="1">
+      <c r="A106" t="s">
         <v>12</v>
       </c>
-      <c r="B106" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C106" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D106" t="s" s="0">
+      <c r="B106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s">
         <v>534</v>
       </c>
-      <c r="F106" t="s" s="0">
+      <c r="F106" t="s">
         <v>420</v>
       </c>
-      <c r="G106" t="s" s="0">
+      <c r="G106" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s" s="0">
+    <row r="107" spans="1:7" ht="14.5" hidden="1">
+      <c r="A107" t="s">
         <v>23</v>
       </c>
-      <c r="B107" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C107" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D107" t="s" s="0">
+      <c r="B107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" t="s">
+        <v>249</v>
+      </c>
+      <c r="D107" t="s">
         <v>260</v>
       </c>
-      <c r="E107" t="s" s="0">
+      <c r="E107" t="s">
         <v>537</v>
       </c>
-      <c r="F107" t="s" s="0">
+      <c r="F107" t="s">
         <v>347</v>
       </c>
-      <c r="G107" t="s" s="0">
+      <c r="G107" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s" s="0">
+    <row r="108" spans="1:7" ht="14.5" hidden="1">
+      <c r="A108" t="s">
         <v>23</v>
       </c>
-      <c r="B108" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C108" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D108" t="s" s="0">
+      <c r="B108" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" t="s">
+        <v>249</v>
+      </c>
+      <c r="D108" t="s">
         <v>260</v>
       </c>
-      <c r="E108" t="s" s="0">
+      <c r="E108" t="s">
         <v>539</v>
       </c>
-      <c r="F108" t="s" s="0">
+      <c r="F108" t="s">
         <v>420</v>
       </c>
-      <c r="G108" t="s" s="0">
+      <c r="G108" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s" s="0">
+    <row r="109" spans="1:7" ht="14.5" hidden="1">
+      <c r="A109" t="s">
         <v>12</v>
       </c>
-      <c r="B109" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C109" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D109" t="s" s="0">
+      <c r="B109" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
         <v>541</v>
       </c>
-      <c r="F109" t="s" s="0">
+      <c r="F109" t="s">
         <v>347</v>
       </c>
-      <c r="G109" t="s" s="0">
+      <c r="G109" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s" s="0">
+    <row r="110" spans="1:7" ht="14.5" hidden="1">
+      <c r="A110" t="s">
         <v>12</v>
       </c>
-      <c r="B110" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C110" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D110" t="s" s="0">
+      <c r="B110" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" t="s">
         <v>541</v>
       </c>
-      <c r="F110" t="s" s="0">
+      <c r="F110" t="s">
         <v>420</v>
       </c>
-      <c r="G110" t="s" s="0">
+      <c r="G110" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s" s="0">
+    <row r="111" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A111" t="s">
         <v>6</v>
       </c>
-      <c r="B111" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C111" t="s" s="0">
+      <c r="B111" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" t="s">
         <v>39</v>
       </c>
-      <c r="D111" t="s" s="0">
+      <c r="D111" t="s">
         <v>547</v>
       </c>
-      <c r="E111" t="s" s="0">
+      <c r="E111" t="s">
         <v>548</v>
       </c>
-      <c r="F111" t="s" s="0">
+      <c r="F111" t="s">
         <v>546</v>
       </c>
-      <c r="G111" t="s" s="0">
+      <c r="G111" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s" s="0">
+    <row r="112" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A112" t="s">
         <v>6</v>
       </c>
-      <c r="B112" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C112" t="s" s="0">
+      <c r="B112" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" t="s">
         <v>39</v>
       </c>
-      <c r="D112" t="s" s="0">
+      <c r="D112" t="s">
         <v>547</v>
       </c>
-      <c r="E112" t="s" s="0">
+      <c r="E112" t="s">
         <v>550</v>
       </c>
-      <c r="F112" t="s" s="0">
+      <c r="F112" t="s">
         <v>546</v>
       </c>
-      <c r="G112" t="s" s="0">
+      <c r="G112" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s" s="0">
+    <row r="113" spans="1:7" s="28" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A113" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B113" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C113" t="s" s="0">
+      <c r="B113" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D113" t="s" s="0">
+      <c r="D113" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="E113" t="s" s="0">
+      <c r="E113" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="F113" t="s" s="0">
+      <c r="F113" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="G113" t="s" s="0">
+      <c r="G113" s="28" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s" s="0">
+    <row r="114" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A114" t="s">
         <v>6</v>
       </c>
-      <c r="B114" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C114" t="s" s="0">
+      <c r="B114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s">
         <v>39</v>
       </c>
-      <c r="D114" t="s" s="0">
+      <c r="D114" t="s">
         <v>547</v>
       </c>
-      <c r="E114" t="s" s="0">
+      <c r="E114" t="s">
         <v>554</v>
       </c>
-      <c r="F114" t="s" s="0">
+      <c r="F114" t="s">
         <v>546</v>
       </c>
-      <c r="G114" t="s" s="0">
+      <c r="G114" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s" s="0">
+    <row r="115" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A115" t="s">
         <v>6</v>
       </c>
-      <c r="B115" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C115" t="s" s="0">
+      <c r="B115" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" t="s">
         <v>39</v>
       </c>
-      <c r="D115" t="s" s="0">
+      <c r="D115" t="s">
         <v>557</v>
       </c>
-      <c r="E115" t="s" s="0">
+      <c r="E115" t="s">
         <v>558</v>
       </c>
-      <c r="F115" t="s" s="0">
+      <c r="F115" t="s">
         <v>556</v>
       </c>
-      <c r="G115" t="s" s="0">
+      <c r="G115" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s" s="0">
+    <row r="116" spans="1:7" ht="14.5" hidden="1">
+      <c r="A116" t="s">
         <v>6</v>
       </c>
-      <c r="B116" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C116" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D116" t="s" s="0">
+      <c r="B116" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" t="s">
         <v>261</v>
       </c>
-      <c r="E116" t="s" s="0">
+      <c r="E116" t="s">
         <v>560</v>
       </c>
-      <c r="F116" t="s" s="0">
+      <c r="F116" t="s">
         <v>556</v>
       </c>
-      <c r="G116" t="s" s="0">
+      <c r="G116" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s" s="0">
+    <row r="117" spans="1:7" ht="14.5" hidden="1">
+      <c r="A117" t="s">
         <v>19</v>
       </c>
-      <c r="B117" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C117" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D117" t="s" s="0">
+      <c r="B117" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" t="s">
+        <v>246</v>
+      </c>
+      <c r="D117" t="s">
         <v>261</v>
       </c>
-      <c r="E117" t="s" s="0">
+      <c r="E117" t="s">
         <v>562</v>
       </c>
-      <c r="F117" t="s" s="0">
+      <c r="F117" t="s">
         <v>556</v>
       </c>
-      <c r="G117" t="s" s="0">
+      <c r="G117" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s" s="0">
+    <row r="118" spans="1:7" ht="14.5" hidden="1">
+      <c r="A118" t="s">
         <v>20</v>
       </c>
-      <c r="B118" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C118" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D118" t="s" s="0">
+      <c r="B118" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" t="s">
+        <v>246</v>
+      </c>
+      <c r="D118" t="s">
         <v>261</v>
       </c>
-      <c r="E118" t="s" s="0">
+      <c r="E118" t="s">
         <v>564</v>
       </c>
-      <c r="F118" t="s" s="0">
+      <c r="F118" t="s">
         <v>556</v>
       </c>
-      <c r="G118" t="s" s="0">
+      <c r="G118" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s" s="0">
+    <row r="119" spans="1:7" ht="14.5" hidden="1">
+      <c r="A119" t="s">
         <v>21</v>
       </c>
-      <c r="B119" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C119" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="D119" t="s" s="0">
+      <c r="B119" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" t="s">
         <v>261</v>
       </c>
-      <c r="E119" t="s" s="0">
+      <c r="E119" t="s">
         <v>566</v>
       </c>
-      <c r="F119" t="s" s="0">
+      <c r="F119" t="s">
         <v>556</v>
       </c>
-      <c r="G119" t="s" s="0">
+      <c r="G119" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s" s="0">
+    <row r="120" spans="1:7" ht="14.5">
+      <c r="A120" t="s">
         <v>12</v>
       </c>
-      <c r="B120" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C120" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="D120" t="s" s="0">
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" t="s">
         <v>413</v>
       </c>
-      <c r="F120" t="s" s="0">
+      <c r="F120" t="s">
         <v>556</v>
       </c>
-      <c r="G120" t="s" s="0">
+      <c r="G120" t="s">
         <v>568</v>
       </c>
     </row>
+    <row r="121" spans="1:7" ht="14.5" hidden="1">
+      <c r="A121" t="s">
+        <v>266</v>
+      </c>
+      <c r="B121" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121" t="s">
+        <v>582</v>
+      </c>
+      <c r="F121" t="s">
+        <v>581</v>
+      </c>
+      <c r="G121" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="14.5" hidden="1">
+      <c r="A122" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" t="s">
+        <v>253</v>
+      </c>
+      <c r="E122" t="s">
+        <v>584</v>
+      </c>
+      <c r="F122" t="s">
+        <v>581</v>
+      </c>
+      <c r="G122" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="14.5" hidden="1">
+      <c r="A123" t="s">
+        <v>331</v>
+      </c>
+      <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" t="s">
+        <v>253</v>
+      </c>
+      <c r="E123" t="s">
+        <v>586</v>
+      </c>
+      <c r="F123" t="s">
+        <v>581</v>
+      </c>
+      <c r="G123" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A124" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" t="s">
+        <v>305</v>
+      </c>
+      <c r="E124" t="s">
+        <v>588</v>
+      </c>
+      <c r="F124" t="s">
+        <v>581</v>
+      </c>
+      <c r="G124" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A125" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" t="s">
+        <v>305</v>
+      </c>
+      <c r="E125" t="s">
+        <v>590</v>
+      </c>
+      <c r="F125" t="s">
+        <v>581</v>
+      </c>
+      <c r="G125" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="14.5" hidden="1">
+      <c r="A126" t="s">
+        <v>331</v>
+      </c>
+      <c r="B126" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" t="s">
+        <v>253</v>
+      </c>
+      <c r="E126" t="s">
+        <v>592</v>
+      </c>
+      <c r="F126" t="s">
+        <v>581</v>
+      </c>
+      <c r="G126" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A127" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" t="s">
+        <v>305</v>
+      </c>
+      <c r="E127" t="s">
+        <v>594</v>
+      </c>
+      <c r="F127" t="s">
+        <v>581</v>
+      </c>
+      <c r="G127" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="14.5" hidden="1">
+      <c r="A128" t="s">
+        <v>266</v>
+      </c>
+      <c r="B128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" t="s">
+        <v>253</v>
+      </c>
+      <c r="E128" t="s">
+        <v>596</v>
+      </c>
+      <c r="F128" t="s">
+        <v>581</v>
+      </c>
+      <c r="G128" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14.5" hidden="1">
+      <c r="A129" t="s">
+        <v>331</v>
+      </c>
+      <c r="B129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" t="s">
+        <v>253</v>
+      </c>
+      <c r="E129" t="s">
+        <v>598</v>
+      </c>
+      <c r="F129" t="s">
+        <v>581</v>
+      </c>
+      <c r="G129" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A130" t="s">
+        <v>331</v>
+      </c>
+      <c r="B130" t="s">
+        <v>246</v>
+      </c>
+      <c r="C130" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" t="s">
+        <v>305</v>
+      </c>
+      <c r="E130" t="s">
+        <v>600</v>
+      </c>
+      <c r="F130" t="s">
+        <v>581</v>
+      </c>
+      <c r="G130" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A131" t="s">
+        <v>331</v>
+      </c>
+      <c r="B131" t="s">
+        <v>246</v>
+      </c>
+      <c r="C131" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" t="s">
+        <v>305</v>
+      </c>
+      <c r="E131" t="s">
+        <v>602</v>
+      </c>
+      <c r="F131" t="s">
+        <v>581</v>
+      </c>
+      <c r="G131" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+      <c r="A132" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" t="s">
+        <v>387</v>
+      </c>
+      <c r="E132" t="s">
+        <v>604</v>
+      </c>
+      <c r="F132" t="s">
+        <v>581</v>
+      </c>
+      <c r="G132" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="14.5" hidden="1">
+      <c r="A133" t="s">
+        <v>331</v>
+      </c>
+      <c r="B133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s">
+        <v>253</v>
+      </c>
+      <c r="E133" t="s">
+        <v>606</v>
+      </c>
+      <c r="F133" t="s">
+        <v>581</v>
+      </c>
+      <c r="G133" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+      <c r="A134" t="s">
+        <v>332</v>
+      </c>
+      <c r="B134" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" t="s">
+        <v>387</v>
+      </c>
+      <c r="E134" t="s">
+        <v>608</v>
+      </c>
+      <c r="F134" t="s">
+        <v>581</v>
+      </c>
+      <c r="G134" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+      <c r="A135" t="s">
+        <v>332</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" t="s">
+        <v>387</v>
+      </c>
+      <c r="E135" t="s">
+        <v>610</v>
+      </c>
+      <c r="F135" t="s">
+        <v>581</v>
+      </c>
+      <c r="G135" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="19.5" hidden="1" customHeight="1">
+      <c r="A136" t="s">
+        <v>332</v>
+      </c>
+      <c r="B136" t="s">
+        <v>249</v>
+      </c>
+      <c r="C136" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" t="s">
+        <v>387</v>
+      </c>
+      <c r="E136" t="s">
+        <v>612</v>
+      </c>
+      <c r="F136" t="s">
+        <v>581</v>
+      </c>
+      <c r="G136" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="14.5">
+      <c r="A137" t="s">
+        <v>332</v>
+      </c>
+      <c r="B137" t="s">
+        <v>249</v>
+      </c>
+      <c r="C137" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" t="s">
+        <v>614</v>
+      </c>
+      <c r="E137" t="s">
+        <v>615</v>
+      </c>
+      <c r="F137" t="s">
+        <v>581</v>
+      </c>
+      <c r="G137" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="14.5">
+      <c r="A138" t="s">
+        <v>332</v>
+      </c>
+      <c r="B138" t="s">
+        <v>249</v>
+      </c>
+      <c r="C138" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" t="s">
+        <v>614</v>
+      </c>
+      <c r="E138" t="s">
+        <v>617</v>
+      </c>
+      <c r="F138" t="s">
+        <v>581</v>
+      </c>
+      <c r="G138" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14.5">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139" t="s">
+        <v>249</v>
+      </c>
+      <c r="D139" t="s">
+        <v>334</v>
+      </c>
+      <c r="F139" t="s">
+        <v>581</v>
+      </c>
+      <c r="G139" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14.5">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>249</v>
+      </c>
+      <c r="C140" t="s">
+        <v>249</v>
+      </c>
+      <c r="D140" t="s">
+        <v>334</v>
+      </c>
+      <c r="F140" t="s">
+        <v>581</v>
+      </c>
+      <c r="G140" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.5">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>249</v>
+      </c>
+      <c r="C141" t="s">
+        <v>249</v>
+      </c>
+      <c r="D141" t="s">
+        <v>336</v>
+      </c>
+      <c r="F141" t="s">
+        <v>581</v>
+      </c>
+      <c r="G141" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.5">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>249</v>
+      </c>
+      <c r="C142" t="s">
+        <v>249</v>
+      </c>
+      <c r="D142" t="s">
+        <v>336</v>
+      </c>
+      <c r="F142" t="s">
+        <v>581</v>
+      </c>
+      <c r="G142" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.5">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>249</v>
+      </c>
+      <c r="C143" t="s">
+        <v>249</v>
+      </c>
+      <c r="D143" t="s">
+        <v>338</v>
+      </c>
+      <c r="F143" t="s">
+        <v>581</v>
+      </c>
+      <c r="G143" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.5">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
+        <v>249</v>
+      </c>
+      <c r="C144" t="s">
+        <v>249</v>
+      </c>
+      <c r="D144" t="s">
+        <v>338</v>
+      </c>
+      <c r="F144" t="s">
+        <v>581</v>
+      </c>
+      <c r="G144" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14.5" hidden="1">
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" t="s">
+        <v>246</v>
+      </c>
+      <c r="C145" t="s">
+        <v>246</v>
+      </c>
+      <c r="D145" t="s">
+        <v>261</v>
+      </c>
+      <c r="E145" t="s">
+        <v>628</v>
+      </c>
+      <c r="F145" t="s">
+        <v>581</v>
+      </c>
+      <c r="G145" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="14.5" hidden="1">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>246</v>
+      </c>
+      <c r="C146" t="s">
+        <v>246</v>
+      </c>
+      <c r="D146" t="s">
+        <v>261</v>
+      </c>
+      <c r="E146" t="s">
+        <v>630</v>
+      </c>
+      <c r="F146" t="s">
+        <v>581</v>
+      </c>
+      <c r="G146" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="14.5">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>249</v>
+      </c>
+      <c r="C147" t="s">
+        <v>249</v>
+      </c>
+      <c r="D147" t="s">
+        <v>334</v>
+      </c>
+      <c r="F147" t="s">
+        <v>581</v>
+      </c>
+      <c r="G147" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="14.5">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>249</v>
+      </c>
+      <c r="C148" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" t="s">
+        <v>334</v>
+      </c>
+      <c r="F148" t="s">
+        <v>581</v>
+      </c>
+      <c r="G148" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="14.5">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
+        <v>249</v>
+      </c>
+      <c r="C149" t="s">
+        <v>249</v>
+      </c>
+      <c r="D149" t="s">
+        <v>336</v>
+      </c>
+      <c r="F149" t="s">
+        <v>581</v>
+      </c>
+      <c r="G149" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="14.5">
+      <c r="A150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" t="s">
+        <v>249</v>
+      </c>
+      <c r="D150" t="s">
+        <v>336</v>
+      </c>
+      <c r="F150" t="s">
+        <v>581</v>
+      </c>
+      <c r="G150" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="14.5">
+      <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" t="s">
+        <v>249</v>
+      </c>
+      <c r="C151" t="s">
+        <v>249</v>
+      </c>
+      <c r="D151" t="s">
+        <v>338</v>
+      </c>
+      <c r="F151" t="s">
+        <v>581</v>
+      </c>
+      <c r="G151" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="14.5">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" t="s">
+        <v>249</v>
+      </c>
+      <c r="C152" t="s">
+        <v>249</v>
+      </c>
+      <c r="D152" t="s">
+        <v>338</v>
+      </c>
+      <c r="F152" t="s">
+        <v>581</v>
+      </c>
+      <c r="G152" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="14.5" hidden="1">
+      <c r="A153" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" t="s">
+        <v>246</v>
+      </c>
+      <c r="C153" t="s">
+        <v>246</v>
+      </c>
+      <c r="D153" t="s">
+        <v>261</v>
+      </c>
+      <c r="E153" t="s">
+        <v>638</v>
+      </c>
+      <c r="F153" t="s">
+        <v>581</v>
+      </c>
+      <c r="G153" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="14.5" hidden="1">
+      <c r="A154" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" t="s">
+        <v>246</v>
+      </c>
+      <c r="C154" t="s">
+        <v>246</v>
+      </c>
+      <c r="D154" t="s">
+        <v>261</v>
+      </c>
+      <c r="E154" t="s">
+        <v>640</v>
+      </c>
+      <c r="F154" t="s">
+        <v>581</v>
+      </c>
+      <c r="G154" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="14.5">
+      <c r="A155" t="s">
+        <v>267</v>
+      </c>
+      <c r="B155" t="s">
+        <v>246</v>
+      </c>
+      <c r="C155" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" t="s">
+        <v>642</v>
+      </c>
+      <c r="E155" t="s">
+        <v>643</v>
+      </c>
+      <c r="F155" t="s">
+        <v>581</v>
+      </c>
+      <c r="G155" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="14.5">
+      <c r="A156" t="s">
+        <v>267</v>
+      </c>
+      <c r="B156" t="s">
+        <v>246</v>
+      </c>
+      <c r="C156" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" t="s">
+        <v>645</v>
+      </c>
+      <c r="E156" t="s">
+        <v>646</v>
+      </c>
+      <c r="F156" t="s">
+        <v>581</v>
+      </c>
+      <c r="G156" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="14.5" hidden="1">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>246</v>
+      </c>
+      <c r="C157" t="s">
+        <v>246</v>
+      </c>
+      <c r="D157" t="s">
+        <v>261</v>
+      </c>
+      <c r="E157" t="s">
+        <v>648</v>
+      </c>
+      <c r="F157" t="s">
+        <v>581</v>
+      </c>
+      <c r="G157" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="14.5">
+      <c r="A158" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" t="s">
+        <v>246</v>
+      </c>
+      <c r="C158" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" t="s">
+        <v>650</v>
+      </c>
+      <c r="E158" t="s">
+        <v>651</v>
+      </c>
+      <c r="F158" t="s">
+        <v>581</v>
+      </c>
+      <c r="G158" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="14.5" hidden="1">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>246</v>
+      </c>
+      <c r="C159" t="s">
+        <v>246</v>
+      </c>
+      <c r="D159" t="s">
+        <v>261</v>
+      </c>
+      <c r="E159" t="s">
+        <v>653</v>
+      </c>
+      <c r="F159" t="s">
+        <v>581</v>
+      </c>
+      <c r="G159" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="14.5">
+      <c r="A160" t="s">
+        <v>267</v>
+      </c>
+      <c r="B160" t="s">
+        <v>246</v>
+      </c>
+      <c r="C160" t="s">
+        <v>39</v>
+      </c>
+      <c r="D160" t="s">
+        <v>655</v>
+      </c>
+      <c r="E160" t="s">
+        <v>656</v>
+      </c>
+      <c r="F160" t="s">
+        <v>581</v>
+      </c>
+      <c r="G160" t="s">
+        <v>657</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G160" xr:uid="{00000000-0001-0000-1000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FAIL"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Euroexchange"/>
+        <filter val="euroExhange"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7742,42 +8918,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95DD057-E530-49CE-8A96-15C01556F9C0}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.453125"/>
-    <col min="2" max="2" customWidth="true" width="32.1796875"/>
-    <col min="3" max="3" customWidth="true" width="20.453125"/>
-    <col min="5" max="7" customWidth="true" width="19.26953125"/>
-    <col min="8" max="8" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="5" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7794,21 +8970,21 @@
       <c r="D2" s="3">
         <v>123</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>404</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>362</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>267</v>
       </c>
-      <c r="H2" t="b" s="0">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -7817,24 +8993,24 @@
       <c r="C3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>123</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>347</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>268</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>267</v>
       </c>
-      <c r="H3" t="b" s="0">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>418</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7846,21 +9022,21 @@
       <c r="D4" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>420</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>362</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>422</v>
       </c>
-      <c r="H4" t="b" s="0">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7869,25 +9045,47 @@
       <c r="C5" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>870</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>569</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="E5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F5" t="s">
         <v>362</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>422</v>
       </c>
-      <c r="H5" t="b" s="0">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+      <c r="A6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6">
+        <v>328</v>
+      </c>
+      <c r="E6" t="s">
+        <v>581</v>
+      </c>
+      <c r="F6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="1"/>
@@ -8073,11 +9271,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="14" width="15.6328125"/>
-    <col min="2" max="2" customWidth="true" style="14" width="17.81640625"/>
-    <col min="3" max="3" customWidth="true" style="14" width="20.6328125"/>
-    <col min="4" max="4" customWidth="true" style="4" width="11.90625"/>
-    <col min="5" max="5" style="4" width="8.7265625"/>
+    <col min="1" max="1" width="15.6328125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8154,12 +9352,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.453125"/>
-    <col min="2" max="2" customWidth="true" width="17.0"/>
-    <col min="3" max="3" customWidth="true" width="18.90625"/>
-    <col min="4" max="4" customWidth="true" width="17.54296875"/>
-    <col min="5" max="5" customWidth="true" width="14.08984375"/>
-    <col min="7" max="7" customWidth="true" width="13.81640625"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8174,7 +9372,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -8188,10 +9386,10 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>249</v>
       </c>
       <c r="C3" s="1" t="b">
@@ -8201,10 +9399,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>249</v>
       </c>
       <c r="C4" s="1" t="b">
@@ -8214,10 +9412,10 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>246</v>
       </c>
       <c r="C5" s="1" t="b">
@@ -8227,10 +9425,10 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>249</v>
       </c>
       <c r="C6" s="1" t="b">
@@ -8241,10 +9439,10 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>249</v>
       </c>
       <c r="C7" s="1" t="b">
@@ -8255,10 +9453,10 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>249</v>
       </c>
       <c r="C8" s="1" t="b">
@@ -8269,10 +9467,10 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="1" t="b">
@@ -8303,12 +9501,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.453125"/>
-    <col min="2" max="2" customWidth="true" width="28.7265625"/>
-    <col min="3" max="3" customWidth="true" width="29.0"/>
-    <col min="4" max="4" customWidth="true" width="19.1796875"/>
-    <col min="5" max="5" customWidth="true" width="15.453125"/>
-    <col min="7" max="7" customWidth="true" width="12.1796875"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8323,61 +9521,61 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C2" t="b" s="0">
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C3" t="b" s="0">
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C4" t="b" s="0">
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="C5" t="b" s="0">
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="C6" t="b" s="0">
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
@@ -8452,10 +9650,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="20" width="17.453125"/>
-    <col min="2" max="2" customWidth="true" style="20" width="19.1796875"/>
-    <col min="3" max="3" customWidth="true" style="20" width="17.453125"/>
-    <col min="4" max="4" customWidth="true" width="14.08984375"/>
+    <col min="1" max="1" width="17.453125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8654,12 +9852,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.7265625"/>
-    <col min="2" max="2" customWidth="true" width="16.90625"/>
-    <col min="3" max="3" customWidth="true" width="24.1796875"/>
-    <col min="4" max="4" customWidth="true" width="10.453125"/>
-    <col min="5" max="5" customWidth="true" width="14.08984375"/>
-    <col min="6" max="6" customWidth="true" width="17.08984375"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8902,11 +10100,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="24.36328125"/>
-    <col min="3" max="3" customWidth="true" width="21.453125"/>
-    <col min="4" max="4" customWidth="true" width="19.90625"/>
-    <col min="5" max="5" customWidth="true" width="13.36328125"/>
-    <col min="6" max="6" customWidth="true" width="20.453125"/>
+    <col min="1" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9005,11 +10203,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="17.26953125"/>
-    <col min="4" max="4" customWidth="true" width="23.81640625"/>
-    <col min="5" max="5" customWidth="true" width="15.453125"/>
-    <col min="6" max="6" customWidth="true" width="12.81640625"/>
-    <col min="7" max="7" customWidth="true" width="15.81640625"/>
+    <col min="1" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
+++ b/src/test/resources/ExcelResultsFolder/purchaseResults.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="600">
   <si>
     <t>CardNumber</t>
   </si>
@@ -1825,6 +1825,36 @@
   </si>
   <si>
     <t>2026-01-09 12:26:58</t>
+  </si>
+  <si>
+    <t>6964ca4d963d571437994885</t>
+  </si>
+  <si>
+    <t>2026-01-12 15:48:07</t>
+  </si>
+  <si>
+    <t>6964cc8d963d5714379953b6</t>
+  </si>
+  <si>
+    <t>2026-01-12 15:57:36</t>
+  </si>
+  <si>
+    <t>6964d47b963d571437995f46</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:31:26</t>
+  </si>
+  <si>
+    <t>6964d679963d57143799704a</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:39:56</t>
+  </si>
+  <si>
+    <t>6964d870963d571437997afc</t>
+  </si>
+  <si>
+    <t>2026-01-12 16:48:24</t>
   </si>
 </sst>
 </file>
@@ -2531,7 +2561,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
@@ -3897,6 +3927,121 @@
       </c>
       <c r="G75" t="s" s="0">
         <v>589</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
